--- a/設計書/01_基本設計（外部設計）/用語一覧.xlsx
+++ b/設計書/01_基本設計（外部設計）/用語一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="135" windowWidth="15330" windowHeight="8955" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="150" windowWidth="15330" windowHeight="8940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="3" r:id="rId1"/>
@@ -14,22 +14,22 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">改訂履歴!$A$1:$AZ$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">設定情報!$A$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">用語一覧!$A$1:$AZ$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">用語一覧!$A$1:$AZ$93</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">改訂履歴!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">用語一覧!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="fst_yamashita - 個人用ビュー" guid="{342C0241-18BB-4D06-A724-8A5C681CA42A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="634" activeSheetId="1"/>
+    <customWorkbookView name="fst_nakagawa - 個人用ビュー" guid="{709F5761-167F-4C29-8B56-C1102579D2A5}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="709" activeSheetId="2"/>
+    <customWorkbookView name="fst_oono - 個人用ビュー" guid="{5C90FFEC-6F86-4010-B93C-252309794A08}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1527" windowHeight="650" activeSheetId="2"/>
     <customWorkbookView name="FST.Noguchi - 個人用ビュー" guid="{5D7CE7C0-1A07-4E70-816B-B9F27EFCFB34}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="670" activeSheetId="1"/>
-    <customWorkbookView name="fst_oono - 個人用ビュー" guid="{5C90FFEC-6F86-4010-B93C-252309794A08}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1527" windowHeight="650" activeSheetId="2"/>
-    <customWorkbookView name="fst_nakagawa - 個人用ビュー" guid="{709F5761-167F-4C29-8B56-C1102579D2A5}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="709" activeSheetId="2"/>
-    <customWorkbookView name="fst_yamashita - 個人用ビュー" guid="{342C0241-18BB-4D06-A724-8A5C681CA42A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="634" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="142">
   <si>
     <t>承認</t>
     <rPh sb="0" eb="2">
@@ -426,103 +426,176 @@
     <t>approve_user_nm</t>
   </si>
   <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>role_nm</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>user_nm</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>target_ym</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>publish</t>
+  </si>
+  <si>
+    <t>publish_flg</t>
+  </si>
+  <si>
+    <t>publish_flg_nm</t>
+  </si>
+  <si>
+    <t>regist</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>code_nm</t>
+  </si>
+  <si>
+    <t>code_kbn</t>
+  </si>
+  <si>
+    <t>code_kbn_nm</t>
+  </si>
+  <si>
+    <t>attr</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>ins_id</t>
+  </si>
+  <si>
+    <t>ins_date</t>
+  </si>
+  <si>
+    <t>upd_id</t>
+  </si>
+  <si>
+    <t>upd_date</t>
+  </si>
+  <si>
+    <t>del_flg</t>
+  </si>
+  <si>
+    <t>↑</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>部署</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>departmen</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>deny</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>role_nm</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>user_nm</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>target_ym</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>publish</t>
-  </si>
-  <si>
-    <t>publish_flg</t>
-  </si>
-  <si>
-    <t>publish_flg_nm</t>
-  </si>
-  <si>
-    <t>regist</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>code_nm</t>
-  </si>
-  <si>
-    <t>code_kbn</t>
-  </si>
-  <si>
-    <t>code_kbn_nm</t>
-  </si>
-  <si>
-    <t>attr</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>ins_id</t>
-  </si>
-  <si>
-    <t>ins_date</t>
-  </si>
-  <si>
-    <t>upd_id</t>
-  </si>
-  <si>
-    <t>upd_date</t>
-  </si>
-  <si>
-    <t>del_flg</t>
-  </si>
-  <si>
-    <t>↑</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>部署ID</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>部署名</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>departmen_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>departmen_nm</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>departmen_rnm</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>部署略称</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リャクショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>承認フロー</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>pprove_flow</t>
+    </r>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1216,7 +1289,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1363,6 +1436,150 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="44" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="3" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1399,152 +1616,14 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -2005,201 +2084,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="str">
+      <c r="A1" s="54" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改訂履歴</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="98" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="113" t="str">
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="59" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="113"/>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="113"/>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="113"/>
-      <c r="AG1" s="98" t="s">
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="98"/>
-      <c r="AI1" s="98"/>
-      <c r="AJ1" s="98"/>
-      <c r="AK1" s="98"/>
-      <c r="AL1" s="98"/>
-      <c r="AM1" s="98" t="s">
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="AN1" s="98"/>
-      <c r="AO1" s="98"/>
-      <c r="AP1" s="98"/>
-      <c r="AQ1" s="98"/>
-      <c r="AR1" s="98"/>
-      <c r="AS1" s="98" t="s">
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="AT1" s="98"/>
-      <c r="AU1" s="98"/>
-      <c r="AV1" s="98"/>
-      <c r="AW1" s="98"/>
-      <c r="AX1" s="98" t="s">
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="AY1" s="98"/>
-      <c r="AZ1" s="99"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="60"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="111"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="100" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="101" t="str">
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="62" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="101"/>
-      <c r="AG2" s="102">
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="63">
         <v>42619</v>
       </c>
-      <c r="AH2" s="102"/>
-      <c r="AI2" s="102"/>
-      <c r="AJ2" s="102"/>
-      <c r="AK2" s="102"/>
-      <c r="AL2" s="102"/>
-      <c r="AM2" s="104" t="s">
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="AN2" s="101"/>
-      <c r="AO2" s="101"/>
-      <c r="AP2" s="101"/>
-      <c r="AQ2" s="101"/>
-      <c r="AR2" s="101"/>
-      <c r="AS2" s="105"/>
-      <c r="AT2" s="105"/>
-      <c r="AU2" s="105"/>
-      <c r="AV2" s="105"/>
-      <c r="AW2" s="105"/>
-      <c r="AX2" s="101"/>
-      <c r="AY2" s="101"/>
-      <c r="AZ2" s="107"/>
+      <c r="AN2" s="62"/>
+      <c r="AO2" s="62"/>
+      <c r="AP2" s="62"/>
+      <c r="AQ2" s="62"/>
+      <c r="AR2" s="62"/>
+      <c r="AS2" s="67"/>
+      <c r="AT2" s="67"/>
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="62"/>
+      <c r="AY2" s="62"/>
+      <c r="AZ2" s="69"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91" t="str">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="66" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="90" t="s">
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="91" t="str">
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="66" t="str">
         <f>設定情報!$C$5</f>
         <v>用語一覧</v>
       </c>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="91"/>
-      <c r="AG3" s="103"/>
-      <c r="AH3" s="103"/>
-      <c r="AI3" s="103"/>
-      <c r="AJ3" s="103"/>
-      <c r="AK3" s="103"/>
-      <c r="AL3" s="103"/>
-      <c r="AM3" s="91"/>
-      <c r="AN3" s="91"/>
-      <c r="AO3" s="91"/>
-      <c r="AP3" s="91"/>
-      <c r="AQ3" s="91"/>
-      <c r="AR3" s="91"/>
-      <c r="AS3" s="106"/>
-      <c r="AT3" s="106"/>
-      <c r="AU3" s="106"/>
-      <c r="AV3" s="106"/>
-      <c r="AW3" s="106"/>
-      <c r="AX3" s="91"/>
-      <c r="AY3" s="91"/>
-      <c r="AZ3" s="108"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="66"/>
+      <c r="AO3" s="66"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="66"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="68"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="66"/>
+      <c r="AY3" s="66"/>
+      <c r="AZ3" s="70"/>
     </row>
     <row r="4" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
@@ -2367,1098 +2446,1098 @@
     </row>
     <row r="7" spans="1:52" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="95" t="s">
+      <c r="C7" s="74"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="92" t="s">
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="92" t="s">
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="93"/>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="93"/>
-      <c r="AE7" s="93"/>
-      <c r="AF7" s="93"/>
-      <c r="AG7" s="93"/>
-      <c r="AH7" s="93"/>
-      <c r="AI7" s="93"/>
-      <c r="AJ7" s="93"/>
-      <c r="AK7" s="93"/>
-      <c r="AL7" s="93"/>
-      <c r="AM7" s="93"/>
-      <c r="AN7" s="93"/>
-      <c r="AO7" s="93"/>
-      <c r="AP7" s="93"/>
-      <c r="AQ7" s="93"/>
-      <c r="AR7" s="93"/>
-      <c r="AS7" s="93"/>
-      <c r="AT7" s="93"/>
-      <c r="AU7" s="93"/>
-      <c r="AV7" s="93"/>
-      <c r="AW7" s="93"/>
-      <c r="AX7" s="93"/>
-      <c r="AY7" s="94"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="74"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="74"/>
+      <c r="AG7" s="74"/>
+      <c r="AH7" s="74"/>
+      <c r="AI7" s="74"/>
+      <c r="AJ7" s="74"/>
+      <c r="AK7" s="74"/>
+      <c r="AL7" s="74"/>
+      <c r="AM7" s="74"/>
+      <c r="AN7" s="74"/>
+      <c r="AO7" s="74"/>
+      <c r="AP7" s="74"/>
+      <c r="AQ7" s="74"/>
+      <c r="AR7" s="74"/>
+      <c r="AS7" s="74"/>
+      <c r="AT7" s="74"/>
+      <c r="AU7" s="74"/>
+      <c r="AV7" s="74"/>
+      <c r="AW7" s="74"/>
+      <c r="AX7" s="74"/>
+      <c r="AY7" s="75"/>
       <c r="AZ7" s="11"/>
     </row>
     <row r="8" spans="1:52" s="8" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="85"/>
-      <c r="U8" s="85"/>
-      <c r="V8" s="85"/>
-      <c r="W8" s="85"/>
-      <c r="X8" s="85"/>
-      <c r="Y8" s="85"/>
-      <c r="Z8" s="85"/>
-      <c r="AA8" s="85"/>
-      <c r="AB8" s="85"/>
-      <c r="AC8" s="85"/>
-      <c r="AD8" s="85"/>
-      <c r="AE8" s="85"/>
-      <c r="AF8" s="85"/>
-      <c r="AG8" s="85"/>
-      <c r="AH8" s="85"/>
-      <c r="AI8" s="85"/>
-      <c r="AJ8" s="85"/>
-      <c r="AK8" s="85"/>
-      <c r="AL8" s="85"/>
-      <c r="AM8" s="85"/>
-      <c r="AN8" s="85"/>
-      <c r="AO8" s="85"/>
-      <c r="AP8" s="85"/>
-      <c r="AQ8" s="85"/>
-      <c r="AR8" s="85"/>
-      <c r="AS8" s="85"/>
-      <c r="AT8" s="85"/>
-      <c r="AU8" s="85"/>
-      <c r="AV8" s="85"/>
-      <c r="AW8" s="85"/>
-      <c r="AX8" s="85"/>
-      <c r="AY8" s="86"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="86"/>
+      <c r="Y8" s="86"/>
+      <c r="Z8" s="86"/>
+      <c r="AA8" s="86"/>
+      <c r="AB8" s="86"/>
+      <c r="AC8" s="86"/>
+      <c r="AD8" s="86"/>
+      <c r="AE8" s="86"/>
+      <c r="AF8" s="86"/>
+      <c r="AG8" s="86"/>
+      <c r="AH8" s="86"/>
+      <c r="AI8" s="86"/>
+      <c r="AJ8" s="86"/>
+      <c r="AK8" s="86"/>
+      <c r="AL8" s="86"/>
+      <c r="AM8" s="86"/>
+      <c r="AN8" s="86"/>
+      <c r="AO8" s="86"/>
+      <c r="AP8" s="86"/>
+      <c r="AQ8" s="86"/>
+      <c r="AR8" s="86"/>
+      <c r="AS8" s="86"/>
+      <c r="AT8" s="86"/>
+      <c r="AU8" s="86"/>
+      <c r="AV8" s="86"/>
+      <c r="AW8" s="86"/>
+      <c r="AX8" s="86"/>
+      <c r="AY8" s="87"/>
       <c r="AZ8" s="12"/>
     </row>
     <row r="9" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
-      <c r="B9" s="66">
+      <c r="B9" s="89">
         <v>1</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69">
+      <c r="C9" s="90"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="92">
         <v>42619</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="88" t="s">
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="75" t="s">
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="R9" s="76"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="76"/>
-      <c r="X9" s="76"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="76"/>
-      <c r="AE9" s="76"/>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="76"/>
-      <c r="AH9" s="76"/>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="76"/>
-      <c r="AK9" s="76"/>
-      <c r="AL9" s="76"/>
-      <c r="AM9" s="76"/>
-      <c r="AN9" s="76"/>
-      <c r="AO9" s="76"/>
-      <c r="AP9" s="76"/>
-      <c r="AQ9" s="76"/>
-      <c r="AR9" s="76"/>
-      <c r="AS9" s="76"/>
-      <c r="AT9" s="76"/>
-      <c r="AU9" s="76"/>
-      <c r="AV9" s="76"/>
-      <c r="AW9" s="76"/>
-      <c r="AX9" s="76"/>
-      <c r="AY9" s="77"/>
+      <c r="R9" s="96"/>
+      <c r="S9" s="96"/>
+      <c r="T9" s="96"/>
+      <c r="U9" s="96"/>
+      <c r="V9" s="96"/>
+      <c r="W9" s="96"/>
+      <c r="X9" s="96"/>
+      <c r="Y9" s="96"/>
+      <c r="Z9" s="96"/>
+      <c r="AA9" s="96"/>
+      <c r="AB9" s="96"/>
+      <c r="AC9" s="96"/>
+      <c r="AD9" s="96"/>
+      <c r="AE9" s="96"/>
+      <c r="AF9" s="96"/>
+      <c r="AG9" s="96"/>
+      <c r="AH9" s="96"/>
+      <c r="AI9" s="96"/>
+      <c r="AJ9" s="96"/>
+      <c r="AK9" s="96"/>
+      <c r="AL9" s="96"/>
+      <c r="AM9" s="96"/>
+      <c r="AN9" s="96"/>
+      <c r="AO9" s="96"/>
+      <c r="AP9" s="96"/>
+      <c r="AQ9" s="96"/>
+      <c r="AR9" s="96"/>
+      <c r="AS9" s="96"/>
+      <c r="AT9" s="96"/>
+      <c r="AU9" s="96"/>
+      <c r="AV9" s="96"/>
+      <c r="AW9" s="96"/>
+      <c r="AX9" s="96"/>
+      <c r="AY9" s="97"/>
       <c r="AZ9" s="12"/>
     </row>
     <row r="10" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="76"/>
-      <c r="AE10" s="76"/>
-      <c r="AF10" s="76"/>
-      <c r="AG10" s="76"/>
-      <c r="AH10" s="76"/>
-      <c r="AI10" s="76"/>
-      <c r="AJ10" s="76"/>
-      <c r="AK10" s="76"/>
-      <c r="AL10" s="76"/>
-      <c r="AM10" s="76"/>
-      <c r="AN10" s="76"/>
-      <c r="AO10" s="76"/>
-      <c r="AP10" s="76"/>
-      <c r="AQ10" s="76"/>
-      <c r="AR10" s="76"/>
-      <c r="AS10" s="76"/>
-      <c r="AT10" s="76"/>
-      <c r="AU10" s="76"/>
-      <c r="AV10" s="76"/>
-      <c r="AW10" s="76"/>
-      <c r="AX10" s="76"/>
-      <c r="AY10" s="77"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="96"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="96"/>
+      <c r="U10" s="96"/>
+      <c r="V10" s="96"/>
+      <c r="W10" s="96"/>
+      <c r="X10" s="96"/>
+      <c r="Y10" s="96"/>
+      <c r="Z10" s="96"/>
+      <c r="AA10" s="96"/>
+      <c r="AB10" s="96"/>
+      <c r="AC10" s="96"/>
+      <c r="AD10" s="96"/>
+      <c r="AE10" s="96"/>
+      <c r="AF10" s="96"/>
+      <c r="AG10" s="96"/>
+      <c r="AH10" s="96"/>
+      <c r="AI10" s="96"/>
+      <c r="AJ10" s="96"/>
+      <c r="AK10" s="96"/>
+      <c r="AL10" s="96"/>
+      <c r="AM10" s="96"/>
+      <c r="AN10" s="96"/>
+      <c r="AO10" s="96"/>
+      <c r="AP10" s="96"/>
+      <c r="AQ10" s="96"/>
+      <c r="AR10" s="96"/>
+      <c r="AS10" s="96"/>
+      <c r="AT10" s="96"/>
+      <c r="AU10" s="96"/>
+      <c r="AV10" s="96"/>
+      <c r="AW10" s="96"/>
+      <c r="AX10" s="96"/>
+      <c r="AY10" s="97"/>
       <c r="AZ10" s="12"/>
     </row>
     <row r="11" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="76"/>
-      <c r="T11" s="76"/>
-      <c r="U11" s="76"/>
-      <c r="V11" s="76"/>
-      <c r="W11" s="76"/>
-      <c r="X11" s="76"/>
-      <c r="Y11" s="76"/>
-      <c r="Z11" s="76"/>
-      <c r="AA11" s="76"/>
-      <c r="AB11" s="76"/>
-      <c r="AC11" s="76"/>
-      <c r="AD11" s="76"/>
-      <c r="AE11" s="76"/>
-      <c r="AF11" s="76"/>
-      <c r="AG11" s="76"/>
-      <c r="AH11" s="76"/>
-      <c r="AI11" s="76"/>
-      <c r="AJ11" s="76"/>
-      <c r="AK11" s="76"/>
-      <c r="AL11" s="76"/>
-      <c r="AM11" s="76"/>
-      <c r="AN11" s="76"/>
-      <c r="AO11" s="76"/>
-      <c r="AP11" s="76"/>
-      <c r="AQ11" s="76"/>
-      <c r="AR11" s="76"/>
-      <c r="AS11" s="76"/>
-      <c r="AT11" s="76"/>
-      <c r="AU11" s="76"/>
-      <c r="AV11" s="76"/>
-      <c r="AW11" s="76"/>
-      <c r="AX11" s="76"/>
-      <c r="AY11" s="77"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="96"/>
+      <c r="W11" s="96"/>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="96"/>
+      <c r="Z11" s="96"/>
+      <c r="AA11" s="96"/>
+      <c r="AB11" s="96"/>
+      <c r="AC11" s="96"/>
+      <c r="AD11" s="96"/>
+      <c r="AE11" s="96"/>
+      <c r="AF11" s="96"/>
+      <c r="AG11" s="96"/>
+      <c r="AH11" s="96"/>
+      <c r="AI11" s="96"/>
+      <c r="AJ11" s="96"/>
+      <c r="AK11" s="96"/>
+      <c r="AL11" s="96"/>
+      <c r="AM11" s="96"/>
+      <c r="AN11" s="96"/>
+      <c r="AO11" s="96"/>
+      <c r="AP11" s="96"/>
+      <c r="AQ11" s="96"/>
+      <c r="AR11" s="96"/>
+      <c r="AS11" s="96"/>
+      <c r="AT11" s="96"/>
+      <c r="AU11" s="96"/>
+      <c r="AV11" s="96"/>
+      <c r="AW11" s="96"/>
+      <c r="AX11" s="96"/>
+      <c r="AY11" s="97"/>
       <c r="AZ11" s="12"/>
     </row>
     <row r="12" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="76"/>
-      <c r="AF12" s="76"/>
-      <c r="AG12" s="76"/>
-      <c r="AH12" s="76"/>
-      <c r="AI12" s="76"/>
-      <c r="AJ12" s="76"/>
-      <c r="AK12" s="76"/>
-      <c r="AL12" s="76"/>
-      <c r="AM12" s="76"/>
-      <c r="AN12" s="76"/>
-      <c r="AO12" s="76"/>
-      <c r="AP12" s="76"/>
-      <c r="AQ12" s="76"/>
-      <c r="AR12" s="76"/>
-      <c r="AS12" s="76"/>
-      <c r="AT12" s="76"/>
-      <c r="AU12" s="76"/>
-      <c r="AV12" s="76"/>
-      <c r="AW12" s="76"/>
-      <c r="AX12" s="76"/>
-      <c r="AY12" s="77"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="100"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="96"/>
+      <c r="S12" s="96"/>
+      <c r="T12" s="96"/>
+      <c r="U12" s="96"/>
+      <c r="V12" s="96"/>
+      <c r="W12" s="96"/>
+      <c r="X12" s="96"/>
+      <c r="Y12" s="96"/>
+      <c r="Z12" s="96"/>
+      <c r="AA12" s="96"/>
+      <c r="AB12" s="96"/>
+      <c r="AC12" s="96"/>
+      <c r="AD12" s="96"/>
+      <c r="AE12" s="96"/>
+      <c r="AF12" s="96"/>
+      <c r="AG12" s="96"/>
+      <c r="AH12" s="96"/>
+      <c r="AI12" s="96"/>
+      <c r="AJ12" s="96"/>
+      <c r="AK12" s="96"/>
+      <c r="AL12" s="96"/>
+      <c r="AM12" s="96"/>
+      <c r="AN12" s="96"/>
+      <c r="AO12" s="96"/>
+      <c r="AP12" s="96"/>
+      <c r="AQ12" s="96"/>
+      <c r="AR12" s="96"/>
+      <c r="AS12" s="96"/>
+      <c r="AT12" s="96"/>
+      <c r="AU12" s="96"/>
+      <c r="AV12" s="96"/>
+      <c r="AW12" s="96"/>
+      <c r="AX12" s="96"/>
+      <c r="AY12" s="97"/>
       <c r="AZ12" s="12"/>
     </row>
     <row r="13" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="76"/>
-      <c r="X13" s="76"/>
-      <c r="Y13" s="76"/>
-      <c r="Z13" s="76"/>
-      <c r="AA13" s="76"/>
-      <c r="AB13" s="76"/>
-      <c r="AC13" s="76"/>
-      <c r="AD13" s="76"/>
-      <c r="AE13" s="76"/>
-      <c r="AF13" s="76"/>
-      <c r="AG13" s="76"/>
-      <c r="AH13" s="76"/>
-      <c r="AI13" s="76"/>
-      <c r="AJ13" s="76"/>
-      <c r="AK13" s="76"/>
-      <c r="AL13" s="76"/>
-      <c r="AM13" s="76"/>
-      <c r="AN13" s="76"/>
-      <c r="AO13" s="76"/>
-      <c r="AP13" s="76"/>
-      <c r="AQ13" s="76"/>
-      <c r="AR13" s="76"/>
-      <c r="AS13" s="76"/>
-      <c r="AT13" s="76"/>
-      <c r="AU13" s="76"/>
-      <c r="AV13" s="76"/>
-      <c r="AW13" s="76"/>
-      <c r="AX13" s="76"/>
-      <c r="AY13" s="77"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="100"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="96"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="96"/>
+      <c r="W13" s="96"/>
+      <c r="X13" s="96"/>
+      <c r="Y13" s="96"/>
+      <c r="Z13" s="96"/>
+      <c r="AA13" s="96"/>
+      <c r="AB13" s="96"/>
+      <c r="AC13" s="96"/>
+      <c r="AD13" s="96"/>
+      <c r="AE13" s="96"/>
+      <c r="AF13" s="96"/>
+      <c r="AG13" s="96"/>
+      <c r="AH13" s="96"/>
+      <c r="AI13" s="96"/>
+      <c r="AJ13" s="96"/>
+      <c r="AK13" s="96"/>
+      <c r="AL13" s="96"/>
+      <c r="AM13" s="96"/>
+      <c r="AN13" s="96"/>
+      <c r="AO13" s="96"/>
+      <c r="AP13" s="96"/>
+      <c r="AQ13" s="96"/>
+      <c r="AR13" s="96"/>
+      <c r="AS13" s="96"/>
+      <c r="AT13" s="96"/>
+      <c r="AU13" s="96"/>
+      <c r="AV13" s="96"/>
+      <c r="AW13" s="96"/>
+      <c r="AX13" s="96"/>
+      <c r="AY13" s="97"/>
       <c r="AZ13" s="12"/>
     </row>
     <row r="14" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="76"/>
-      <c r="W14" s="76"/>
-      <c r="X14" s="76"/>
-      <c r="Y14" s="76"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="76"/>
-      <c r="AB14" s="76"/>
-      <c r="AC14" s="76"/>
-      <c r="AD14" s="76"/>
-      <c r="AE14" s="76"/>
-      <c r="AF14" s="76"/>
-      <c r="AG14" s="76"/>
-      <c r="AH14" s="76"/>
-      <c r="AI14" s="76"/>
-      <c r="AJ14" s="76"/>
-      <c r="AK14" s="76"/>
-      <c r="AL14" s="76"/>
-      <c r="AM14" s="76"/>
-      <c r="AN14" s="76"/>
-      <c r="AO14" s="76"/>
-      <c r="AP14" s="76"/>
-      <c r="AQ14" s="76"/>
-      <c r="AR14" s="76"/>
-      <c r="AS14" s="76"/>
-      <c r="AT14" s="76"/>
-      <c r="AU14" s="76"/>
-      <c r="AV14" s="76"/>
-      <c r="AW14" s="76"/>
-      <c r="AX14" s="76"/>
-      <c r="AY14" s="77"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="96"/>
+      <c r="S14" s="96"/>
+      <c r="T14" s="96"/>
+      <c r="U14" s="96"/>
+      <c r="V14" s="96"/>
+      <c r="W14" s="96"/>
+      <c r="X14" s="96"/>
+      <c r="Y14" s="96"/>
+      <c r="Z14" s="96"/>
+      <c r="AA14" s="96"/>
+      <c r="AB14" s="96"/>
+      <c r="AC14" s="96"/>
+      <c r="AD14" s="96"/>
+      <c r="AE14" s="96"/>
+      <c r="AF14" s="96"/>
+      <c r="AG14" s="96"/>
+      <c r="AH14" s="96"/>
+      <c r="AI14" s="96"/>
+      <c r="AJ14" s="96"/>
+      <c r="AK14" s="96"/>
+      <c r="AL14" s="96"/>
+      <c r="AM14" s="96"/>
+      <c r="AN14" s="96"/>
+      <c r="AO14" s="96"/>
+      <c r="AP14" s="96"/>
+      <c r="AQ14" s="96"/>
+      <c r="AR14" s="96"/>
+      <c r="AS14" s="96"/>
+      <c r="AT14" s="96"/>
+      <c r="AU14" s="96"/>
+      <c r="AV14" s="96"/>
+      <c r="AW14" s="96"/>
+      <c r="AX14" s="96"/>
+      <c r="AY14" s="97"/>
       <c r="AZ14" s="12"/>
     </row>
     <row r="15" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="76"/>
-      <c r="S15" s="76"/>
-      <c r="T15" s="76"/>
-      <c r="U15" s="76"/>
-      <c r="V15" s="76"/>
-      <c r="W15" s="76"/>
-      <c r="X15" s="76"/>
-      <c r="Y15" s="76"/>
-      <c r="Z15" s="76"/>
-      <c r="AA15" s="76"/>
-      <c r="AB15" s="76"/>
-      <c r="AC15" s="76"/>
-      <c r="AD15" s="76"/>
-      <c r="AE15" s="76"/>
-      <c r="AF15" s="76"/>
-      <c r="AG15" s="76"/>
-      <c r="AH15" s="76"/>
-      <c r="AI15" s="76"/>
-      <c r="AJ15" s="76"/>
-      <c r="AK15" s="76"/>
-      <c r="AL15" s="76"/>
-      <c r="AM15" s="76"/>
-      <c r="AN15" s="76"/>
-      <c r="AO15" s="76"/>
-      <c r="AP15" s="76"/>
-      <c r="AQ15" s="76"/>
-      <c r="AR15" s="76"/>
-      <c r="AS15" s="76"/>
-      <c r="AT15" s="76"/>
-      <c r="AU15" s="76"/>
-      <c r="AV15" s="76"/>
-      <c r="AW15" s="76"/>
-      <c r="AX15" s="76"/>
-      <c r="AY15" s="77"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="96"/>
+      <c r="S15" s="96"/>
+      <c r="T15" s="96"/>
+      <c r="U15" s="96"/>
+      <c r="V15" s="96"/>
+      <c r="W15" s="96"/>
+      <c r="X15" s="96"/>
+      <c r="Y15" s="96"/>
+      <c r="Z15" s="96"/>
+      <c r="AA15" s="96"/>
+      <c r="AB15" s="96"/>
+      <c r="AC15" s="96"/>
+      <c r="AD15" s="96"/>
+      <c r="AE15" s="96"/>
+      <c r="AF15" s="96"/>
+      <c r="AG15" s="96"/>
+      <c r="AH15" s="96"/>
+      <c r="AI15" s="96"/>
+      <c r="AJ15" s="96"/>
+      <c r="AK15" s="96"/>
+      <c r="AL15" s="96"/>
+      <c r="AM15" s="96"/>
+      <c r="AN15" s="96"/>
+      <c r="AO15" s="96"/>
+      <c r="AP15" s="96"/>
+      <c r="AQ15" s="96"/>
+      <c r="AR15" s="96"/>
+      <c r="AS15" s="96"/>
+      <c r="AT15" s="96"/>
+      <c r="AU15" s="96"/>
+      <c r="AV15" s="96"/>
+      <c r="AW15" s="96"/>
+      <c r="AX15" s="96"/>
+      <c r="AY15" s="97"/>
       <c r="AZ15" s="12"/>
     </row>
     <row r="16" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="76"/>
-      <c r="S16" s="76"/>
-      <c r="T16" s="76"/>
-      <c r="U16" s="76"/>
-      <c r="V16" s="76"/>
-      <c r="W16" s="76"/>
-      <c r="X16" s="76"/>
-      <c r="Y16" s="76"/>
-      <c r="Z16" s="76"/>
-      <c r="AA16" s="76"/>
-      <c r="AB16" s="76"/>
-      <c r="AC16" s="76"/>
-      <c r="AD16" s="76"/>
-      <c r="AE16" s="76"/>
-      <c r="AF16" s="76"/>
-      <c r="AG16" s="76"/>
-      <c r="AH16" s="76"/>
-      <c r="AI16" s="76"/>
-      <c r="AJ16" s="76"/>
-      <c r="AK16" s="76"/>
-      <c r="AL16" s="76"/>
-      <c r="AM16" s="76"/>
-      <c r="AN16" s="76"/>
-      <c r="AO16" s="76"/>
-      <c r="AP16" s="76"/>
-      <c r="AQ16" s="76"/>
-      <c r="AR16" s="76"/>
-      <c r="AS16" s="76"/>
-      <c r="AT16" s="76"/>
-      <c r="AU16" s="76"/>
-      <c r="AV16" s="76"/>
-      <c r="AW16" s="76"/>
-      <c r="AX16" s="76"/>
-      <c r="AY16" s="77"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="96"/>
+      <c r="S16" s="96"/>
+      <c r="T16" s="96"/>
+      <c r="U16" s="96"/>
+      <c r="V16" s="96"/>
+      <c r="W16" s="96"/>
+      <c r="X16" s="96"/>
+      <c r="Y16" s="96"/>
+      <c r="Z16" s="96"/>
+      <c r="AA16" s="96"/>
+      <c r="AB16" s="96"/>
+      <c r="AC16" s="96"/>
+      <c r="AD16" s="96"/>
+      <c r="AE16" s="96"/>
+      <c r="AF16" s="96"/>
+      <c r="AG16" s="96"/>
+      <c r="AH16" s="96"/>
+      <c r="AI16" s="96"/>
+      <c r="AJ16" s="96"/>
+      <c r="AK16" s="96"/>
+      <c r="AL16" s="96"/>
+      <c r="AM16" s="96"/>
+      <c r="AN16" s="96"/>
+      <c r="AO16" s="96"/>
+      <c r="AP16" s="96"/>
+      <c r="AQ16" s="96"/>
+      <c r="AR16" s="96"/>
+      <c r="AS16" s="96"/>
+      <c r="AT16" s="96"/>
+      <c r="AU16" s="96"/>
+      <c r="AV16" s="96"/>
+      <c r="AW16" s="96"/>
+      <c r="AX16" s="96"/>
+      <c r="AY16" s="97"/>
       <c r="AZ16" s="12"/>
     </row>
     <row r="17" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="76"/>
-      <c r="X17" s="76"/>
-      <c r="Y17" s="76"/>
-      <c r="Z17" s="76"/>
-      <c r="AA17" s="76"/>
-      <c r="AB17" s="76"/>
-      <c r="AC17" s="76"/>
-      <c r="AD17" s="76"/>
-      <c r="AE17" s="76"/>
-      <c r="AF17" s="76"/>
-      <c r="AG17" s="76"/>
-      <c r="AH17" s="76"/>
-      <c r="AI17" s="76"/>
-      <c r="AJ17" s="76"/>
-      <c r="AK17" s="76"/>
-      <c r="AL17" s="76"/>
-      <c r="AM17" s="76"/>
-      <c r="AN17" s="76"/>
-      <c r="AO17" s="76"/>
-      <c r="AP17" s="76"/>
-      <c r="AQ17" s="76"/>
-      <c r="AR17" s="76"/>
-      <c r="AS17" s="76"/>
-      <c r="AT17" s="76"/>
-      <c r="AU17" s="76"/>
-      <c r="AV17" s="76"/>
-      <c r="AW17" s="76"/>
-      <c r="AX17" s="76"/>
-      <c r="AY17" s="77"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="100"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="96"/>
+      <c r="S17" s="96"/>
+      <c r="T17" s="96"/>
+      <c r="U17" s="96"/>
+      <c r="V17" s="96"/>
+      <c r="W17" s="96"/>
+      <c r="X17" s="96"/>
+      <c r="Y17" s="96"/>
+      <c r="Z17" s="96"/>
+      <c r="AA17" s="96"/>
+      <c r="AB17" s="96"/>
+      <c r="AC17" s="96"/>
+      <c r="AD17" s="96"/>
+      <c r="AE17" s="96"/>
+      <c r="AF17" s="96"/>
+      <c r="AG17" s="96"/>
+      <c r="AH17" s="96"/>
+      <c r="AI17" s="96"/>
+      <c r="AJ17" s="96"/>
+      <c r="AK17" s="96"/>
+      <c r="AL17" s="96"/>
+      <c r="AM17" s="96"/>
+      <c r="AN17" s="96"/>
+      <c r="AO17" s="96"/>
+      <c r="AP17" s="96"/>
+      <c r="AQ17" s="96"/>
+      <c r="AR17" s="96"/>
+      <c r="AS17" s="96"/>
+      <c r="AT17" s="96"/>
+      <c r="AU17" s="96"/>
+      <c r="AV17" s="96"/>
+      <c r="AW17" s="96"/>
+      <c r="AX17" s="96"/>
+      <c r="AY17" s="97"/>
       <c r="AZ17" s="12"/>
     </row>
     <row r="18" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="76"/>
-      <c r="S18" s="76"/>
-      <c r="T18" s="76"/>
-      <c r="U18" s="76"/>
-      <c r="V18" s="76"/>
-      <c r="W18" s="76"/>
-      <c r="X18" s="76"/>
-      <c r="Y18" s="76"/>
-      <c r="Z18" s="76"/>
-      <c r="AA18" s="76"/>
-      <c r="AB18" s="76"/>
-      <c r="AC18" s="76"/>
-      <c r="AD18" s="76"/>
-      <c r="AE18" s="76"/>
-      <c r="AF18" s="76"/>
-      <c r="AG18" s="76"/>
-      <c r="AH18" s="76"/>
-      <c r="AI18" s="76"/>
-      <c r="AJ18" s="76"/>
-      <c r="AK18" s="76"/>
-      <c r="AL18" s="76"/>
-      <c r="AM18" s="76"/>
-      <c r="AN18" s="76"/>
-      <c r="AO18" s="76"/>
-      <c r="AP18" s="76"/>
-      <c r="AQ18" s="76"/>
-      <c r="AR18" s="76"/>
-      <c r="AS18" s="76"/>
-      <c r="AT18" s="76"/>
-      <c r="AU18" s="76"/>
-      <c r="AV18" s="76"/>
-      <c r="AW18" s="76"/>
-      <c r="AX18" s="76"/>
-      <c r="AY18" s="77"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="100"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="96"/>
+      <c r="S18" s="96"/>
+      <c r="T18" s="96"/>
+      <c r="U18" s="96"/>
+      <c r="V18" s="96"/>
+      <c r="W18" s="96"/>
+      <c r="X18" s="96"/>
+      <c r="Y18" s="96"/>
+      <c r="Z18" s="96"/>
+      <c r="AA18" s="96"/>
+      <c r="AB18" s="96"/>
+      <c r="AC18" s="96"/>
+      <c r="AD18" s="96"/>
+      <c r="AE18" s="96"/>
+      <c r="AF18" s="96"/>
+      <c r="AG18" s="96"/>
+      <c r="AH18" s="96"/>
+      <c r="AI18" s="96"/>
+      <c r="AJ18" s="96"/>
+      <c r="AK18" s="96"/>
+      <c r="AL18" s="96"/>
+      <c r="AM18" s="96"/>
+      <c r="AN18" s="96"/>
+      <c r="AO18" s="96"/>
+      <c r="AP18" s="96"/>
+      <c r="AQ18" s="96"/>
+      <c r="AR18" s="96"/>
+      <c r="AS18" s="96"/>
+      <c r="AT18" s="96"/>
+      <c r="AU18" s="96"/>
+      <c r="AV18" s="96"/>
+      <c r="AW18" s="96"/>
+      <c r="AX18" s="96"/>
+      <c r="AY18" s="97"/>
       <c r="AZ18" s="12"/>
     </row>
     <row r="19" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="76"/>
-      <c r="S19" s="76"/>
-      <c r="T19" s="76"/>
-      <c r="U19" s="76"/>
-      <c r="V19" s="76"/>
-      <c r="W19" s="76"/>
-      <c r="X19" s="76"/>
-      <c r="Y19" s="76"/>
-      <c r="Z19" s="76"/>
-      <c r="AA19" s="76"/>
-      <c r="AB19" s="76"/>
-      <c r="AC19" s="76"/>
-      <c r="AD19" s="76"/>
-      <c r="AE19" s="76"/>
-      <c r="AF19" s="76"/>
-      <c r="AG19" s="76"/>
-      <c r="AH19" s="76"/>
-      <c r="AI19" s="76"/>
-      <c r="AJ19" s="76"/>
-      <c r="AK19" s="76"/>
-      <c r="AL19" s="76"/>
-      <c r="AM19" s="76"/>
-      <c r="AN19" s="76"/>
-      <c r="AO19" s="76"/>
-      <c r="AP19" s="76"/>
-      <c r="AQ19" s="76"/>
-      <c r="AR19" s="76"/>
-      <c r="AS19" s="76"/>
-      <c r="AT19" s="76"/>
-      <c r="AU19" s="76"/>
-      <c r="AV19" s="76"/>
-      <c r="AW19" s="76"/>
-      <c r="AX19" s="76"/>
-      <c r="AY19" s="77"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="98"/>
+      <c r="R19" s="96"/>
+      <c r="S19" s="96"/>
+      <c r="T19" s="96"/>
+      <c r="U19" s="96"/>
+      <c r="V19" s="96"/>
+      <c r="W19" s="96"/>
+      <c r="X19" s="96"/>
+      <c r="Y19" s="96"/>
+      <c r="Z19" s="96"/>
+      <c r="AA19" s="96"/>
+      <c r="AB19" s="96"/>
+      <c r="AC19" s="96"/>
+      <c r="AD19" s="96"/>
+      <c r="AE19" s="96"/>
+      <c r="AF19" s="96"/>
+      <c r="AG19" s="96"/>
+      <c r="AH19" s="96"/>
+      <c r="AI19" s="96"/>
+      <c r="AJ19" s="96"/>
+      <c r="AK19" s="96"/>
+      <c r="AL19" s="96"/>
+      <c r="AM19" s="96"/>
+      <c r="AN19" s="96"/>
+      <c r="AO19" s="96"/>
+      <c r="AP19" s="96"/>
+      <c r="AQ19" s="96"/>
+      <c r="AR19" s="96"/>
+      <c r="AS19" s="96"/>
+      <c r="AT19" s="96"/>
+      <c r="AU19" s="96"/>
+      <c r="AV19" s="96"/>
+      <c r="AW19" s="96"/>
+      <c r="AX19" s="96"/>
+      <c r="AY19" s="97"/>
       <c r="AZ19" s="12"/>
     </row>
     <row r="20" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="76"/>
-      <c r="V20" s="76"/>
-      <c r="W20" s="76"/>
-      <c r="X20" s="76"/>
-      <c r="Y20" s="76"/>
-      <c r="Z20" s="76"/>
-      <c r="AA20" s="76"/>
-      <c r="AB20" s="76"/>
-      <c r="AC20" s="76"/>
-      <c r="AD20" s="76"/>
-      <c r="AE20" s="76"/>
-      <c r="AF20" s="76"/>
-      <c r="AG20" s="76"/>
-      <c r="AH20" s="76"/>
-      <c r="AI20" s="76"/>
-      <c r="AJ20" s="76"/>
-      <c r="AK20" s="76"/>
-      <c r="AL20" s="76"/>
-      <c r="AM20" s="76"/>
-      <c r="AN20" s="76"/>
-      <c r="AO20" s="76"/>
-      <c r="AP20" s="76"/>
-      <c r="AQ20" s="76"/>
-      <c r="AR20" s="76"/>
-      <c r="AS20" s="76"/>
-      <c r="AT20" s="76"/>
-      <c r="AU20" s="76"/>
-      <c r="AV20" s="76"/>
-      <c r="AW20" s="76"/>
-      <c r="AX20" s="76"/>
-      <c r="AY20" s="77"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="98"/>
+      <c r="R20" s="96"/>
+      <c r="S20" s="96"/>
+      <c r="T20" s="96"/>
+      <c r="U20" s="96"/>
+      <c r="V20" s="96"/>
+      <c r="W20" s="96"/>
+      <c r="X20" s="96"/>
+      <c r="Y20" s="96"/>
+      <c r="Z20" s="96"/>
+      <c r="AA20" s="96"/>
+      <c r="AB20" s="96"/>
+      <c r="AC20" s="96"/>
+      <c r="AD20" s="96"/>
+      <c r="AE20" s="96"/>
+      <c r="AF20" s="96"/>
+      <c r="AG20" s="96"/>
+      <c r="AH20" s="96"/>
+      <c r="AI20" s="96"/>
+      <c r="AJ20" s="96"/>
+      <c r="AK20" s="96"/>
+      <c r="AL20" s="96"/>
+      <c r="AM20" s="96"/>
+      <c r="AN20" s="96"/>
+      <c r="AO20" s="96"/>
+      <c r="AP20" s="96"/>
+      <c r="AQ20" s="96"/>
+      <c r="AR20" s="96"/>
+      <c r="AS20" s="96"/>
+      <c r="AT20" s="96"/>
+      <c r="AU20" s="96"/>
+      <c r="AV20" s="96"/>
+      <c r="AW20" s="96"/>
+      <c r="AX20" s="96"/>
+      <c r="AY20" s="97"/>
       <c r="AZ20" s="12"/>
     </row>
     <row r="21" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="75"/>
-      <c r="R21" s="76"/>
-      <c r="S21" s="76"/>
-      <c r="T21" s="76"/>
-      <c r="U21" s="76"/>
-      <c r="V21" s="76"/>
-      <c r="W21" s="76"/>
-      <c r="X21" s="76"/>
-      <c r="Y21" s="76"/>
-      <c r="Z21" s="76"/>
-      <c r="AA21" s="76"/>
-      <c r="AB21" s="76"/>
-      <c r="AC21" s="76"/>
-      <c r="AD21" s="76"/>
-      <c r="AE21" s="76"/>
-      <c r="AF21" s="76"/>
-      <c r="AG21" s="76"/>
-      <c r="AH21" s="76"/>
-      <c r="AI21" s="76"/>
-      <c r="AJ21" s="76"/>
-      <c r="AK21" s="76"/>
-      <c r="AL21" s="76"/>
-      <c r="AM21" s="76"/>
-      <c r="AN21" s="76"/>
-      <c r="AO21" s="76"/>
-      <c r="AP21" s="76"/>
-      <c r="AQ21" s="76"/>
-      <c r="AR21" s="76"/>
-      <c r="AS21" s="76"/>
-      <c r="AT21" s="76"/>
-      <c r="AU21" s="76"/>
-      <c r="AV21" s="76"/>
-      <c r="AW21" s="76"/>
-      <c r="AX21" s="76"/>
-      <c r="AY21" s="77"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="101"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="96"/>
+      <c r="S21" s="96"/>
+      <c r="T21" s="96"/>
+      <c r="U21" s="96"/>
+      <c r="V21" s="96"/>
+      <c r="W21" s="96"/>
+      <c r="X21" s="96"/>
+      <c r="Y21" s="96"/>
+      <c r="Z21" s="96"/>
+      <c r="AA21" s="96"/>
+      <c r="AB21" s="96"/>
+      <c r="AC21" s="96"/>
+      <c r="AD21" s="96"/>
+      <c r="AE21" s="96"/>
+      <c r="AF21" s="96"/>
+      <c r="AG21" s="96"/>
+      <c r="AH21" s="96"/>
+      <c r="AI21" s="96"/>
+      <c r="AJ21" s="96"/>
+      <c r="AK21" s="96"/>
+      <c r="AL21" s="96"/>
+      <c r="AM21" s="96"/>
+      <c r="AN21" s="96"/>
+      <c r="AO21" s="96"/>
+      <c r="AP21" s="96"/>
+      <c r="AQ21" s="96"/>
+      <c r="AR21" s="96"/>
+      <c r="AS21" s="96"/>
+      <c r="AT21" s="96"/>
+      <c r="AU21" s="96"/>
+      <c r="AV21" s="96"/>
+      <c r="AW21" s="96"/>
+      <c r="AX21" s="96"/>
+      <c r="AY21" s="97"/>
       <c r="AZ21" s="12"/>
     </row>
     <row r="22" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="76"/>
-      <c r="S22" s="76"/>
-      <c r="T22" s="76"/>
-      <c r="U22" s="76"/>
-      <c r="V22" s="76"/>
-      <c r="W22" s="76"/>
-      <c r="X22" s="76"/>
-      <c r="Y22" s="76"/>
-      <c r="Z22" s="76"/>
-      <c r="AA22" s="76"/>
-      <c r="AB22" s="76"/>
-      <c r="AC22" s="76"/>
-      <c r="AD22" s="76"/>
-      <c r="AE22" s="76"/>
-      <c r="AF22" s="76"/>
-      <c r="AG22" s="76"/>
-      <c r="AH22" s="76"/>
-      <c r="AI22" s="76"/>
-      <c r="AJ22" s="76"/>
-      <c r="AK22" s="76"/>
-      <c r="AL22" s="76"/>
-      <c r="AM22" s="76"/>
-      <c r="AN22" s="76"/>
-      <c r="AO22" s="76"/>
-      <c r="AP22" s="76"/>
-      <c r="AQ22" s="76"/>
-      <c r="AR22" s="76"/>
-      <c r="AS22" s="76"/>
-      <c r="AT22" s="76"/>
-      <c r="AU22" s="76"/>
-      <c r="AV22" s="76"/>
-      <c r="AW22" s="76"/>
-      <c r="AX22" s="76"/>
-      <c r="AY22" s="77"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="96"/>
+      <c r="S22" s="96"/>
+      <c r="T22" s="96"/>
+      <c r="U22" s="96"/>
+      <c r="V22" s="96"/>
+      <c r="W22" s="96"/>
+      <c r="X22" s="96"/>
+      <c r="Y22" s="96"/>
+      <c r="Z22" s="96"/>
+      <c r="AA22" s="96"/>
+      <c r="AB22" s="96"/>
+      <c r="AC22" s="96"/>
+      <c r="AD22" s="96"/>
+      <c r="AE22" s="96"/>
+      <c r="AF22" s="96"/>
+      <c r="AG22" s="96"/>
+      <c r="AH22" s="96"/>
+      <c r="AI22" s="96"/>
+      <c r="AJ22" s="96"/>
+      <c r="AK22" s="96"/>
+      <c r="AL22" s="96"/>
+      <c r="AM22" s="96"/>
+      <c r="AN22" s="96"/>
+      <c r="AO22" s="96"/>
+      <c r="AP22" s="96"/>
+      <c r="AQ22" s="96"/>
+      <c r="AR22" s="96"/>
+      <c r="AS22" s="96"/>
+      <c r="AT22" s="96"/>
+      <c r="AU22" s="96"/>
+      <c r="AV22" s="96"/>
+      <c r="AW22" s="96"/>
+      <c r="AX22" s="96"/>
+      <c r="AY22" s="97"/>
       <c r="AZ22" s="12"/>
     </row>
     <row r="23" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="76"/>
-      <c r="T23" s="76"/>
-      <c r="U23" s="76"/>
-      <c r="V23" s="76"/>
-      <c r="W23" s="76"/>
-      <c r="X23" s="76"/>
-      <c r="Y23" s="76"/>
-      <c r="Z23" s="76"/>
-      <c r="AA23" s="76"/>
-      <c r="AB23" s="76"/>
-      <c r="AC23" s="76"/>
-      <c r="AD23" s="76"/>
-      <c r="AE23" s="76"/>
-      <c r="AF23" s="76"/>
-      <c r="AG23" s="76"/>
-      <c r="AH23" s="76"/>
-      <c r="AI23" s="76"/>
-      <c r="AJ23" s="76"/>
-      <c r="AK23" s="76"/>
-      <c r="AL23" s="76"/>
-      <c r="AM23" s="76"/>
-      <c r="AN23" s="76"/>
-      <c r="AO23" s="76"/>
-      <c r="AP23" s="76"/>
-      <c r="AQ23" s="76"/>
-      <c r="AR23" s="76"/>
-      <c r="AS23" s="76"/>
-      <c r="AT23" s="76"/>
-      <c r="AU23" s="76"/>
-      <c r="AV23" s="76"/>
-      <c r="AW23" s="76"/>
-      <c r="AX23" s="76"/>
-      <c r="AY23" s="77"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="101"/>
+      <c r="Q23" s="98"/>
+      <c r="R23" s="96"/>
+      <c r="S23" s="96"/>
+      <c r="T23" s="96"/>
+      <c r="U23" s="96"/>
+      <c r="V23" s="96"/>
+      <c r="W23" s="96"/>
+      <c r="X23" s="96"/>
+      <c r="Y23" s="96"/>
+      <c r="Z23" s="96"/>
+      <c r="AA23" s="96"/>
+      <c r="AB23" s="96"/>
+      <c r="AC23" s="96"/>
+      <c r="AD23" s="96"/>
+      <c r="AE23" s="96"/>
+      <c r="AF23" s="96"/>
+      <c r="AG23" s="96"/>
+      <c r="AH23" s="96"/>
+      <c r="AI23" s="96"/>
+      <c r="AJ23" s="96"/>
+      <c r="AK23" s="96"/>
+      <c r="AL23" s="96"/>
+      <c r="AM23" s="96"/>
+      <c r="AN23" s="96"/>
+      <c r="AO23" s="96"/>
+      <c r="AP23" s="96"/>
+      <c r="AQ23" s="96"/>
+      <c r="AR23" s="96"/>
+      <c r="AS23" s="96"/>
+      <c r="AT23" s="96"/>
+      <c r="AU23" s="96"/>
+      <c r="AV23" s="96"/>
+      <c r="AW23" s="96"/>
+      <c r="AX23" s="96"/>
+      <c r="AY23" s="97"/>
       <c r="AZ23" s="12"/>
     </row>
     <row r="24" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="76"/>
-      <c r="S24" s="76"/>
-      <c r="T24" s="76"/>
-      <c r="U24" s="76"/>
-      <c r="V24" s="76"/>
-      <c r="W24" s="76"/>
-      <c r="X24" s="76"/>
-      <c r="Y24" s="76"/>
-      <c r="Z24" s="76"/>
-      <c r="AA24" s="76"/>
-      <c r="AB24" s="76"/>
-      <c r="AC24" s="76"/>
-      <c r="AD24" s="76"/>
-      <c r="AE24" s="76"/>
-      <c r="AF24" s="76"/>
-      <c r="AG24" s="76"/>
-      <c r="AH24" s="76"/>
-      <c r="AI24" s="76"/>
-      <c r="AJ24" s="76"/>
-      <c r="AK24" s="76"/>
-      <c r="AL24" s="76"/>
-      <c r="AM24" s="76"/>
-      <c r="AN24" s="76"/>
-      <c r="AO24" s="76"/>
-      <c r="AP24" s="76"/>
-      <c r="AQ24" s="76"/>
-      <c r="AR24" s="76"/>
-      <c r="AS24" s="76"/>
-      <c r="AT24" s="76"/>
-      <c r="AU24" s="76"/>
-      <c r="AV24" s="76"/>
-      <c r="AW24" s="76"/>
-      <c r="AX24" s="76"/>
-      <c r="AY24" s="77"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="101"/>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="96"/>
+      <c r="S24" s="96"/>
+      <c r="T24" s="96"/>
+      <c r="U24" s="96"/>
+      <c r="V24" s="96"/>
+      <c r="W24" s="96"/>
+      <c r="X24" s="96"/>
+      <c r="Y24" s="96"/>
+      <c r="Z24" s="96"/>
+      <c r="AA24" s="96"/>
+      <c r="AB24" s="96"/>
+      <c r="AC24" s="96"/>
+      <c r="AD24" s="96"/>
+      <c r="AE24" s="96"/>
+      <c r="AF24" s="96"/>
+      <c r="AG24" s="96"/>
+      <c r="AH24" s="96"/>
+      <c r="AI24" s="96"/>
+      <c r="AJ24" s="96"/>
+      <c r="AK24" s="96"/>
+      <c r="AL24" s="96"/>
+      <c r="AM24" s="96"/>
+      <c r="AN24" s="96"/>
+      <c r="AO24" s="96"/>
+      <c r="AP24" s="96"/>
+      <c r="AQ24" s="96"/>
+      <c r="AR24" s="96"/>
+      <c r="AS24" s="96"/>
+      <c r="AT24" s="96"/>
+      <c r="AU24" s="96"/>
+      <c r="AV24" s="96"/>
+      <c r="AW24" s="96"/>
+      <c r="AX24" s="96"/>
+      <c r="AY24" s="97"/>
       <c r="AZ24" s="12"/>
     </row>
     <row r="25" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="75"/>
-      <c r="R25" s="76"/>
-      <c r="S25" s="76"/>
-      <c r="T25" s="76"/>
-      <c r="U25" s="76"/>
-      <c r="V25" s="76"/>
-      <c r="W25" s="76"/>
-      <c r="X25" s="76"/>
-      <c r="Y25" s="76"/>
-      <c r="Z25" s="76"/>
-      <c r="AA25" s="76"/>
-      <c r="AB25" s="76"/>
-      <c r="AC25" s="76"/>
-      <c r="AD25" s="76"/>
-      <c r="AE25" s="76"/>
-      <c r="AF25" s="76"/>
-      <c r="AG25" s="76"/>
-      <c r="AH25" s="76"/>
-      <c r="AI25" s="76"/>
-      <c r="AJ25" s="76"/>
-      <c r="AK25" s="76"/>
-      <c r="AL25" s="76"/>
-      <c r="AM25" s="76"/>
-      <c r="AN25" s="76"/>
-      <c r="AO25" s="76"/>
-      <c r="AP25" s="76"/>
-      <c r="AQ25" s="76"/>
-      <c r="AR25" s="76"/>
-      <c r="AS25" s="76"/>
-      <c r="AT25" s="76"/>
-      <c r="AU25" s="76"/>
-      <c r="AV25" s="76"/>
-      <c r="AW25" s="76"/>
-      <c r="AX25" s="76"/>
-      <c r="AY25" s="77"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="96"/>
+      <c r="S25" s="96"/>
+      <c r="T25" s="96"/>
+      <c r="U25" s="96"/>
+      <c r="V25" s="96"/>
+      <c r="W25" s="96"/>
+      <c r="X25" s="96"/>
+      <c r="Y25" s="96"/>
+      <c r="Z25" s="96"/>
+      <c r="AA25" s="96"/>
+      <c r="AB25" s="96"/>
+      <c r="AC25" s="96"/>
+      <c r="AD25" s="96"/>
+      <c r="AE25" s="96"/>
+      <c r="AF25" s="96"/>
+      <c r="AG25" s="96"/>
+      <c r="AH25" s="96"/>
+      <c r="AI25" s="96"/>
+      <c r="AJ25" s="96"/>
+      <c r="AK25" s="96"/>
+      <c r="AL25" s="96"/>
+      <c r="AM25" s="96"/>
+      <c r="AN25" s="96"/>
+      <c r="AO25" s="96"/>
+      <c r="AP25" s="96"/>
+      <c r="AQ25" s="96"/>
+      <c r="AR25" s="96"/>
+      <c r="AS25" s="96"/>
+      <c r="AT25" s="96"/>
+      <c r="AU25" s="96"/>
+      <c r="AV25" s="96"/>
+      <c r="AW25" s="96"/>
+      <c r="AX25" s="96"/>
+      <c r="AY25" s="97"/>
       <c r="AZ25" s="12"/>
     </row>
     <row r="26" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="64"/>
-      <c r="T26" s="64"/>
-      <c r="U26" s="64"/>
-      <c r="V26" s="64"/>
-      <c r="W26" s="64"/>
-      <c r="X26" s="64"/>
-      <c r="Y26" s="64"/>
-      <c r="Z26" s="64"/>
-      <c r="AA26" s="64"/>
-      <c r="AB26" s="64"/>
-      <c r="AC26" s="64"/>
-      <c r="AD26" s="64"/>
-      <c r="AE26" s="64"/>
-      <c r="AF26" s="64"/>
-      <c r="AG26" s="64"/>
-      <c r="AH26" s="64"/>
-      <c r="AI26" s="64"/>
-      <c r="AJ26" s="64"/>
-      <c r="AK26" s="64"/>
-      <c r="AL26" s="64"/>
-      <c r="AM26" s="64"/>
-      <c r="AN26" s="64"/>
-      <c r="AO26" s="64"/>
-      <c r="AP26" s="64"/>
-      <c r="AQ26" s="64"/>
-      <c r="AR26" s="64"/>
-      <c r="AS26" s="64"/>
-      <c r="AT26" s="64"/>
-      <c r="AU26" s="64"/>
-      <c r="AV26" s="64"/>
-      <c r="AW26" s="64"/>
-      <c r="AX26" s="64"/>
-      <c r="AY26" s="65"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="108"/>
+      <c r="L26" s="109"/>
+      <c r="M26" s="109"/>
+      <c r="N26" s="109"/>
+      <c r="O26" s="109"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="112"/>
+      <c r="S26" s="112"/>
+      <c r="T26" s="112"/>
+      <c r="U26" s="112"/>
+      <c r="V26" s="112"/>
+      <c r="W26" s="112"/>
+      <c r="X26" s="112"/>
+      <c r="Y26" s="112"/>
+      <c r="Z26" s="112"/>
+      <c r="AA26" s="112"/>
+      <c r="AB26" s="112"/>
+      <c r="AC26" s="112"/>
+      <c r="AD26" s="112"/>
+      <c r="AE26" s="112"/>
+      <c r="AF26" s="112"/>
+      <c r="AG26" s="112"/>
+      <c r="AH26" s="112"/>
+      <c r="AI26" s="112"/>
+      <c r="AJ26" s="112"/>
+      <c r="AK26" s="112"/>
+      <c r="AL26" s="112"/>
+      <c r="AM26" s="112"/>
+      <c r="AN26" s="112"/>
+      <c r="AO26" s="112"/>
+      <c r="AP26" s="112"/>
+      <c r="AQ26" s="112"/>
+      <c r="AR26" s="112"/>
+      <c r="AS26" s="112"/>
+      <c r="AT26" s="112"/>
+      <c r="AU26" s="112"/>
+      <c r="AV26" s="112"/>
+      <c r="AW26" s="112"/>
+      <c r="AX26" s="112"/>
+      <c r="AY26" s="113"/>
       <c r="AZ26" s="13"/>
     </row>
     <row r="27" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3571,91 +3650,6 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:AF1"/>
-    <mergeCell ref="AG1:AL1"/>
-    <mergeCell ref="AM1:AR1"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="AG2:AL3"/>
-    <mergeCell ref="AM2:AR3"/>
-    <mergeCell ref="AS2:AW3"/>
-    <mergeCell ref="AX2:AZ3"/>
-    <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="Q7:AY7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="Q8:AY8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="K9:P9"/>
-    <mergeCell ref="Q9:AY9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="Q10:AY10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="Q11:AY11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="Q12:AY12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:AY13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="Q14:AY14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="Q15:AY15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="Q16:AY16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="Q17:AY17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="Q18:AY18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="Q19:AY19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="K20:P20"/>
-    <mergeCell ref="Q20:AY20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="Q21:AY21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="K22:P22"/>
-    <mergeCell ref="Q22:AY22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="Q23:AY23"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:J26"/>
     <mergeCell ref="K26:P26"/>
@@ -3668,6 +3662,91 @@
     <mergeCell ref="E25:J25"/>
     <mergeCell ref="K25:P25"/>
     <mergeCell ref="Q25:AY25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="K22:P22"/>
+    <mergeCell ref="Q22:AY22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="Q23:AY23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="K20:P20"/>
+    <mergeCell ref="Q20:AY20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="Q21:AY21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="Q18:AY18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="Q19:AY19"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="Q16:AY16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="Q17:AY17"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="Q14:AY14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="Q15:AY15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="Q12:AY12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:AY13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="Q10:AY10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="Q11:AY11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="Q8:AY8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="Q9:AY9"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="Q7:AY7"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:AF2"/>
+    <mergeCell ref="AG2:AL3"/>
+    <mergeCell ref="AM2:AR3"/>
+    <mergeCell ref="AS2:AW3"/>
+    <mergeCell ref="AX2:AZ3"/>
+    <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:AF1"/>
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="AM1:AR1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -3685,7 +3764,7 @@
     <tabColor theme="7" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AZ88"/>
+  <dimension ref="A1:AZ93"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -3699,201 +3778,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="str">
+      <c r="A1" s="54" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>用語一覧</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="98" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="113" t="str">
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="59" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="113"/>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="113"/>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="113"/>
-      <c r="AG1" s="98" t="s">
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="98"/>
-      <c r="AI1" s="98"/>
-      <c r="AJ1" s="98"/>
-      <c r="AK1" s="98"/>
-      <c r="AL1" s="98"/>
-      <c r="AM1" s="98" t="s">
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="AN1" s="98"/>
-      <c r="AO1" s="98"/>
-      <c r="AP1" s="98"/>
-      <c r="AQ1" s="98"/>
-      <c r="AR1" s="98"/>
-      <c r="AS1" s="98" t="s">
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="AT1" s="98"/>
-      <c r="AU1" s="98"/>
-      <c r="AV1" s="98"/>
-      <c r="AW1" s="98"/>
-      <c r="AX1" s="98" t="s">
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="AY1" s="98"/>
+      <c r="AY1" s="58"/>
       <c r="AZ1" s="114"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="111"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="100" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="101" t="str">
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="62" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="101"/>
-      <c r="AG2" s="102">
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="63">
         <v>42619</v>
       </c>
-      <c r="AH2" s="102"/>
-      <c r="AI2" s="102"/>
-      <c r="AJ2" s="102"/>
-      <c r="AK2" s="102"/>
-      <c r="AL2" s="102"/>
-      <c r="AM2" s="104" t="s">
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="AN2" s="101"/>
-      <c r="AO2" s="101"/>
-      <c r="AP2" s="101"/>
-      <c r="AQ2" s="101"/>
-      <c r="AR2" s="101"/>
-      <c r="AS2" s="105"/>
-      <c r="AT2" s="105"/>
-      <c r="AU2" s="105"/>
-      <c r="AV2" s="105"/>
-      <c r="AW2" s="105"/>
-      <c r="AX2" s="101"/>
-      <c r="AY2" s="101"/>
-      <c r="AZ2" s="107"/>
+      <c r="AN2" s="62"/>
+      <c r="AO2" s="62"/>
+      <c r="AP2" s="62"/>
+      <c r="AQ2" s="62"/>
+      <c r="AR2" s="62"/>
+      <c r="AS2" s="67"/>
+      <c r="AT2" s="67"/>
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="62"/>
+      <c r="AY2" s="62"/>
+      <c r="AZ2" s="69"/>
     </row>
     <row r="3" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91" t="str">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="66" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="90" t="s">
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="91" t="str">
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="66" t="str">
         <f>設定情報!$C$5</f>
         <v>用語一覧</v>
       </c>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="91"/>
-      <c r="AG3" s="103"/>
-      <c r="AH3" s="103"/>
-      <c r="AI3" s="103"/>
-      <c r="AJ3" s="103"/>
-      <c r="AK3" s="103"/>
-      <c r="AL3" s="103"/>
-      <c r="AM3" s="91"/>
-      <c r="AN3" s="91"/>
-      <c r="AO3" s="91"/>
-      <c r="AP3" s="91"/>
-      <c r="AQ3" s="91"/>
-      <c r="AR3" s="91"/>
-      <c r="AS3" s="106"/>
-      <c r="AT3" s="106"/>
-      <c r="AU3" s="106"/>
-      <c r="AV3" s="106"/>
-      <c r="AW3" s="106"/>
-      <c r="AX3" s="91"/>
-      <c r="AY3" s="91"/>
-      <c r="AZ3" s="108"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="66"/>
+      <c r="AO3" s="66"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="66"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="68"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="66"/>
+      <c r="AY3" s="66"/>
+      <c r="AZ3" s="70"/>
     </row>
     <row r="4" spans="1:52" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="53" t="s">
@@ -5144,15 +5223,15 @@
         <f ca="1">IF(B25="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>11</v>
       </c>
-      <c r="B25" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="40" t="s">
-        <v>99</v>
+      <c r="B25" s="116" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="115" t="s">
+        <v>141</v>
       </c>
       <c r="H25" s="41"/>
       <c r="I25" s="41"/>
@@ -5170,9 +5249,9 @@
       <c r="U25" s="41"/>
       <c r="V25" s="40"/>
       <c r="W25" s="41"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="42"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="41"/>
       <c r="AA25" s="43"/>
       <c r="AB25" s="41"/>
       <c r="AC25" s="41"/>
@@ -5206,14 +5285,14 @@
         <v>12</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="40" t="s">
-        <v>8</v>
+        <v>55</v>
+      </c>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="115" t="s">
+        <v>133</v>
       </c>
       <c r="H26" s="41"/>
       <c r="I26" s="41"/>
@@ -5231,9 +5310,9 @@
       <c r="U26" s="41"/>
       <c r="V26" s="40"/>
       <c r="W26" s="41"/>
-      <c r="X26" s="41"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="41"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="42"/>
       <c r="AA26" s="43"/>
       <c r="AB26" s="41"/>
       <c r="AC26" s="41"/>
@@ -5267,7 +5346,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C27" s="41"/>
       <c r="D27" s="41"/>
@@ -5328,14 +5407,14 @@
         <v>14</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" s="41"/>
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
       <c r="G28" s="40" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H28" s="41"/>
       <c r="I28" s="41"/>
@@ -5389,14 +5468,14 @@
         <v>15</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
+        <v>10</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
       <c r="G29" s="40" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="H29" s="41"/>
       <c r="I29" s="41"/>
@@ -5414,9 +5493,9 @@
       <c r="U29" s="41"/>
       <c r="V29" s="40"/>
       <c r="W29" s="41"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="45"/>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="41"/>
       <c r="AA29" s="43"/>
       <c r="AB29" s="41"/>
       <c r="AC29" s="41"/>
@@ -5449,57 +5528,57 @@
         <f ca="1">IF(B30="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>16</v>
       </c>
-      <c r="B30" s="40" t="s">
-        <v>57</v>
+      <c r="B30" s="43" t="s">
+        <v>56</v>
       </c>
       <c r="C30" s="45"/>
       <c r="D30" s="45"/>
       <c r="E30" s="45"/>
       <c r="F30" s="45"/>
       <c r="G30" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
+        <v>99</v>
+      </c>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
       <c r="V30" s="40"/>
-      <c r="W30" s="45"/>
+      <c r="W30" s="41"/>
       <c r="X30" s="45"/>
       <c r="Y30" s="45"/>
       <c r="Z30" s="45"/>
-      <c r="AA30" s="40"/>
-      <c r="AB30" s="45"/>
-      <c r="AC30" s="45"/>
-      <c r="AD30" s="45"/>
-      <c r="AE30" s="45"/>
-      <c r="AF30" s="45"/>
-      <c r="AG30" s="45"/>
-      <c r="AH30" s="45"/>
-      <c r="AI30" s="45"/>
-      <c r="AJ30" s="45"/>
-      <c r="AK30" s="45"/>
-      <c r="AL30" s="45"/>
-      <c r="AM30" s="45"/>
-      <c r="AN30" s="45"/>
-      <c r="AO30" s="45"/>
-      <c r="AP30" s="45"/>
-      <c r="AQ30" s="45"/>
-      <c r="AR30" s="45"/>
-      <c r="AS30" s="45"/>
-      <c r="AT30" s="45"/>
-      <c r="AU30" s="45"/>
-      <c r="AV30" s="45"/>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="41"/>
+      <c r="AC30" s="41"/>
+      <c r="AD30" s="41"/>
+      <c r="AE30" s="41"/>
+      <c r="AF30" s="41"/>
+      <c r="AG30" s="41"/>
+      <c r="AH30" s="41"/>
+      <c r="AI30" s="41"/>
+      <c r="AJ30" s="41"/>
+      <c r="AK30" s="41"/>
+      <c r="AL30" s="41"/>
+      <c r="AM30" s="41"/>
+      <c r="AN30" s="41"/>
+      <c r="AO30" s="41"/>
+      <c r="AP30" s="41"/>
+      <c r="AQ30" s="41"/>
+      <c r="AR30" s="41"/>
+      <c r="AS30" s="41"/>
+      <c r="AT30" s="41"/>
+      <c r="AU30" s="41"/>
+      <c r="AV30" s="41"/>
       <c r="AW30" s="41"/>
       <c r="AX30" s="41"/>
       <c r="AY30" s="41"/>
@@ -5510,57 +5589,57 @@
         <f ca="1">IF(B31="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>17</v>
       </c>
-      <c r="B31" s="43" t="s">
-        <v>58</v>
+      <c r="B31" s="40" t="s">
+        <v>57</v>
       </c>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45"/>
       <c r="F31" s="45"/>
       <c r="G31" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
+        <v>100</v>
+      </c>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
       <c r="V31" s="40"/>
       <c r="W31" s="45"/>
       <c r="X31" s="45"/>
       <c r="Y31" s="45"/>
       <c r="Z31" s="45"/>
-      <c r="AA31" s="43"/>
-      <c r="AB31" s="41"/>
-      <c r="AC31" s="41"/>
-      <c r="AD31" s="41"/>
-      <c r="AE31" s="41"/>
-      <c r="AF31" s="41"/>
-      <c r="AG31" s="41"/>
-      <c r="AH31" s="41"/>
-      <c r="AI31" s="41"/>
-      <c r="AJ31" s="41"/>
-      <c r="AK31" s="41"/>
-      <c r="AL31" s="41"/>
-      <c r="AM31" s="41"/>
-      <c r="AN31" s="41"/>
-      <c r="AO31" s="41"/>
-      <c r="AP31" s="41"/>
-      <c r="AQ31" s="41"/>
-      <c r="AR31" s="41"/>
-      <c r="AS31" s="41"/>
-      <c r="AT31" s="41"/>
-      <c r="AU31" s="41"/>
-      <c r="AV31" s="41"/>
+      <c r="AA31" s="40"/>
+      <c r="AB31" s="45"/>
+      <c r="AC31" s="45"/>
+      <c r="AD31" s="45"/>
+      <c r="AE31" s="45"/>
+      <c r="AF31" s="45"/>
+      <c r="AG31" s="45"/>
+      <c r="AH31" s="45"/>
+      <c r="AI31" s="45"/>
+      <c r="AJ31" s="45"/>
+      <c r="AK31" s="45"/>
+      <c r="AL31" s="45"/>
+      <c r="AM31" s="45"/>
+      <c r="AN31" s="45"/>
+      <c r="AO31" s="45"/>
+      <c r="AP31" s="45"/>
+      <c r="AQ31" s="45"/>
+      <c r="AR31" s="45"/>
+      <c r="AS31" s="45"/>
+      <c r="AT31" s="45"/>
+      <c r="AU31" s="45"/>
+      <c r="AV31" s="45"/>
       <c r="AW31" s="41"/>
       <c r="AX31" s="41"/>
       <c r="AY31" s="41"/>
@@ -5572,14 +5651,14 @@
         <v>18</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
+        <v>58</v>
+      </c>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
       <c r="G32" s="40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H32" s="41"/>
       <c r="I32" s="41"/>
@@ -5596,10 +5675,10 @@
       <c r="T32" s="41"/>
       <c r="U32" s="41"/>
       <c r="V32" s="40"/>
-      <c r="W32" s="41"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="42"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="45"/>
+      <c r="Z32" s="45"/>
       <c r="AA32" s="43"/>
       <c r="AB32" s="41"/>
       <c r="AC32" s="41"/>
@@ -5632,57 +5711,57 @@
         <f ca="1">IF(B33="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>19</v>
       </c>
-      <c r="B33" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
+      <c r="B33" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
       <c r="G33" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
+        <v>102</v>
+      </c>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="41"/>
       <c r="V33" s="40"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="45"/>
-      <c r="Z33" s="45"/>
-      <c r="AA33" s="40"/>
-      <c r="AB33" s="45"/>
-      <c r="AC33" s="45"/>
-      <c r="AD33" s="45"/>
-      <c r="AE33" s="45"/>
-      <c r="AF33" s="45"/>
-      <c r="AG33" s="45"/>
-      <c r="AH33" s="45"/>
-      <c r="AI33" s="45"/>
-      <c r="AJ33" s="45"/>
-      <c r="AK33" s="45"/>
-      <c r="AL33" s="45"/>
-      <c r="AM33" s="45"/>
-      <c r="AN33" s="45"/>
-      <c r="AO33" s="45"/>
-      <c r="AP33" s="45"/>
-      <c r="AQ33" s="45"/>
-      <c r="AR33" s="45"/>
-      <c r="AS33" s="45"/>
-      <c r="AT33" s="45"/>
-      <c r="AU33" s="45"/>
-      <c r="AV33" s="45"/>
+      <c r="W33" s="41"/>
+      <c r="X33" s="42"/>
+      <c r="Y33" s="42"/>
+      <c r="Z33" s="42"/>
+      <c r="AA33" s="43"/>
+      <c r="AB33" s="41"/>
+      <c r="AC33" s="41"/>
+      <c r="AD33" s="41"/>
+      <c r="AE33" s="41"/>
+      <c r="AF33" s="41"/>
+      <c r="AG33" s="41"/>
+      <c r="AH33" s="41"/>
+      <c r="AI33" s="41"/>
+      <c r="AJ33" s="41"/>
+      <c r="AK33" s="41"/>
+      <c r="AL33" s="41"/>
+      <c r="AM33" s="41"/>
+      <c r="AN33" s="41"/>
+      <c r="AO33" s="41"/>
+      <c r="AP33" s="41"/>
+      <c r="AQ33" s="41"/>
+      <c r="AR33" s="41"/>
+      <c r="AS33" s="41"/>
+      <c r="AT33" s="41"/>
+      <c r="AU33" s="41"/>
+      <c r="AV33" s="41"/>
       <c r="AW33" s="41"/>
       <c r="AX33" s="41"/>
       <c r="AY33" s="41"/>
@@ -5694,14 +5773,14 @@
         <v>20</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C34" s="45"/>
       <c r="D34" s="45"/>
       <c r="E34" s="45"/>
       <c r="F34" s="45"/>
       <c r="G34" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H34" s="45"/>
       <c r="I34" s="45"/>
@@ -5755,14 +5834,14 @@
         <v>21</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
+        <v>61</v>
+      </c>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
       <c r="G35" s="40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H35" s="45"/>
       <c r="I35" s="45"/>
@@ -5778,13 +5857,11 @@
       <c r="S35" s="45"/>
       <c r="T35" s="45"/>
       <c r="U35" s="45"/>
-      <c r="V35" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="W35" s="41"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="41"/>
-      <c r="Z35" s="41"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="45"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="45"/>
+      <c r="Z35" s="45"/>
       <c r="AA35" s="40"/>
       <c r="AB35" s="45"/>
       <c r="AC35" s="45"/>
@@ -5817,59 +5894,57 @@
         <f ca="1">IF(B36="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>22</v>
       </c>
-      <c r="B36" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
+      <c r="B36" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
       <c r="G36" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="41"/>
-      <c r="V36" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="W36" s="45"/>
-      <c r="X36" s="45"/>
-      <c r="Y36" s="45"/>
-      <c r="Z36" s="45"/>
-      <c r="AA36" s="43"/>
-      <c r="AB36" s="41"/>
-      <c r="AC36" s="41"/>
-      <c r="AD36" s="41"/>
-      <c r="AE36" s="41"/>
-      <c r="AF36" s="41"/>
-      <c r="AG36" s="41"/>
-      <c r="AH36" s="41"/>
-      <c r="AI36" s="41"/>
-      <c r="AJ36" s="41"/>
-      <c r="AK36" s="41"/>
-      <c r="AL36" s="41"/>
-      <c r="AM36" s="41"/>
-      <c r="AN36" s="41"/>
-      <c r="AO36" s="41"/>
-      <c r="AP36" s="41"/>
-      <c r="AQ36" s="41"/>
-      <c r="AR36" s="41"/>
-      <c r="AS36" s="41"/>
-      <c r="AT36" s="41"/>
-      <c r="AU36" s="41"/>
-      <c r="AV36" s="41"/>
+        <v>105</v>
+      </c>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="41"/>
+      <c r="X36" s="41"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="41"/>
+      <c r="AA36" s="40"/>
+      <c r="AB36" s="45"/>
+      <c r="AC36" s="45"/>
+      <c r="AD36" s="45"/>
+      <c r="AE36" s="45"/>
+      <c r="AF36" s="45"/>
+      <c r="AG36" s="45"/>
+      <c r="AH36" s="45"/>
+      <c r="AI36" s="45"/>
+      <c r="AJ36" s="45"/>
+      <c r="AK36" s="45"/>
+      <c r="AL36" s="45"/>
+      <c r="AM36" s="45"/>
+      <c r="AN36" s="45"/>
+      <c r="AO36" s="45"/>
+      <c r="AP36" s="45"/>
+      <c r="AQ36" s="45"/>
+      <c r="AR36" s="45"/>
+      <c r="AS36" s="45"/>
+      <c r="AT36" s="45"/>
+      <c r="AU36" s="45"/>
+      <c r="AV36" s="45"/>
       <c r="AW36" s="41"/>
       <c r="AX36" s="41"/>
       <c r="AY36" s="41"/>
@@ -5880,59 +5955,57 @@
         <f ca="1">IF(B37="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>23</v>
       </c>
-      <c r="B37" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="41"/>
-      <c r="V37" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="W37" s="45"/>
-      <c r="X37" s="45"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="43"/>
-      <c r="AB37" s="41"/>
-      <c r="AC37" s="41"/>
-      <c r="AD37" s="41"/>
-      <c r="AE37" s="41"/>
-      <c r="AF37" s="41"/>
-      <c r="AG37" s="41"/>
-      <c r="AH37" s="41"/>
-      <c r="AI37" s="41"/>
-      <c r="AJ37" s="41"/>
-      <c r="AK37" s="41"/>
-      <c r="AL37" s="41"/>
-      <c r="AM37" s="41"/>
-      <c r="AN37" s="41"/>
-      <c r="AO37" s="41"/>
-      <c r="AP37" s="41"/>
-      <c r="AQ37" s="41"/>
-      <c r="AR37" s="41"/>
-      <c r="AS37" s="41"/>
-      <c r="AT37" s="41"/>
-      <c r="AU37" s="41"/>
-      <c r="AV37" s="41"/>
+      <c r="B37" s="115" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="115" t="s">
+        <v>132</v>
+      </c>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="41"/>
+      <c r="X37" s="41"/>
+      <c r="Y37" s="41"/>
+      <c r="Z37" s="41"/>
+      <c r="AA37" s="40"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="45"/>
+      <c r="AD37" s="45"/>
+      <c r="AE37" s="45"/>
+      <c r="AF37" s="45"/>
+      <c r="AG37" s="45"/>
+      <c r="AH37" s="45"/>
+      <c r="AI37" s="45"/>
+      <c r="AJ37" s="45"/>
+      <c r="AK37" s="45"/>
+      <c r="AL37" s="45"/>
+      <c r="AM37" s="45"/>
+      <c r="AN37" s="45"/>
+      <c r="AO37" s="45"/>
+      <c r="AP37" s="45"/>
+      <c r="AQ37" s="45"/>
+      <c r="AR37" s="45"/>
+      <c r="AS37" s="45"/>
+      <c r="AT37" s="45"/>
+      <c r="AU37" s="45"/>
+      <c r="AV37" s="45"/>
       <c r="AW37" s="41"/>
       <c r="AX37" s="41"/>
       <c r="AY37" s="41"/>
@@ -5943,59 +6016,57 @@
         <f ca="1">IF(B38="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>24</v>
       </c>
-      <c r="B38" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="41"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="41"/>
-      <c r="V38" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="W38" s="45"/>
-      <c r="X38" s="45"/>
-      <c r="Y38" s="45"/>
-      <c r="Z38" s="45"/>
-      <c r="AA38" s="43"/>
-      <c r="AB38" s="41"/>
-      <c r="AC38" s="41"/>
-      <c r="AD38" s="41"/>
-      <c r="AE38" s="41"/>
-      <c r="AF38" s="41"/>
-      <c r="AG38" s="41"/>
-      <c r="AH38" s="41"/>
-      <c r="AI38" s="41"/>
-      <c r="AJ38" s="41"/>
-      <c r="AK38" s="41"/>
-      <c r="AL38" s="41"/>
-      <c r="AM38" s="41"/>
-      <c r="AN38" s="41"/>
-      <c r="AO38" s="41"/>
-      <c r="AP38" s="41"/>
-      <c r="AQ38" s="41"/>
-      <c r="AR38" s="41"/>
-      <c r="AS38" s="41"/>
-      <c r="AT38" s="41"/>
-      <c r="AU38" s="41"/>
-      <c r="AV38" s="41"/>
+      <c r="B38" s="115" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="115" t="s">
+        <v>136</v>
+      </c>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="41"/>
+      <c r="X38" s="41"/>
+      <c r="Y38" s="41"/>
+      <c r="Z38" s="41"/>
+      <c r="AA38" s="40"/>
+      <c r="AB38" s="45"/>
+      <c r="AC38" s="45"/>
+      <c r="AD38" s="45"/>
+      <c r="AE38" s="45"/>
+      <c r="AF38" s="45"/>
+      <c r="AG38" s="45"/>
+      <c r="AH38" s="45"/>
+      <c r="AI38" s="45"/>
+      <c r="AJ38" s="45"/>
+      <c r="AK38" s="45"/>
+      <c r="AL38" s="45"/>
+      <c r="AM38" s="45"/>
+      <c r="AN38" s="45"/>
+      <c r="AO38" s="45"/>
+      <c r="AP38" s="45"/>
+      <c r="AQ38" s="45"/>
+      <c r="AR38" s="45"/>
+      <c r="AS38" s="45"/>
+      <c r="AT38" s="45"/>
+      <c r="AU38" s="45"/>
+      <c r="AV38" s="45"/>
       <c r="AW38" s="41"/>
       <c r="AX38" s="41"/>
       <c r="AY38" s="41"/>
@@ -6006,59 +6077,57 @@
         <f ca="1">IF(B39="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>25</v>
       </c>
-      <c r="B39" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41"/>
-      <c r="V39" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="W39" s="45"/>
-      <c r="X39" s="45"/>
-      <c r="Y39" s="45"/>
-      <c r="Z39" s="45"/>
-      <c r="AA39" s="43"/>
-      <c r="AB39" s="41"/>
-      <c r="AC39" s="41"/>
-      <c r="AD39" s="41"/>
-      <c r="AE39" s="41"/>
-      <c r="AF39" s="41"/>
-      <c r="AG39" s="41"/>
-      <c r="AH39" s="41"/>
-      <c r="AI39" s="41"/>
-      <c r="AJ39" s="41"/>
-      <c r="AK39" s="41"/>
-      <c r="AL39" s="41"/>
-      <c r="AM39" s="41"/>
-      <c r="AN39" s="41"/>
-      <c r="AO39" s="41"/>
-      <c r="AP39" s="41"/>
-      <c r="AQ39" s="41"/>
-      <c r="AR39" s="41"/>
-      <c r="AS39" s="41"/>
-      <c r="AT39" s="41"/>
-      <c r="AU39" s="41"/>
-      <c r="AV39" s="41"/>
+      <c r="B39" s="115" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="115" t="s">
+        <v>137</v>
+      </c>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="41"/>
+      <c r="Z39" s="41"/>
+      <c r="AA39" s="40"/>
+      <c r="AB39" s="45"/>
+      <c r="AC39" s="45"/>
+      <c r="AD39" s="45"/>
+      <c r="AE39" s="45"/>
+      <c r="AF39" s="45"/>
+      <c r="AG39" s="45"/>
+      <c r="AH39" s="45"/>
+      <c r="AI39" s="45"/>
+      <c r="AJ39" s="45"/>
+      <c r="AK39" s="45"/>
+      <c r="AL39" s="45"/>
+      <c r="AM39" s="45"/>
+      <c r="AN39" s="45"/>
+      <c r="AO39" s="45"/>
+      <c r="AP39" s="45"/>
+      <c r="AQ39" s="45"/>
+      <c r="AR39" s="45"/>
+      <c r="AS39" s="45"/>
+      <c r="AT39" s="45"/>
+      <c r="AU39" s="45"/>
+      <c r="AV39" s="45"/>
       <c r="AW39" s="41"/>
       <c r="AX39" s="41"/>
       <c r="AY39" s="41"/>
@@ -6069,57 +6138,57 @@
         <f ca="1">IF(B40="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>26</v>
       </c>
-      <c r="B40" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="41"/>
-      <c r="T40" s="41"/>
-      <c r="U40" s="41"/>
+      <c r="B40" s="115" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="115" t="s">
+        <v>138</v>
+      </c>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="45"/>
       <c r="V40" s="40"/>
-      <c r="W40" s="45"/>
-      <c r="X40" s="45"/>
-      <c r="Y40" s="45"/>
-      <c r="Z40" s="45"/>
-      <c r="AA40" s="43"/>
-      <c r="AB40" s="41"/>
-      <c r="AC40" s="41"/>
-      <c r="AD40" s="41"/>
-      <c r="AE40" s="41"/>
-      <c r="AF40" s="41"/>
-      <c r="AG40" s="41"/>
-      <c r="AH40" s="41"/>
-      <c r="AI40" s="41"/>
-      <c r="AJ40" s="41"/>
-      <c r="AK40" s="41"/>
-      <c r="AL40" s="41"/>
-      <c r="AM40" s="41"/>
-      <c r="AN40" s="41"/>
-      <c r="AO40" s="41"/>
-      <c r="AP40" s="41"/>
-      <c r="AQ40" s="41"/>
-      <c r="AR40" s="41"/>
-      <c r="AS40" s="41"/>
-      <c r="AT40" s="41"/>
-      <c r="AU40" s="41"/>
-      <c r="AV40" s="41"/>
+      <c r="W40" s="41"/>
+      <c r="X40" s="41"/>
+      <c r="Y40" s="41"/>
+      <c r="Z40" s="41"/>
+      <c r="AA40" s="40"/>
+      <c r="AB40" s="45"/>
+      <c r="AC40" s="45"/>
+      <c r="AD40" s="45"/>
+      <c r="AE40" s="45"/>
+      <c r="AF40" s="45"/>
+      <c r="AG40" s="45"/>
+      <c r="AH40" s="45"/>
+      <c r="AI40" s="45"/>
+      <c r="AJ40" s="45"/>
+      <c r="AK40" s="45"/>
+      <c r="AL40" s="45"/>
+      <c r="AM40" s="45"/>
+      <c r="AN40" s="45"/>
+      <c r="AO40" s="45"/>
+      <c r="AP40" s="45"/>
+      <c r="AQ40" s="45"/>
+      <c r="AR40" s="45"/>
+      <c r="AS40" s="45"/>
+      <c r="AT40" s="45"/>
+      <c r="AU40" s="45"/>
+      <c r="AV40" s="45"/>
       <c r="AW40" s="41"/>
       <c r="AX40" s="41"/>
       <c r="AY40" s="41"/>
@@ -6131,14 +6200,14 @@
         <v>27</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C41" s="45"/>
       <c r="D41" s="45"/>
       <c r="E41" s="45"/>
       <c r="F41" s="45"/>
       <c r="G41" s="40" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H41" s="41"/>
       <c r="I41" s="41"/>
@@ -6154,7 +6223,9 @@
       <c r="S41" s="41"/>
       <c r="T41" s="41"/>
       <c r="U41" s="41"/>
-      <c r="V41" s="40"/>
+      <c r="V41" s="40" t="s">
+        <v>43</v>
+      </c>
       <c r="W41" s="45"/>
       <c r="X41" s="45"/>
       <c r="Y41" s="45"/>
@@ -6192,14 +6263,14 @@
         <v>28</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C42" s="45"/>
       <c r="D42" s="45"/>
       <c r="E42" s="45"/>
       <c r="F42" s="45"/>
       <c r="G42" s="40" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="H42" s="41"/>
       <c r="I42" s="41"/>
@@ -6215,7 +6286,9 @@
       <c r="S42" s="41"/>
       <c r="T42" s="41"/>
       <c r="U42" s="41"/>
-      <c r="V42" s="40"/>
+      <c r="V42" s="40" t="s">
+        <v>43</v>
+      </c>
       <c r="W42" s="45"/>
       <c r="X42" s="45"/>
       <c r="Y42" s="45"/>
@@ -6253,14 +6326,14 @@
         <v>29</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C43" s="45"/>
       <c r="D43" s="45"/>
       <c r="E43" s="45"/>
       <c r="F43" s="45"/>
       <c r="G43" s="40" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H43" s="41"/>
       <c r="I43" s="41"/>
@@ -6276,7 +6349,9 @@
       <c r="S43" s="41"/>
       <c r="T43" s="41"/>
       <c r="U43" s="41"/>
-      <c r="V43" s="40"/>
+      <c r="V43" s="40" t="s">
+        <v>43</v>
+      </c>
       <c r="W43" s="45"/>
       <c r="X43" s="45"/>
       <c r="Y43" s="45"/>
@@ -6314,14 +6389,14 @@
         <v>30</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C44" s="45"/>
       <c r="D44" s="45"/>
       <c r="E44" s="45"/>
       <c r="F44" s="45"/>
       <c r="G44" s="40" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="H44" s="41"/>
       <c r="I44" s="41"/>
@@ -6337,7 +6412,9 @@
       <c r="S44" s="41"/>
       <c r="T44" s="41"/>
       <c r="U44" s="41"/>
-      <c r="V44" s="40"/>
+      <c r="V44" s="40" t="s">
+        <v>43</v>
+      </c>
       <c r="W44" s="45"/>
       <c r="X44" s="45"/>
       <c r="Y44" s="45"/>
@@ -6375,14 +6452,14 @@
         <v>31</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C45" s="45"/>
       <c r="D45" s="45"/>
       <c r="E45" s="45"/>
       <c r="F45" s="45"/>
       <c r="G45" s="40" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="H45" s="41"/>
       <c r="I45" s="41"/>
@@ -6436,14 +6513,14 @@
         <v>32</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C46" s="45"/>
       <c r="D46" s="45"/>
       <c r="E46" s="45"/>
       <c r="F46" s="45"/>
       <c r="G46" s="40" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H46" s="41"/>
       <c r="I46" s="41"/>
@@ -6497,14 +6574,14 @@
         <v>33</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C47" s="45"/>
       <c r="D47" s="45"/>
       <c r="E47" s="45"/>
       <c r="F47" s="45"/>
       <c r="G47" s="40" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H47" s="41"/>
       <c r="I47" s="41"/>
@@ -6558,14 +6635,14 @@
         <v>34</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C48" s="45"/>
       <c r="D48" s="45"/>
       <c r="E48" s="45"/>
       <c r="F48" s="45"/>
       <c r="G48" s="40" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H48" s="41"/>
       <c r="I48" s="41"/>
@@ -6619,14 +6696,14 @@
         <v>35</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C49" s="45"/>
       <c r="D49" s="45"/>
       <c r="E49" s="45"/>
       <c r="F49" s="45"/>
       <c r="G49" s="40" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="H49" s="41"/>
       <c r="I49" s="41"/>
@@ -6680,14 +6757,14 @@
         <v>36</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C50" s="45"/>
       <c r="D50" s="45"/>
       <c r="E50" s="45"/>
       <c r="F50" s="45"/>
       <c r="G50" s="40" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="H50" s="41"/>
       <c r="I50" s="41"/>
@@ -6741,14 +6818,14 @@
         <v>37</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C51" s="45"/>
       <c r="D51" s="45"/>
       <c r="E51" s="45"/>
       <c r="F51" s="45"/>
       <c r="G51" s="40" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H51" s="41"/>
       <c r="I51" s="41"/>
@@ -6764,9 +6841,7 @@
       <c r="S51" s="41"/>
       <c r="T51" s="41"/>
       <c r="U51" s="41"/>
-      <c r="V51" s="40" t="s">
-        <v>44</v>
-      </c>
+      <c r="V51" s="40"/>
       <c r="W51" s="45"/>
       <c r="X51" s="45"/>
       <c r="Y51" s="45"/>
@@ -6804,14 +6879,14 @@
         <v>38</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C52" s="45"/>
       <c r="D52" s="45"/>
       <c r="E52" s="45"/>
       <c r="F52" s="45"/>
       <c r="G52" s="40" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H52" s="41"/>
       <c r="I52" s="41"/>
@@ -6827,9 +6902,7 @@
       <c r="S52" s="41"/>
       <c r="T52" s="41"/>
       <c r="U52" s="41"/>
-      <c r="V52" s="40" t="s">
-        <v>44</v>
-      </c>
+      <c r="V52" s="40"/>
       <c r="W52" s="45"/>
       <c r="X52" s="45"/>
       <c r="Y52" s="45"/>
@@ -6867,14 +6940,14 @@
         <v>39</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C53" s="45"/>
       <c r="D53" s="45"/>
       <c r="E53" s="45"/>
       <c r="F53" s="45"/>
       <c r="G53" s="40" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H53" s="41"/>
       <c r="I53" s="41"/>
@@ -6890,9 +6963,7 @@
       <c r="S53" s="41"/>
       <c r="T53" s="41"/>
       <c r="U53" s="41"/>
-      <c r="V53" s="40" t="s">
-        <v>44</v>
-      </c>
+      <c r="V53" s="40"/>
       <c r="W53" s="45"/>
       <c r="X53" s="45"/>
       <c r="Y53" s="45"/>
@@ -6929,59 +7000,57 @@
         <f ca="1">IF(B54="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>40</v>
       </c>
-      <c r="B54" s="40" t="s">
-        <v>81</v>
+      <c r="B54" s="43" t="s">
+        <v>76</v>
       </c>
       <c r="C54" s="45"/>
       <c r="D54" s="45"/>
       <c r="E54" s="45"/>
       <c r="F54" s="45"/>
       <c r="G54" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="45"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="45"/>
-      <c r="M54" s="45"/>
-      <c r="N54" s="45"/>
-      <c r="O54" s="45"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="45"/>
-      <c r="R54" s="45"/>
-      <c r="S54" s="45"/>
-      <c r="T54" s="45"/>
-      <c r="U54" s="45"/>
-      <c r="V54" s="40" t="s">
-        <v>44</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="41"/>
+      <c r="P54" s="43"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="41"/>
+      <c r="T54" s="41"/>
+      <c r="U54" s="41"/>
+      <c r="V54" s="40"/>
       <c r="W54" s="45"/>
       <c r="X54" s="45"/>
       <c r="Y54" s="45"/>
       <c r="Z54" s="45"/>
-      <c r="AA54" s="40"/>
-      <c r="AB54" s="45"/>
-      <c r="AC54" s="45"/>
-      <c r="AD54" s="45"/>
-      <c r="AE54" s="45"/>
-      <c r="AF54" s="45"/>
-      <c r="AG54" s="45"/>
-      <c r="AH54" s="45"/>
-      <c r="AI54" s="45"/>
-      <c r="AJ54" s="45"/>
-      <c r="AK54" s="45"/>
-      <c r="AL54" s="45"/>
-      <c r="AM54" s="45"/>
-      <c r="AN54" s="45"/>
-      <c r="AO54" s="45"/>
-      <c r="AP54" s="45"/>
-      <c r="AQ54" s="45"/>
-      <c r="AR54" s="45"/>
-      <c r="AS54" s="45"/>
-      <c r="AT54" s="45"/>
-      <c r="AU54" s="45"/>
-      <c r="AV54" s="45"/>
+      <c r="AA54" s="43"/>
+      <c r="AB54" s="41"/>
+      <c r="AC54" s="41"/>
+      <c r="AD54" s="41"/>
+      <c r="AE54" s="41"/>
+      <c r="AF54" s="41"/>
+      <c r="AG54" s="41"/>
+      <c r="AH54" s="41"/>
+      <c r="AI54" s="41"/>
+      <c r="AJ54" s="41"/>
+      <c r="AK54" s="41"/>
+      <c r="AL54" s="41"/>
+      <c r="AM54" s="41"/>
+      <c r="AN54" s="41"/>
+      <c r="AO54" s="41"/>
+      <c r="AP54" s="41"/>
+      <c r="AQ54" s="41"/>
+      <c r="AR54" s="41"/>
+      <c r="AS54" s="41"/>
+      <c r="AT54" s="41"/>
+      <c r="AU54" s="41"/>
+      <c r="AV54" s="41"/>
       <c r="AW54" s="41"/>
       <c r="AX54" s="41"/>
       <c r="AY54" s="41"/>
@@ -6993,14 +7062,14 @@
         <v>41</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C55" s="45"/>
       <c r="D55" s="45"/>
       <c r="E55" s="45"/>
       <c r="F55" s="45"/>
       <c r="G55" s="40" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H55" s="41"/>
       <c r="I55" s="41"/>
@@ -7016,9 +7085,7 @@
       <c r="S55" s="41"/>
       <c r="T55" s="41"/>
       <c r="U55" s="41"/>
-      <c r="V55" s="40" t="s">
-        <v>44</v>
-      </c>
+      <c r="V55" s="40"/>
       <c r="W55" s="45"/>
       <c r="X55" s="45"/>
       <c r="Y55" s="45"/>
@@ -7055,30 +7122,30 @@
         <f ca="1">IF(B56="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>42</v>
       </c>
-      <c r="B56" s="40" t="s">
-        <v>83</v>
+      <c r="B56" s="43" t="s">
+        <v>78</v>
       </c>
       <c r="C56" s="45"/>
       <c r="D56" s="45"/>
       <c r="E56" s="45"/>
       <c r="F56" s="45"/>
       <c r="G56" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="H56" s="45"/>
-      <c r="I56" s="45"/>
-      <c r="J56" s="45"/>
-      <c r="K56" s="45"/>
-      <c r="L56" s="45"/>
-      <c r="M56" s="45"/>
-      <c r="N56" s="45"/>
-      <c r="O56" s="45"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="45"/>
-      <c r="R56" s="45"/>
-      <c r="S56" s="45"/>
-      <c r="T56" s="45"/>
-      <c r="U56" s="45"/>
+        <v>118</v>
+      </c>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="41"/>
+      <c r="N56" s="41"/>
+      <c r="O56" s="41"/>
+      <c r="P56" s="43"/>
+      <c r="Q56" s="41"/>
+      <c r="R56" s="41"/>
+      <c r="S56" s="41"/>
+      <c r="T56" s="41"/>
+      <c r="U56" s="41"/>
       <c r="V56" s="40" t="s">
         <v>44</v>
       </c>
@@ -7086,28 +7153,28 @@
       <c r="X56" s="45"/>
       <c r="Y56" s="45"/>
       <c r="Z56" s="45"/>
-      <c r="AA56" s="40"/>
-      <c r="AB56" s="45"/>
-      <c r="AC56" s="45"/>
-      <c r="AD56" s="45"/>
-      <c r="AE56" s="45"/>
-      <c r="AF56" s="45"/>
-      <c r="AG56" s="45"/>
-      <c r="AH56" s="45"/>
-      <c r="AI56" s="45"/>
-      <c r="AJ56" s="45"/>
-      <c r="AK56" s="45"/>
-      <c r="AL56" s="45"/>
-      <c r="AM56" s="45"/>
-      <c r="AN56" s="45"/>
-      <c r="AO56" s="45"/>
-      <c r="AP56" s="45"/>
-      <c r="AQ56" s="45"/>
-      <c r="AR56" s="45"/>
-      <c r="AS56" s="45"/>
-      <c r="AT56" s="45"/>
-      <c r="AU56" s="45"/>
-      <c r="AV56" s="45"/>
+      <c r="AA56" s="43"/>
+      <c r="AB56" s="41"/>
+      <c r="AC56" s="41"/>
+      <c r="AD56" s="41"/>
+      <c r="AE56" s="41"/>
+      <c r="AF56" s="41"/>
+      <c r="AG56" s="41"/>
+      <c r="AH56" s="41"/>
+      <c r="AI56" s="41"/>
+      <c r="AJ56" s="41"/>
+      <c r="AK56" s="41"/>
+      <c r="AL56" s="41"/>
+      <c r="AM56" s="41"/>
+      <c r="AN56" s="41"/>
+      <c r="AO56" s="41"/>
+      <c r="AP56" s="41"/>
+      <c r="AQ56" s="41"/>
+      <c r="AR56" s="41"/>
+      <c r="AS56" s="41"/>
+      <c r="AT56" s="41"/>
+      <c r="AU56" s="41"/>
+      <c r="AV56" s="41"/>
       <c r="AW56" s="41"/>
       <c r="AX56" s="41"/>
       <c r="AY56" s="41"/>
@@ -7118,30 +7185,30 @@
         <f ca="1">IF(B57="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>43</v>
       </c>
-      <c r="B57" s="40" t="s">
-        <v>84</v>
+      <c r="B57" s="43" t="s">
+        <v>79</v>
       </c>
       <c r="C57" s="45"/>
       <c r="D57" s="45"/>
       <c r="E57" s="45"/>
       <c r="F57" s="45"/>
       <c r="G57" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="H57" s="45"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="45"/>
-      <c r="K57" s="45"/>
-      <c r="L57" s="45"/>
-      <c r="M57" s="45"/>
-      <c r="N57" s="45"/>
-      <c r="O57" s="45"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="45"/>
-      <c r="R57" s="45"/>
-      <c r="S57" s="45"/>
-      <c r="T57" s="45"/>
-      <c r="U57" s="45"/>
+        <v>119</v>
+      </c>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="41"/>
+      <c r="N57" s="41"/>
+      <c r="O57" s="41"/>
+      <c r="P57" s="43"/>
+      <c r="Q57" s="41"/>
+      <c r="R57" s="41"/>
+      <c r="S57" s="41"/>
+      <c r="T57" s="41"/>
+      <c r="U57" s="41"/>
       <c r="V57" s="40" t="s">
         <v>44</v>
       </c>
@@ -7149,28 +7216,28 @@
       <c r="X57" s="45"/>
       <c r="Y57" s="45"/>
       <c r="Z57" s="45"/>
-      <c r="AA57" s="40"/>
-      <c r="AB57" s="45"/>
-      <c r="AC57" s="45"/>
-      <c r="AD57" s="45"/>
-      <c r="AE57" s="45"/>
-      <c r="AF57" s="45"/>
-      <c r="AG57" s="45"/>
-      <c r="AH57" s="45"/>
-      <c r="AI57" s="45"/>
-      <c r="AJ57" s="45"/>
-      <c r="AK57" s="45"/>
-      <c r="AL57" s="45"/>
-      <c r="AM57" s="45"/>
-      <c r="AN57" s="45"/>
-      <c r="AO57" s="45"/>
-      <c r="AP57" s="45"/>
-      <c r="AQ57" s="45"/>
-      <c r="AR57" s="45"/>
-      <c r="AS57" s="45"/>
-      <c r="AT57" s="45"/>
-      <c r="AU57" s="45"/>
-      <c r="AV57" s="45"/>
+      <c r="AA57" s="43"/>
+      <c r="AB57" s="41"/>
+      <c r="AC57" s="41"/>
+      <c r="AD57" s="41"/>
+      <c r="AE57" s="41"/>
+      <c r="AF57" s="41"/>
+      <c r="AG57" s="41"/>
+      <c r="AH57" s="41"/>
+      <c r="AI57" s="41"/>
+      <c r="AJ57" s="41"/>
+      <c r="AK57" s="41"/>
+      <c r="AL57" s="41"/>
+      <c r="AM57" s="41"/>
+      <c r="AN57" s="41"/>
+      <c r="AO57" s="41"/>
+      <c r="AP57" s="41"/>
+      <c r="AQ57" s="41"/>
+      <c r="AR57" s="41"/>
+      <c r="AS57" s="41"/>
+      <c r="AT57" s="41"/>
+      <c r="AU57" s="41"/>
+      <c r="AV57" s="41"/>
       <c r="AW57" s="41"/>
       <c r="AX57" s="41"/>
       <c r="AY57" s="41"/>
@@ -7181,30 +7248,30 @@
         <f ca="1">IF(B58="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>44</v>
       </c>
-      <c r="B58" s="40" t="s">
-        <v>85</v>
+      <c r="B58" s="43" t="s">
+        <v>80</v>
       </c>
       <c r="C58" s="45"/>
       <c r="D58" s="45"/>
       <c r="E58" s="45"/>
       <c r="F58" s="45"/>
       <c r="G58" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="45"/>
-      <c r="M58" s="45"/>
-      <c r="N58" s="45"/>
-      <c r="O58" s="45"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="45"/>
-      <c r="R58" s="45"/>
-      <c r="S58" s="45"/>
-      <c r="T58" s="45"/>
-      <c r="U58" s="45"/>
+        <v>120</v>
+      </c>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="41"/>
+      <c r="M58" s="41"/>
+      <c r="N58" s="41"/>
+      <c r="O58" s="41"/>
+      <c r="P58" s="43"/>
+      <c r="Q58" s="41"/>
+      <c r="R58" s="41"/>
+      <c r="S58" s="41"/>
+      <c r="T58" s="41"/>
+      <c r="U58" s="41"/>
       <c r="V58" s="40" t="s">
         <v>44</v>
       </c>
@@ -7212,28 +7279,28 @@
       <c r="X58" s="45"/>
       <c r="Y58" s="45"/>
       <c r="Z58" s="45"/>
-      <c r="AA58" s="40"/>
-      <c r="AB58" s="45"/>
-      <c r="AC58" s="45"/>
-      <c r="AD58" s="45"/>
-      <c r="AE58" s="45"/>
-      <c r="AF58" s="45"/>
-      <c r="AG58" s="45"/>
-      <c r="AH58" s="45"/>
-      <c r="AI58" s="45"/>
-      <c r="AJ58" s="45"/>
-      <c r="AK58" s="45"/>
-      <c r="AL58" s="45"/>
-      <c r="AM58" s="45"/>
-      <c r="AN58" s="45"/>
-      <c r="AO58" s="45"/>
-      <c r="AP58" s="45"/>
-      <c r="AQ58" s="45"/>
-      <c r="AR58" s="45"/>
-      <c r="AS58" s="45"/>
-      <c r="AT58" s="45"/>
-      <c r="AU58" s="45"/>
-      <c r="AV58" s="45"/>
+      <c r="AA58" s="43"/>
+      <c r="AB58" s="41"/>
+      <c r="AC58" s="41"/>
+      <c r="AD58" s="41"/>
+      <c r="AE58" s="41"/>
+      <c r="AF58" s="41"/>
+      <c r="AG58" s="41"/>
+      <c r="AH58" s="41"/>
+      <c r="AI58" s="41"/>
+      <c r="AJ58" s="41"/>
+      <c r="AK58" s="41"/>
+      <c r="AL58" s="41"/>
+      <c r="AM58" s="41"/>
+      <c r="AN58" s="41"/>
+      <c r="AO58" s="41"/>
+      <c r="AP58" s="41"/>
+      <c r="AQ58" s="41"/>
+      <c r="AR58" s="41"/>
+      <c r="AS58" s="41"/>
+      <c r="AT58" s="41"/>
+      <c r="AU58" s="41"/>
+      <c r="AV58" s="41"/>
       <c r="AW58" s="41"/>
       <c r="AX58" s="41"/>
       <c r="AY58" s="41"/>
@@ -7245,14 +7312,14 @@
         <v>45</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C59" s="45"/>
       <c r="D59" s="45"/>
       <c r="E59" s="45"/>
       <c r="F59" s="45"/>
       <c r="G59" s="40" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H59" s="45"/>
       <c r="I59" s="45"/>
@@ -7307,30 +7374,30 @@
         <f ca="1">IF(B60="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>46</v>
       </c>
-      <c r="B60" s="40" t="s">
-        <v>87</v>
+      <c r="B60" s="43" t="s">
+        <v>82</v>
       </c>
       <c r="C60" s="45"/>
       <c r="D60" s="45"/>
       <c r="E60" s="45"/>
       <c r="F60" s="45"/>
       <c r="G60" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="H60" s="45"/>
-      <c r="I60" s="45"/>
-      <c r="J60" s="45"/>
-      <c r="K60" s="45"/>
-      <c r="L60" s="45"/>
-      <c r="M60" s="45"/>
-      <c r="N60" s="45"/>
-      <c r="O60" s="45"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="45"/>
-      <c r="R60" s="45"/>
-      <c r="S60" s="45"/>
-      <c r="T60" s="45"/>
-      <c r="U60" s="45"/>
+        <v>122</v>
+      </c>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="41"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="41"/>
+      <c r="O60" s="41"/>
+      <c r="P60" s="43"/>
+      <c r="Q60" s="41"/>
+      <c r="R60" s="41"/>
+      <c r="S60" s="41"/>
+      <c r="T60" s="41"/>
+      <c r="U60" s="41"/>
       <c r="V60" s="40" t="s">
         <v>44</v>
       </c>
@@ -7338,28 +7405,28 @@
       <c r="X60" s="45"/>
       <c r="Y60" s="45"/>
       <c r="Z60" s="45"/>
-      <c r="AA60" s="40"/>
-      <c r="AB60" s="45"/>
-      <c r="AC60" s="45"/>
-      <c r="AD60" s="45"/>
-      <c r="AE60" s="45"/>
-      <c r="AF60" s="45"/>
-      <c r="AG60" s="45"/>
-      <c r="AH60" s="45"/>
-      <c r="AI60" s="45"/>
-      <c r="AJ60" s="45"/>
-      <c r="AK60" s="45"/>
-      <c r="AL60" s="45"/>
-      <c r="AM60" s="45"/>
-      <c r="AN60" s="45"/>
-      <c r="AO60" s="45"/>
-      <c r="AP60" s="45"/>
-      <c r="AQ60" s="45"/>
-      <c r="AR60" s="45"/>
-      <c r="AS60" s="45"/>
-      <c r="AT60" s="45"/>
-      <c r="AU60" s="45"/>
-      <c r="AV60" s="45"/>
+      <c r="AA60" s="43"/>
+      <c r="AB60" s="41"/>
+      <c r="AC60" s="41"/>
+      <c r="AD60" s="41"/>
+      <c r="AE60" s="41"/>
+      <c r="AF60" s="41"/>
+      <c r="AG60" s="41"/>
+      <c r="AH60" s="41"/>
+      <c r="AI60" s="41"/>
+      <c r="AJ60" s="41"/>
+      <c r="AK60" s="41"/>
+      <c r="AL60" s="41"/>
+      <c r="AM60" s="41"/>
+      <c r="AN60" s="41"/>
+      <c r="AO60" s="41"/>
+      <c r="AP60" s="41"/>
+      <c r="AQ60" s="41"/>
+      <c r="AR60" s="41"/>
+      <c r="AS60" s="41"/>
+      <c r="AT60" s="41"/>
+      <c r="AU60" s="41"/>
+      <c r="AV60" s="41"/>
       <c r="AW60" s="41"/>
       <c r="AX60" s="41"/>
       <c r="AY60" s="41"/>
@@ -7371,14 +7438,14 @@
         <v>47</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C61" s="45"/>
       <c r="D61" s="45"/>
       <c r="E61" s="45"/>
       <c r="F61" s="45"/>
       <c r="G61" s="40" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H61" s="45"/>
       <c r="I61" s="45"/>
@@ -7434,14 +7501,14 @@
         <v>48</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C62" s="45"/>
       <c r="D62" s="45"/>
       <c r="E62" s="45"/>
       <c r="F62" s="45"/>
       <c r="G62" s="40" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H62" s="45"/>
       <c r="I62" s="45"/>
@@ -7492,16 +7559,20 @@
       <c r="AZ62" s="44"/>
     </row>
     <row r="63" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="34" t="str">
-        <f>IF(B63="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
-        <v/>
-      </c>
-      <c r="B63" s="40"/>
+      <c r="A63" s="34">
+        <f ca="1">IF(B63="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <v>49</v>
+      </c>
+      <c r="B63" s="40" t="s">
+        <v>85</v>
+      </c>
       <c r="C63" s="45"/>
       <c r="D63" s="45"/>
       <c r="E63" s="45"/>
       <c r="F63" s="45"/>
-      <c r="G63" s="40"/>
+      <c r="G63" s="40" t="s">
+        <v>125</v>
+      </c>
       <c r="H63" s="45"/>
       <c r="I63" s="45"/>
       <c r="J63" s="45"/>
@@ -7516,7 +7587,9 @@
       <c r="S63" s="45"/>
       <c r="T63" s="45"/>
       <c r="U63" s="45"/>
-      <c r="V63" s="40"/>
+      <c r="V63" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="W63" s="45"/>
       <c r="X63" s="45"/>
       <c r="Y63" s="45"/>
@@ -7549,16 +7622,20 @@
       <c r="AZ63" s="44"/>
     </row>
     <row r="64" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="34" t="str">
-        <f>IF(B64="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
-        <v/>
-      </c>
-      <c r="B64" s="40"/>
+      <c r="A64" s="34">
+        <f ca="1">IF(B64="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <v>50</v>
+      </c>
+      <c r="B64" s="40" t="s">
+        <v>86</v>
+      </c>
       <c r="C64" s="45"/>
       <c r="D64" s="45"/>
       <c r="E64" s="45"/>
       <c r="F64" s="45"/>
-      <c r="G64" s="40"/>
+      <c r="G64" s="40" t="s">
+        <v>126</v>
+      </c>
       <c r="H64" s="45"/>
       <c r="I64" s="45"/>
       <c r="J64" s="45"/>
@@ -7573,7 +7650,9 @@
       <c r="S64" s="45"/>
       <c r="T64" s="45"/>
       <c r="U64" s="45"/>
-      <c r="V64" s="40"/>
+      <c r="V64" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="W64" s="45"/>
       <c r="X64" s="45"/>
       <c r="Y64" s="45"/>
@@ -7606,16 +7685,20 @@
       <c r="AZ64" s="44"/>
     </row>
     <row r="65" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="34" t="str">
-        <f>IF(B65="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
-        <v/>
-      </c>
-      <c r="B65" s="40"/>
+      <c r="A65" s="34">
+        <f ca="1">IF(B65="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <v>51</v>
+      </c>
+      <c r="B65" s="40" t="s">
+        <v>87</v>
+      </c>
       <c r="C65" s="45"/>
       <c r="D65" s="45"/>
       <c r="E65" s="45"/>
       <c r="F65" s="45"/>
-      <c r="G65" s="40"/>
+      <c r="G65" s="40" t="s">
+        <v>127</v>
+      </c>
       <c r="H65" s="45"/>
       <c r="I65" s="45"/>
       <c r="J65" s="45"/>
@@ -7630,7 +7713,9 @@
       <c r="S65" s="45"/>
       <c r="T65" s="45"/>
       <c r="U65" s="45"/>
-      <c r="V65" s="40"/>
+      <c r="V65" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="W65" s="45"/>
       <c r="X65" s="45"/>
       <c r="Y65" s="45"/>
@@ -7663,16 +7748,20 @@
       <c r="AZ65" s="44"/>
     </row>
     <row r="66" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="34" t="str">
-        <f>IF(B66="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
-        <v/>
-      </c>
-      <c r="B66" s="40"/>
+      <c r="A66" s="34">
+        <f ca="1">IF(B66="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <v>52</v>
+      </c>
+      <c r="B66" s="40" t="s">
+        <v>88</v>
+      </c>
       <c r="C66" s="45"/>
       <c r="D66" s="45"/>
       <c r="E66" s="45"/>
       <c r="F66" s="45"/>
-      <c r="G66" s="40"/>
+      <c r="G66" s="40" t="s">
+        <v>128</v>
+      </c>
       <c r="H66" s="45"/>
       <c r="I66" s="45"/>
       <c r="J66" s="45"/>
@@ -7687,7 +7776,9 @@
       <c r="S66" s="45"/>
       <c r="T66" s="45"/>
       <c r="U66" s="45"/>
-      <c r="V66" s="40"/>
+      <c r="V66" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="W66" s="45"/>
       <c r="X66" s="45"/>
       <c r="Y66" s="45"/>
@@ -7720,16 +7811,20 @@
       <c r="AZ66" s="44"/>
     </row>
     <row r="67" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="34" t="str">
-        <f>IF(B67="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
-        <v/>
-      </c>
-      <c r="B67" s="40"/>
+      <c r="A67" s="34">
+        <f ca="1">IF(B67="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <v>53</v>
+      </c>
+      <c r="B67" s="40" t="s">
+        <v>89</v>
+      </c>
       <c r="C67" s="45"/>
       <c r="D67" s="45"/>
       <c r="E67" s="45"/>
       <c r="F67" s="45"/>
-      <c r="G67" s="40"/>
+      <c r="G67" s="40" t="s">
+        <v>129</v>
+      </c>
       <c r="H67" s="45"/>
       <c r="I67" s="45"/>
       <c r="J67" s="45"/>
@@ -7744,7 +7839,9 @@
       <c r="S67" s="45"/>
       <c r="T67" s="45"/>
       <c r="U67" s="45"/>
-      <c r="V67" s="40"/>
+      <c r="V67" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="W67" s="45"/>
       <c r="X67" s="45"/>
       <c r="Y67" s="45"/>
@@ -8859,8 +8956,11 @@
       <c r="AY86" s="41"/>
       <c r="AZ86" s="44"/>
     </row>
-    <row r="87" spans="1:52" s="21" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="34"/>
+    <row r="87" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="34" t="str">
+        <f>IF(B87="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <v/>
+      </c>
       <c r="B87" s="40"/>
       <c r="C87" s="45"/>
       <c r="D87" s="45"/>
@@ -8913,79 +9013,356 @@
       <c r="AY87" s="41"/>
       <c r="AZ87" s="44"/>
     </row>
-    <row r="88" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="46" t="s">
+    <row r="88" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="34" t="str">
+        <f>IF(B88="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <v/>
+      </c>
+      <c r="B88" s="40"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="45"/>
+      <c r="F88" s="45"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="45"/>
+      <c r="I88" s="45"/>
+      <c r="J88" s="45"/>
+      <c r="K88" s="45"/>
+      <c r="L88" s="45"/>
+      <c r="M88" s="45"/>
+      <c r="N88" s="45"/>
+      <c r="O88" s="45"/>
+      <c r="P88" s="40"/>
+      <c r="Q88" s="45"/>
+      <c r="R88" s="45"/>
+      <c r="S88" s="45"/>
+      <c r="T88" s="45"/>
+      <c r="U88" s="45"/>
+      <c r="V88" s="40"/>
+      <c r="W88" s="45"/>
+      <c r="X88" s="45"/>
+      <c r="Y88" s="45"/>
+      <c r="Z88" s="45"/>
+      <c r="AA88" s="40"/>
+      <c r="AB88" s="45"/>
+      <c r="AC88" s="45"/>
+      <c r="AD88" s="45"/>
+      <c r="AE88" s="45"/>
+      <c r="AF88" s="45"/>
+      <c r="AG88" s="45"/>
+      <c r="AH88" s="45"/>
+      <c r="AI88" s="45"/>
+      <c r="AJ88" s="45"/>
+      <c r="AK88" s="45"/>
+      <c r="AL88" s="45"/>
+      <c r="AM88" s="45"/>
+      <c r="AN88" s="45"/>
+      <c r="AO88" s="45"/>
+      <c r="AP88" s="45"/>
+      <c r="AQ88" s="45"/>
+      <c r="AR88" s="45"/>
+      <c r="AS88" s="45"/>
+      <c r="AT88" s="45"/>
+      <c r="AU88" s="45"/>
+      <c r="AV88" s="45"/>
+      <c r="AW88" s="41"/>
+      <c r="AX88" s="41"/>
+      <c r="AY88" s="41"/>
+      <c r="AZ88" s="44"/>
+    </row>
+    <row r="89" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="34" t="str">
+        <f>IF(B89="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <v/>
+      </c>
+      <c r="B89" s="40"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="45"/>
+      <c r="E89" s="45"/>
+      <c r="F89" s="45"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="45"/>
+      <c r="I89" s="45"/>
+      <c r="J89" s="45"/>
+      <c r="K89" s="45"/>
+      <c r="L89" s="45"/>
+      <c r="M89" s="45"/>
+      <c r="N89" s="45"/>
+      <c r="O89" s="45"/>
+      <c r="P89" s="40"/>
+      <c r="Q89" s="45"/>
+      <c r="R89" s="45"/>
+      <c r="S89" s="45"/>
+      <c r="T89" s="45"/>
+      <c r="U89" s="45"/>
+      <c r="V89" s="40"/>
+      <c r="W89" s="45"/>
+      <c r="X89" s="45"/>
+      <c r="Y89" s="45"/>
+      <c r="Z89" s="45"/>
+      <c r="AA89" s="40"/>
+      <c r="AB89" s="45"/>
+      <c r="AC89" s="45"/>
+      <c r="AD89" s="45"/>
+      <c r="AE89" s="45"/>
+      <c r="AF89" s="45"/>
+      <c r="AG89" s="45"/>
+      <c r="AH89" s="45"/>
+      <c r="AI89" s="45"/>
+      <c r="AJ89" s="45"/>
+      <c r="AK89" s="45"/>
+      <c r="AL89" s="45"/>
+      <c r="AM89" s="45"/>
+      <c r="AN89" s="45"/>
+      <c r="AO89" s="45"/>
+      <c r="AP89" s="45"/>
+      <c r="AQ89" s="45"/>
+      <c r="AR89" s="45"/>
+      <c r="AS89" s="45"/>
+      <c r="AT89" s="45"/>
+      <c r="AU89" s="45"/>
+      <c r="AV89" s="45"/>
+      <c r="AW89" s="41"/>
+      <c r="AX89" s="41"/>
+      <c r="AY89" s="41"/>
+      <c r="AZ89" s="44"/>
+    </row>
+    <row r="90" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="34" t="str">
+        <f>IF(B90="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <v/>
+      </c>
+      <c r="B90" s="40"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="45"/>
+      <c r="F90" s="45"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="45"/>
+      <c r="I90" s="45"/>
+      <c r="J90" s="45"/>
+      <c r="K90" s="45"/>
+      <c r="L90" s="45"/>
+      <c r="M90" s="45"/>
+      <c r="N90" s="45"/>
+      <c r="O90" s="45"/>
+      <c r="P90" s="40"/>
+      <c r="Q90" s="45"/>
+      <c r="R90" s="45"/>
+      <c r="S90" s="45"/>
+      <c r="T90" s="45"/>
+      <c r="U90" s="45"/>
+      <c r="V90" s="40"/>
+      <c r="W90" s="45"/>
+      <c r="X90" s="45"/>
+      <c r="Y90" s="45"/>
+      <c r="Z90" s="45"/>
+      <c r="AA90" s="40"/>
+      <c r="AB90" s="45"/>
+      <c r="AC90" s="45"/>
+      <c r="AD90" s="45"/>
+      <c r="AE90" s="45"/>
+      <c r="AF90" s="45"/>
+      <c r="AG90" s="45"/>
+      <c r="AH90" s="45"/>
+      <c r="AI90" s="45"/>
+      <c r="AJ90" s="45"/>
+      <c r="AK90" s="45"/>
+      <c r="AL90" s="45"/>
+      <c r="AM90" s="45"/>
+      <c r="AN90" s="45"/>
+      <c r="AO90" s="45"/>
+      <c r="AP90" s="45"/>
+      <c r="AQ90" s="45"/>
+      <c r="AR90" s="45"/>
+      <c r="AS90" s="45"/>
+      <c r="AT90" s="45"/>
+      <c r="AU90" s="45"/>
+      <c r="AV90" s="45"/>
+      <c r="AW90" s="41"/>
+      <c r="AX90" s="41"/>
+      <c r="AY90" s="41"/>
+      <c r="AZ90" s="44"/>
+    </row>
+    <row r="91" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="34" t="str">
+        <f>IF(B91="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <v/>
+      </c>
+      <c r="B91" s="40"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="45"/>
+      <c r="F91" s="45"/>
+      <c r="G91" s="40"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="45"/>
+      <c r="J91" s="45"/>
+      <c r="K91" s="45"/>
+      <c r="L91" s="45"/>
+      <c r="M91" s="45"/>
+      <c r="N91" s="45"/>
+      <c r="O91" s="45"/>
+      <c r="P91" s="40"/>
+      <c r="Q91" s="45"/>
+      <c r="R91" s="45"/>
+      <c r="S91" s="45"/>
+      <c r="T91" s="45"/>
+      <c r="U91" s="45"/>
+      <c r="V91" s="40"/>
+      <c r="W91" s="45"/>
+      <c r="X91" s="45"/>
+      <c r="Y91" s="45"/>
+      <c r="Z91" s="45"/>
+      <c r="AA91" s="40"/>
+      <c r="AB91" s="45"/>
+      <c r="AC91" s="45"/>
+      <c r="AD91" s="45"/>
+      <c r="AE91" s="45"/>
+      <c r="AF91" s="45"/>
+      <c r="AG91" s="45"/>
+      <c r="AH91" s="45"/>
+      <c r="AI91" s="45"/>
+      <c r="AJ91" s="45"/>
+      <c r="AK91" s="45"/>
+      <c r="AL91" s="45"/>
+      <c r="AM91" s="45"/>
+      <c r="AN91" s="45"/>
+      <c r="AO91" s="45"/>
+      <c r="AP91" s="45"/>
+      <c r="AQ91" s="45"/>
+      <c r="AR91" s="45"/>
+      <c r="AS91" s="45"/>
+      <c r="AT91" s="45"/>
+      <c r="AU91" s="45"/>
+      <c r="AV91" s="45"/>
+      <c r="AW91" s="41"/>
+      <c r="AX91" s="41"/>
+      <c r="AY91" s="41"/>
+      <c r="AZ91" s="44"/>
+    </row>
+    <row r="92" spans="1:52" s="21" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="34"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="45"/>
+      <c r="F92" s="45"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="45"/>
+      <c r="I92" s="45"/>
+      <c r="J92" s="45"/>
+      <c r="K92" s="45"/>
+      <c r="L92" s="45"/>
+      <c r="M92" s="45"/>
+      <c r="N92" s="45"/>
+      <c r="O92" s="45"/>
+      <c r="P92" s="40"/>
+      <c r="Q92" s="45"/>
+      <c r="R92" s="45"/>
+      <c r="S92" s="45"/>
+      <c r="T92" s="45"/>
+      <c r="U92" s="45"/>
+      <c r="V92" s="40"/>
+      <c r="W92" s="45"/>
+      <c r="X92" s="45"/>
+      <c r="Y92" s="45"/>
+      <c r="Z92" s="45"/>
+      <c r="AA92" s="40"/>
+      <c r="AB92" s="45"/>
+      <c r="AC92" s="45"/>
+      <c r="AD92" s="45"/>
+      <c r="AE92" s="45"/>
+      <c r="AF92" s="45"/>
+      <c r="AG92" s="45"/>
+      <c r="AH92" s="45"/>
+      <c r="AI92" s="45"/>
+      <c r="AJ92" s="45"/>
+      <c r="AK92" s="45"/>
+      <c r="AL92" s="45"/>
+      <c r="AM92" s="45"/>
+      <c r="AN92" s="45"/>
+      <c r="AO92" s="45"/>
+      <c r="AP92" s="45"/>
+      <c r="AQ92" s="45"/>
+      <c r="AR92" s="45"/>
+      <c r="AS92" s="45"/>
+      <c r="AT92" s="45"/>
+      <c r="AU92" s="45"/>
+      <c r="AV92" s="45"/>
+      <c r="AW92" s="41"/>
+      <c r="AX92" s="41"/>
+      <c r="AY92" s="41"/>
+      <c r="AZ92" s="44"/>
+    </row>
+    <row r="93" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B88" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="C88" s="48"/>
-      <c r="D88" s="48"/>
-      <c r="E88" s="48"/>
-      <c r="F88" s="48"/>
-      <c r="G88" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="H88" s="48"/>
-      <c r="I88" s="49"/>
-      <c r="J88" s="49"/>
-      <c r="K88" s="49"/>
-      <c r="L88" s="49"/>
-      <c r="M88" s="49"/>
-      <c r="N88" s="49"/>
-      <c r="O88" s="48"/>
-      <c r="P88" s="47" t="s">
+      <c r="B93" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="C93" s="48"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="H93" s="48"/>
+      <c r="I93" s="49"/>
+      <c r="J93" s="49"/>
+      <c r="K93" s="49"/>
+      <c r="L93" s="49"/>
+      <c r="M93" s="49"/>
+      <c r="N93" s="49"/>
+      <c r="O93" s="48"/>
+      <c r="P93" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="Q88" s="48"/>
-      <c r="R88" s="48"/>
-      <c r="S88" s="48"/>
-      <c r="T88" s="48"/>
-      <c r="U88" s="48"/>
-      <c r="V88" s="47" t="s">
+      <c r="Q93" s="48"/>
+      <c r="R93" s="48"/>
+      <c r="S93" s="48"/>
+      <c r="T93" s="48"/>
+      <c r="U93" s="48"/>
+      <c r="V93" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="W88" s="48"/>
-      <c r="X88" s="48"/>
-      <c r="Y88" s="48"/>
-      <c r="Z88" s="48"/>
-      <c r="AA88" s="47" t="s">
+      <c r="W93" s="48"/>
+      <c r="X93" s="48"/>
+      <c r="Y93" s="48"/>
+      <c r="Z93" s="48"/>
+      <c r="AA93" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="AB88" s="48"/>
-      <c r="AC88" s="48"/>
-      <c r="AD88" s="48"/>
-      <c r="AE88" s="48"/>
-      <c r="AF88" s="48"/>
-      <c r="AG88" s="48"/>
-      <c r="AH88" s="48"/>
-      <c r="AI88" s="49"/>
-      <c r="AJ88" s="48"/>
-      <c r="AK88" s="48"/>
-      <c r="AL88" s="48"/>
-      <c r="AM88" s="48"/>
-      <c r="AN88" s="48"/>
-      <c r="AO88" s="48"/>
-      <c r="AP88" s="48"/>
-      <c r="AQ88" s="48"/>
-      <c r="AR88" s="48"/>
-      <c r="AS88" s="48"/>
-      <c r="AT88" s="48"/>
-      <c r="AU88" s="48"/>
-      <c r="AV88" s="49"/>
-      <c r="AW88" s="49"/>
-      <c r="AX88" s="49"/>
-      <c r="AY88" s="49"/>
-      <c r="AZ88" s="50"/>
+      <c r="AB93" s="48"/>
+      <c r="AC93" s="48"/>
+      <c r="AD93" s="48"/>
+      <c r="AE93" s="48"/>
+      <c r="AF93" s="48"/>
+      <c r="AG93" s="48"/>
+      <c r="AH93" s="48"/>
+      <c r="AI93" s="49"/>
+      <c r="AJ93" s="48"/>
+      <c r="AK93" s="48"/>
+      <c r="AL93" s="48"/>
+      <c r="AM93" s="48"/>
+      <c r="AN93" s="48"/>
+      <c r="AO93" s="48"/>
+      <c r="AP93" s="48"/>
+      <c r="AQ93" s="48"/>
+      <c r="AR93" s="48"/>
+      <c r="AS93" s="48"/>
+      <c r="AT93" s="48"/>
+      <c r="AU93" s="48"/>
+      <c r="AV93" s="49"/>
+      <c r="AW93" s="49"/>
+      <c r="AX93" s="49"/>
+      <c r="AY93" s="49"/>
+      <c r="AZ93" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:AF3"/>
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="S2:AF2"/>
@@ -8993,11 +9370,16 @@
     <mergeCell ref="AM2:AR3"/>
     <mergeCell ref="AS2:AW3"/>
     <mergeCell ref="AX2:AZ3"/>
-    <mergeCell ref="A1:M2"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="S1:AF1"/>
     <mergeCell ref="AG1:AL1"/>
     <mergeCell ref="AM1:AR1"/>
+    <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>

--- a/設計書/01_基本設計（外部設計）/用語一覧.xlsx
+++ b/設計書/01_基本設計（外部設計）/用語一覧.xlsx
@@ -20,10 +20,10 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="FST.Noguchi - 個人用ビュー" guid="{5D7CE7C0-1A07-4E70-816B-B9F27EFCFB34}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="670" activeSheetId="1"/>
+    <customWorkbookView name="fst_oono - 個人用ビュー" guid="{5C90FFEC-6F86-4010-B93C-252309794A08}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1527" windowHeight="650" activeSheetId="2"/>
+    <customWorkbookView name="fst_nakagawa - 個人用ビュー" guid="{709F5761-167F-4C29-8B56-C1102579D2A5}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="709" activeSheetId="2"/>
     <customWorkbookView name="fst_yamashita - 個人用ビュー" guid="{342C0241-18BB-4D06-A724-8A5C681CA42A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="634" activeSheetId="1"/>
-    <customWorkbookView name="fst_nakagawa - 個人用ビュー" guid="{709F5761-167F-4C29-8B56-C1102579D2A5}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="709" activeSheetId="2"/>
-    <customWorkbookView name="fst_oono - 個人用ビュー" guid="{5C90FFEC-6F86-4010-B93C-252309794A08}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1527" windowHeight="650" activeSheetId="2"/>
-    <customWorkbookView name="FST.Noguchi - 個人用ビュー" guid="{5D7CE7C0-1A07-4E70-816B-B9F27EFCFB34}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="670" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -530,10 +530,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>departmen</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>deny</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -552,18 +548,6 @@
     <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>departmen_id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>departmen_nm</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>departmen_rnm</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -596,6 +580,22 @@
       </rPr>
       <t>pprove_flow</t>
     </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>department</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>department_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>department_nm</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>department_rnm</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1436,6 +1436,177 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="44" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1448,182 +1619,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -2084,201 +2084,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="str">
+      <c r="A1" s="111" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改訂履歴</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="58" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="59" t="str">
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="115" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="58" t="s">
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="115"/>
+      <c r="AB1" s="115"/>
+      <c r="AC1" s="115"/>
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="115"/>
+      <c r="AF1" s="115"/>
+      <c r="AG1" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58" t="s">
+      <c r="AH1" s="100"/>
+      <c r="AI1" s="100"/>
+      <c r="AJ1" s="100"/>
+      <c r="AK1" s="100"/>
+      <c r="AL1" s="100"/>
+      <c r="AM1" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58" t="s">
+      <c r="AN1" s="100"/>
+      <c r="AO1" s="100"/>
+      <c r="AP1" s="100"/>
+      <c r="AQ1" s="100"/>
+      <c r="AR1" s="100"/>
+      <c r="AS1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58" t="s">
+      <c r="AT1" s="100"/>
+      <c r="AU1" s="100"/>
+      <c r="AV1" s="100"/>
+      <c r="AW1" s="100"/>
+      <c r="AX1" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="60"/>
+      <c r="AY1" s="100"/>
+      <c r="AZ1" s="101"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="61" t="s">
+      <c r="A2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="62" t="str">
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="103" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="63">
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="103"/>
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="103"/>
+      <c r="AC2" s="103"/>
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="103"/>
+      <c r="AF2" s="103"/>
+      <c r="AG2" s="104">
         <v>42619</v>
       </c>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="65" t="s">
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="AN2" s="62"/>
-      <c r="AO2" s="62"/>
-      <c r="AP2" s="62"/>
-      <c r="AQ2" s="62"/>
-      <c r="AR2" s="62"/>
-      <c r="AS2" s="67"/>
-      <c r="AT2" s="67"/>
-      <c r="AU2" s="67"/>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="62"/>
-      <c r="AY2" s="62"/>
-      <c r="AZ2" s="69"/>
+      <c r="AN2" s="103"/>
+      <c r="AO2" s="103"/>
+      <c r="AP2" s="103"/>
+      <c r="AQ2" s="103"/>
+      <c r="AR2" s="103"/>
+      <c r="AS2" s="107"/>
+      <c r="AT2" s="107"/>
+      <c r="AU2" s="107"/>
+      <c r="AV2" s="107"/>
+      <c r="AW2" s="107"/>
+      <c r="AX2" s="103"/>
+      <c r="AY2" s="103"/>
+      <c r="AZ2" s="109"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="66" t="str">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="93" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="72" t="s">
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="66" t="str">
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="93" t="str">
         <f>設定情報!$C$5</f>
         <v>用語一覧</v>
       </c>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="66"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="68"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="66"/>
-      <c r="AZ3" s="70"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="93"/>
+      <c r="AF3" s="93"/>
+      <c r="AG3" s="105"/>
+      <c r="AH3" s="105"/>
+      <c r="AI3" s="105"/>
+      <c r="AJ3" s="105"/>
+      <c r="AK3" s="105"/>
+      <c r="AL3" s="105"/>
+      <c r="AM3" s="93"/>
+      <c r="AN3" s="93"/>
+      <c r="AO3" s="93"/>
+      <c r="AP3" s="93"/>
+      <c r="AQ3" s="93"/>
+      <c r="AR3" s="93"/>
+      <c r="AS3" s="108"/>
+      <c r="AT3" s="108"/>
+      <c r="AU3" s="108"/>
+      <c r="AV3" s="108"/>
+      <c r="AW3" s="108"/>
+      <c r="AX3" s="93"/>
+      <c r="AY3" s="93"/>
+      <c r="AZ3" s="110"/>
     </row>
     <row r="4" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
@@ -2446,1098 +2446,1098 @@
     </row>
     <row r="7" spans="1:52" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="76" t="s">
+      <c r="C7" s="95"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="73" t="s">
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="73" t="s">
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="74"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="74"/>
-      <c r="Y7" s="74"/>
-      <c r="Z7" s="74"/>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="74"/>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="74"/>
-      <c r="AE7" s="74"/>
-      <c r="AF7" s="74"/>
-      <c r="AG7" s="74"/>
-      <c r="AH7" s="74"/>
-      <c r="AI7" s="74"/>
-      <c r="AJ7" s="74"/>
-      <c r="AK7" s="74"/>
-      <c r="AL7" s="74"/>
-      <c r="AM7" s="74"/>
-      <c r="AN7" s="74"/>
-      <c r="AO7" s="74"/>
-      <c r="AP7" s="74"/>
-      <c r="AQ7" s="74"/>
-      <c r="AR7" s="74"/>
-      <c r="AS7" s="74"/>
-      <c r="AT7" s="74"/>
-      <c r="AU7" s="74"/>
-      <c r="AV7" s="74"/>
-      <c r="AW7" s="74"/>
-      <c r="AX7" s="74"/>
-      <c r="AY7" s="75"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="95"/>
+      <c r="T7" s="95"/>
+      <c r="U7" s="95"/>
+      <c r="V7" s="95"/>
+      <c r="W7" s="95"/>
+      <c r="X7" s="95"/>
+      <c r="Y7" s="95"/>
+      <c r="Z7" s="95"/>
+      <c r="AA7" s="95"/>
+      <c r="AB7" s="95"/>
+      <c r="AC7" s="95"/>
+      <c r="AD7" s="95"/>
+      <c r="AE7" s="95"/>
+      <c r="AF7" s="95"/>
+      <c r="AG7" s="95"/>
+      <c r="AH7" s="95"/>
+      <c r="AI7" s="95"/>
+      <c r="AJ7" s="95"/>
+      <c r="AK7" s="95"/>
+      <c r="AL7" s="95"/>
+      <c r="AM7" s="95"/>
+      <c r="AN7" s="95"/>
+      <c r="AO7" s="95"/>
+      <c r="AP7" s="95"/>
+      <c r="AQ7" s="95"/>
+      <c r="AR7" s="95"/>
+      <c r="AS7" s="95"/>
+      <c r="AT7" s="95"/>
+      <c r="AU7" s="95"/>
+      <c r="AV7" s="95"/>
+      <c r="AW7" s="95"/>
+      <c r="AX7" s="95"/>
+      <c r="AY7" s="96"/>
       <c r="AZ7" s="11"/>
     </row>
     <row r="8" spans="1:52" s="8" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="86"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="86"/>
-      <c r="W8" s="86"/>
-      <c r="X8" s="86"/>
-      <c r="Y8" s="86"/>
-      <c r="Z8" s="86"/>
-      <c r="AA8" s="86"/>
-      <c r="AB8" s="86"/>
-      <c r="AC8" s="86"/>
-      <c r="AD8" s="86"/>
-      <c r="AE8" s="86"/>
-      <c r="AF8" s="86"/>
-      <c r="AG8" s="86"/>
-      <c r="AH8" s="86"/>
-      <c r="AI8" s="86"/>
-      <c r="AJ8" s="86"/>
-      <c r="AK8" s="86"/>
-      <c r="AL8" s="86"/>
-      <c r="AM8" s="86"/>
-      <c r="AN8" s="86"/>
-      <c r="AO8" s="86"/>
-      <c r="AP8" s="86"/>
-      <c r="AQ8" s="86"/>
-      <c r="AR8" s="86"/>
-      <c r="AS8" s="86"/>
-      <c r="AT8" s="86"/>
-      <c r="AU8" s="86"/>
-      <c r="AV8" s="86"/>
-      <c r="AW8" s="86"/>
-      <c r="AX8" s="86"/>
-      <c r="AY8" s="87"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="87"/>
+      <c r="S8" s="87"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="87"/>
+      <c r="V8" s="87"/>
+      <c r="W8" s="87"/>
+      <c r="X8" s="87"/>
+      <c r="Y8" s="87"/>
+      <c r="Z8" s="87"/>
+      <c r="AA8" s="87"/>
+      <c r="AB8" s="87"/>
+      <c r="AC8" s="87"/>
+      <c r="AD8" s="87"/>
+      <c r="AE8" s="87"/>
+      <c r="AF8" s="87"/>
+      <c r="AG8" s="87"/>
+      <c r="AH8" s="87"/>
+      <c r="AI8" s="87"/>
+      <c r="AJ8" s="87"/>
+      <c r="AK8" s="87"/>
+      <c r="AL8" s="87"/>
+      <c r="AM8" s="87"/>
+      <c r="AN8" s="87"/>
+      <c r="AO8" s="87"/>
+      <c r="AP8" s="87"/>
+      <c r="AQ8" s="87"/>
+      <c r="AR8" s="87"/>
+      <c r="AS8" s="87"/>
+      <c r="AT8" s="87"/>
+      <c r="AU8" s="87"/>
+      <c r="AV8" s="87"/>
+      <c r="AW8" s="87"/>
+      <c r="AX8" s="87"/>
+      <c r="AY8" s="88"/>
       <c r="AZ8" s="12"/>
     </row>
     <row r="9" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
-      <c r="B9" s="89">
+      <c r="B9" s="68">
         <v>1</v>
       </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="92">
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="71">
         <v>42619</v>
       </c>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="95" t="s">
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="98" t="s">
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="96"/>
-      <c r="W9" s="96"/>
-      <c r="X9" s="96"/>
-      <c r="Y9" s="96"/>
-      <c r="Z9" s="96"/>
-      <c r="AA9" s="96"/>
-      <c r="AB9" s="96"/>
-      <c r="AC9" s="96"/>
-      <c r="AD9" s="96"/>
-      <c r="AE9" s="96"/>
-      <c r="AF9" s="96"/>
-      <c r="AG9" s="96"/>
-      <c r="AH9" s="96"/>
-      <c r="AI9" s="96"/>
-      <c r="AJ9" s="96"/>
-      <c r="AK9" s="96"/>
-      <c r="AL9" s="96"/>
-      <c r="AM9" s="96"/>
-      <c r="AN9" s="96"/>
-      <c r="AO9" s="96"/>
-      <c r="AP9" s="96"/>
-      <c r="AQ9" s="96"/>
-      <c r="AR9" s="96"/>
-      <c r="AS9" s="96"/>
-      <c r="AT9" s="96"/>
-      <c r="AU9" s="96"/>
-      <c r="AV9" s="96"/>
-      <c r="AW9" s="96"/>
-      <c r="AX9" s="96"/>
-      <c r="AY9" s="97"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="78"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="78"/>
+      <c r="AC9" s="78"/>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="78"/>
+      <c r="AF9" s="78"/>
+      <c r="AG9" s="78"/>
+      <c r="AH9" s="78"/>
+      <c r="AI9" s="78"/>
+      <c r="AJ9" s="78"/>
+      <c r="AK9" s="78"/>
+      <c r="AL9" s="78"/>
+      <c r="AM9" s="78"/>
+      <c r="AN9" s="78"/>
+      <c r="AO9" s="78"/>
+      <c r="AP9" s="78"/>
+      <c r="AQ9" s="78"/>
+      <c r="AR9" s="78"/>
+      <c r="AS9" s="78"/>
+      <c r="AT9" s="78"/>
+      <c r="AU9" s="78"/>
+      <c r="AV9" s="78"/>
+      <c r="AW9" s="78"/>
+      <c r="AX9" s="78"/>
+      <c r="AY9" s="79"/>
       <c r="AZ9" s="12"/>
     </row>
     <row r="10" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="96"/>
-      <c r="AA10" s="96"/>
-      <c r="AB10" s="96"/>
-      <c r="AC10" s="96"/>
-      <c r="AD10" s="96"/>
-      <c r="AE10" s="96"/>
-      <c r="AF10" s="96"/>
-      <c r="AG10" s="96"/>
-      <c r="AH10" s="96"/>
-      <c r="AI10" s="96"/>
-      <c r="AJ10" s="96"/>
-      <c r="AK10" s="96"/>
-      <c r="AL10" s="96"/>
-      <c r="AM10" s="96"/>
-      <c r="AN10" s="96"/>
-      <c r="AO10" s="96"/>
-      <c r="AP10" s="96"/>
-      <c r="AQ10" s="96"/>
-      <c r="AR10" s="96"/>
-      <c r="AS10" s="96"/>
-      <c r="AT10" s="96"/>
-      <c r="AU10" s="96"/>
-      <c r="AV10" s="96"/>
-      <c r="AW10" s="96"/>
-      <c r="AX10" s="96"/>
-      <c r="AY10" s="97"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="78"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="78"/>
+      <c r="AA10" s="78"/>
+      <c r="AB10" s="78"/>
+      <c r="AC10" s="78"/>
+      <c r="AD10" s="78"/>
+      <c r="AE10" s="78"/>
+      <c r="AF10" s="78"/>
+      <c r="AG10" s="78"/>
+      <c r="AH10" s="78"/>
+      <c r="AI10" s="78"/>
+      <c r="AJ10" s="78"/>
+      <c r="AK10" s="78"/>
+      <c r="AL10" s="78"/>
+      <c r="AM10" s="78"/>
+      <c r="AN10" s="78"/>
+      <c r="AO10" s="78"/>
+      <c r="AP10" s="78"/>
+      <c r="AQ10" s="78"/>
+      <c r="AR10" s="78"/>
+      <c r="AS10" s="78"/>
+      <c r="AT10" s="78"/>
+      <c r="AU10" s="78"/>
+      <c r="AV10" s="78"/>
+      <c r="AW10" s="78"/>
+      <c r="AX10" s="78"/>
+      <c r="AY10" s="79"/>
       <c r="AZ10" s="12"/>
     </row>
     <row r="11" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
-      <c r="X11" s="96"/>
-      <c r="Y11" s="96"/>
-      <c r="Z11" s="96"/>
-      <c r="AA11" s="96"/>
-      <c r="AB11" s="96"/>
-      <c r="AC11" s="96"/>
-      <c r="AD11" s="96"/>
-      <c r="AE11" s="96"/>
-      <c r="AF11" s="96"/>
-      <c r="AG11" s="96"/>
-      <c r="AH11" s="96"/>
-      <c r="AI11" s="96"/>
-      <c r="AJ11" s="96"/>
-      <c r="AK11" s="96"/>
-      <c r="AL11" s="96"/>
-      <c r="AM11" s="96"/>
-      <c r="AN11" s="96"/>
-      <c r="AO11" s="96"/>
-      <c r="AP11" s="96"/>
-      <c r="AQ11" s="96"/>
-      <c r="AR11" s="96"/>
-      <c r="AS11" s="96"/>
-      <c r="AT11" s="96"/>
-      <c r="AU11" s="96"/>
-      <c r="AV11" s="96"/>
-      <c r="AW11" s="96"/>
-      <c r="AX11" s="96"/>
-      <c r="AY11" s="97"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="78"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="78"/>
+      <c r="AB11" s="78"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="78"/>
+      <c r="AE11" s="78"/>
+      <c r="AF11" s="78"/>
+      <c r="AG11" s="78"/>
+      <c r="AH11" s="78"/>
+      <c r="AI11" s="78"/>
+      <c r="AJ11" s="78"/>
+      <c r="AK11" s="78"/>
+      <c r="AL11" s="78"/>
+      <c r="AM11" s="78"/>
+      <c r="AN11" s="78"/>
+      <c r="AO11" s="78"/>
+      <c r="AP11" s="78"/>
+      <c r="AQ11" s="78"/>
+      <c r="AR11" s="78"/>
+      <c r="AS11" s="78"/>
+      <c r="AT11" s="78"/>
+      <c r="AU11" s="78"/>
+      <c r="AV11" s="78"/>
+      <c r="AW11" s="78"/>
+      <c r="AX11" s="78"/>
+      <c r="AY11" s="79"/>
       <c r="AZ11" s="12"/>
     </row>
     <row r="12" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="96"/>
-      <c r="S12" s="96"/>
-      <c r="T12" s="96"/>
-      <c r="U12" s="96"/>
-      <c r="V12" s="96"/>
-      <c r="W12" s="96"/>
-      <c r="X12" s="96"/>
-      <c r="Y12" s="96"/>
-      <c r="Z12" s="96"/>
-      <c r="AA12" s="96"/>
-      <c r="AB12" s="96"/>
-      <c r="AC12" s="96"/>
-      <c r="AD12" s="96"/>
-      <c r="AE12" s="96"/>
-      <c r="AF12" s="96"/>
-      <c r="AG12" s="96"/>
-      <c r="AH12" s="96"/>
-      <c r="AI12" s="96"/>
-      <c r="AJ12" s="96"/>
-      <c r="AK12" s="96"/>
-      <c r="AL12" s="96"/>
-      <c r="AM12" s="96"/>
-      <c r="AN12" s="96"/>
-      <c r="AO12" s="96"/>
-      <c r="AP12" s="96"/>
-      <c r="AQ12" s="96"/>
-      <c r="AR12" s="96"/>
-      <c r="AS12" s="96"/>
-      <c r="AT12" s="96"/>
-      <c r="AU12" s="96"/>
-      <c r="AV12" s="96"/>
-      <c r="AW12" s="96"/>
-      <c r="AX12" s="96"/>
-      <c r="AY12" s="97"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="78"/>
+      <c r="AB12" s="78"/>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="78"/>
+      <c r="AE12" s="78"/>
+      <c r="AF12" s="78"/>
+      <c r="AG12" s="78"/>
+      <c r="AH12" s="78"/>
+      <c r="AI12" s="78"/>
+      <c r="AJ12" s="78"/>
+      <c r="AK12" s="78"/>
+      <c r="AL12" s="78"/>
+      <c r="AM12" s="78"/>
+      <c r="AN12" s="78"/>
+      <c r="AO12" s="78"/>
+      <c r="AP12" s="78"/>
+      <c r="AQ12" s="78"/>
+      <c r="AR12" s="78"/>
+      <c r="AS12" s="78"/>
+      <c r="AT12" s="78"/>
+      <c r="AU12" s="78"/>
+      <c r="AV12" s="78"/>
+      <c r="AW12" s="78"/>
+      <c r="AX12" s="78"/>
+      <c r="AY12" s="79"/>
       <c r="AZ12" s="12"/>
     </row>
     <row r="13" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="96"/>
-      <c r="Z13" s="96"/>
-      <c r="AA13" s="96"/>
-      <c r="AB13" s="96"/>
-      <c r="AC13" s="96"/>
-      <c r="AD13" s="96"/>
-      <c r="AE13" s="96"/>
-      <c r="AF13" s="96"/>
-      <c r="AG13" s="96"/>
-      <c r="AH13" s="96"/>
-      <c r="AI13" s="96"/>
-      <c r="AJ13" s="96"/>
-      <c r="AK13" s="96"/>
-      <c r="AL13" s="96"/>
-      <c r="AM13" s="96"/>
-      <c r="AN13" s="96"/>
-      <c r="AO13" s="96"/>
-      <c r="AP13" s="96"/>
-      <c r="AQ13" s="96"/>
-      <c r="AR13" s="96"/>
-      <c r="AS13" s="96"/>
-      <c r="AT13" s="96"/>
-      <c r="AU13" s="96"/>
-      <c r="AV13" s="96"/>
-      <c r="AW13" s="96"/>
-      <c r="AX13" s="96"/>
-      <c r="AY13" s="97"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="78"/>
+      <c r="W13" s="78"/>
+      <c r="X13" s="78"/>
+      <c r="Y13" s="78"/>
+      <c r="Z13" s="78"/>
+      <c r="AA13" s="78"/>
+      <c r="AB13" s="78"/>
+      <c r="AC13" s="78"/>
+      <c r="AD13" s="78"/>
+      <c r="AE13" s="78"/>
+      <c r="AF13" s="78"/>
+      <c r="AG13" s="78"/>
+      <c r="AH13" s="78"/>
+      <c r="AI13" s="78"/>
+      <c r="AJ13" s="78"/>
+      <c r="AK13" s="78"/>
+      <c r="AL13" s="78"/>
+      <c r="AM13" s="78"/>
+      <c r="AN13" s="78"/>
+      <c r="AO13" s="78"/>
+      <c r="AP13" s="78"/>
+      <c r="AQ13" s="78"/>
+      <c r="AR13" s="78"/>
+      <c r="AS13" s="78"/>
+      <c r="AT13" s="78"/>
+      <c r="AU13" s="78"/>
+      <c r="AV13" s="78"/>
+      <c r="AW13" s="78"/>
+      <c r="AX13" s="78"/>
+      <c r="AY13" s="79"/>
       <c r="AZ13" s="12"/>
     </row>
     <row r="14" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="98"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="96"/>
-      <c r="W14" s="96"/>
-      <c r="X14" s="96"/>
-      <c r="Y14" s="96"/>
-      <c r="Z14" s="96"/>
-      <c r="AA14" s="96"/>
-      <c r="AB14" s="96"/>
-      <c r="AC14" s="96"/>
-      <c r="AD14" s="96"/>
-      <c r="AE14" s="96"/>
-      <c r="AF14" s="96"/>
-      <c r="AG14" s="96"/>
-      <c r="AH14" s="96"/>
-      <c r="AI14" s="96"/>
-      <c r="AJ14" s="96"/>
-      <c r="AK14" s="96"/>
-      <c r="AL14" s="96"/>
-      <c r="AM14" s="96"/>
-      <c r="AN14" s="96"/>
-      <c r="AO14" s="96"/>
-      <c r="AP14" s="96"/>
-      <c r="AQ14" s="96"/>
-      <c r="AR14" s="96"/>
-      <c r="AS14" s="96"/>
-      <c r="AT14" s="96"/>
-      <c r="AU14" s="96"/>
-      <c r="AV14" s="96"/>
-      <c r="AW14" s="96"/>
-      <c r="AX14" s="96"/>
-      <c r="AY14" s="97"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="78"/>
+      <c r="X14" s="78"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="78"/>
+      <c r="AA14" s="78"/>
+      <c r="AB14" s="78"/>
+      <c r="AC14" s="78"/>
+      <c r="AD14" s="78"/>
+      <c r="AE14" s="78"/>
+      <c r="AF14" s="78"/>
+      <c r="AG14" s="78"/>
+      <c r="AH14" s="78"/>
+      <c r="AI14" s="78"/>
+      <c r="AJ14" s="78"/>
+      <c r="AK14" s="78"/>
+      <c r="AL14" s="78"/>
+      <c r="AM14" s="78"/>
+      <c r="AN14" s="78"/>
+      <c r="AO14" s="78"/>
+      <c r="AP14" s="78"/>
+      <c r="AQ14" s="78"/>
+      <c r="AR14" s="78"/>
+      <c r="AS14" s="78"/>
+      <c r="AT14" s="78"/>
+      <c r="AU14" s="78"/>
+      <c r="AV14" s="78"/>
+      <c r="AW14" s="78"/>
+      <c r="AX14" s="78"/>
+      <c r="AY14" s="79"/>
       <c r="AZ14" s="12"/>
     </row>
     <row r="15" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="96"/>
-      <c r="W15" s="96"/>
-      <c r="X15" s="96"/>
-      <c r="Y15" s="96"/>
-      <c r="Z15" s="96"/>
-      <c r="AA15" s="96"/>
-      <c r="AB15" s="96"/>
-      <c r="AC15" s="96"/>
-      <c r="AD15" s="96"/>
-      <c r="AE15" s="96"/>
-      <c r="AF15" s="96"/>
-      <c r="AG15" s="96"/>
-      <c r="AH15" s="96"/>
-      <c r="AI15" s="96"/>
-      <c r="AJ15" s="96"/>
-      <c r="AK15" s="96"/>
-      <c r="AL15" s="96"/>
-      <c r="AM15" s="96"/>
-      <c r="AN15" s="96"/>
-      <c r="AO15" s="96"/>
-      <c r="AP15" s="96"/>
-      <c r="AQ15" s="96"/>
-      <c r="AR15" s="96"/>
-      <c r="AS15" s="96"/>
-      <c r="AT15" s="96"/>
-      <c r="AU15" s="96"/>
-      <c r="AV15" s="96"/>
-      <c r="AW15" s="96"/>
-      <c r="AX15" s="96"/>
-      <c r="AY15" s="97"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="78"/>
+      <c r="Y15" s="78"/>
+      <c r="Z15" s="78"/>
+      <c r="AA15" s="78"/>
+      <c r="AB15" s="78"/>
+      <c r="AC15" s="78"/>
+      <c r="AD15" s="78"/>
+      <c r="AE15" s="78"/>
+      <c r="AF15" s="78"/>
+      <c r="AG15" s="78"/>
+      <c r="AH15" s="78"/>
+      <c r="AI15" s="78"/>
+      <c r="AJ15" s="78"/>
+      <c r="AK15" s="78"/>
+      <c r="AL15" s="78"/>
+      <c r="AM15" s="78"/>
+      <c r="AN15" s="78"/>
+      <c r="AO15" s="78"/>
+      <c r="AP15" s="78"/>
+      <c r="AQ15" s="78"/>
+      <c r="AR15" s="78"/>
+      <c r="AS15" s="78"/>
+      <c r="AT15" s="78"/>
+      <c r="AU15" s="78"/>
+      <c r="AV15" s="78"/>
+      <c r="AW15" s="78"/>
+      <c r="AX15" s="78"/>
+      <c r="AY15" s="79"/>
       <c r="AZ15" s="12"/>
     </row>
     <row r="16" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="98"/>
-      <c r="R16" s="96"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="96"/>
-      <c r="U16" s="96"/>
-      <c r="V16" s="96"/>
-      <c r="W16" s="96"/>
-      <c r="X16" s="96"/>
-      <c r="Y16" s="96"/>
-      <c r="Z16" s="96"/>
-      <c r="AA16" s="96"/>
-      <c r="AB16" s="96"/>
-      <c r="AC16" s="96"/>
-      <c r="AD16" s="96"/>
-      <c r="AE16" s="96"/>
-      <c r="AF16" s="96"/>
-      <c r="AG16" s="96"/>
-      <c r="AH16" s="96"/>
-      <c r="AI16" s="96"/>
-      <c r="AJ16" s="96"/>
-      <c r="AK16" s="96"/>
-      <c r="AL16" s="96"/>
-      <c r="AM16" s="96"/>
-      <c r="AN16" s="96"/>
-      <c r="AO16" s="96"/>
-      <c r="AP16" s="96"/>
-      <c r="AQ16" s="96"/>
-      <c r="AR16" s="96"/>
-      <c r="AS16" s="96"/>
-      <c r="AT16" s="96"/>
-      <c r="AU16" s="96"/>
-      <c r="AV16" s="96"/>
-      <c r="AW16" s="96"/>
-      <c r="AX16" s="96"/>
-      <c r="AY16" s="97"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="78"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="78"/>
+      <c r="Z16" s="78"/>
+      <c r="AA16" s="78"/>
+      <c r="AB16" s="78"/>
+      <c r="AC16" s="78"/>
+      <c r="AD16" s="78"/>
+      <c r="AE16" s="78"/>
+      <c r="AF16" s="78"/>
+      <c r="AG16" s="78"/>
+      <c r="AH16" s="78"/>
+      <c r="AI16" s="78"/>
+      <c r="AJ16" s="78"/>
+      <c r="AK16" s="78"/>
+      <c r="AL16" s="78"/>
+      <c r="AM16" s="78"/>
+      <c r="AN16" s="78"/>
+      <c r="AO16" s="78"/>
+      <c r="AP16" s="78"/>
+      <c r="AQ16" s="78"/>
+      <c r="AR16" s="78"/>
+      <c r="AS16" s="78"/>
+      <c r="AT16" s="78"/>
+      <c r="AU16" s="78"/>
+      <c r="AV16" s="78"/>
+      <c r="AW16" s="78"/>
+      <c r="AX16" s="78"/>
+      <c r="AY16" s="79"/>
       <c r="AZ16" s="12"/>
     </row>
     <row r="17" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="98"/>
-      <c r="R17" s="96"/>
-      <c r="S17" s="96"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="96"/>
-      <c r="V17" s="96"/>
-      <c r="W17" s="96"/>
-      <c r="X17" s="96"/>
-      <c r="Y17" s="96"/>
-      <c r="Z17" s="96"/>
-      <c r="AA17" s="96"/>
-      <c r="AB17" s="96"/>
-      <c r="AC17" s="96"/>
-      <c r="AD17" s="96"/>
-      <c r="AE17" s="96"/>
-      <c r="AF17" s="96"/>
-      <c r="AG17" s="96"/>
-      <c r="AH17" s="96"/>
-      <c r="AI17" s="96"/>
-      <c r="AJ17" s="96"/>
-      <c r="AK17" s="96"/>
-      <c r="AL17" s="96"/>
-      <c r="AM17" s="96"/>
-      <c r="AN17" s="96"/>
-      <c r="AO17" s="96"/>
-      <c r="AP17" s="96"/>
-      <c r="AQ17" s="96"/>
-      <c r="AR17" s="96"/>
-      <c r="AS17" s="96"/>
-      <c r="AT17" s="96"/>
-      <c r="AU17" s="96"/>
-      <c r="AV17" s="96"/>
-      <c r="AW17" s="96"/>
-      <c r="AX17" s="96"/>
-      <c r="AY17" s="97"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="78"/>
+      <c r="T17" s="78"/>
+      <c r="U17" s="78"/>
+      <c r="V17" s="78"/>
+      <c r="W17" s="78"/>
+      <c r="X17" s="78"/>
+      <c r="Y17" s="78"/>
+      <c r="Z17" s="78"/>
+      <c r="AA17" s="78"/>
+      <c r="AB17" s="78"/>
+      <c r="AC17" s="78"/>
+      <c r="AD17" s="78"/>
+      <c r="AE17" s="78"/>
+      <c r="AF17" s="78"/>
+      <c r="AG17" s="78"/>
+      <c r="AH17" s="78"/>
+      <c r="AI17" s="78"/>
+      <c r="AJ17" s="78"/>
+      <c r="AK17" s="78"/>
+      <c r="AL17" s="78"/>
+      <c r="AM17" s="78"/>
+      <c r="AN17" s="78"/>
+      <c r="AO17" s="78"/>
+      <c r="AP17" s="78"/>
+      <c r="AQ17" s="78"/>
+      <c r="AR17" s="78"/>
+      <c r="AS17" s="78"/>
+      <c r="AT17" s="78"/>
+      <c r="AU17" s="78"/>
+      <c r="AV17" s="78"/>
+      <c r="AW17" s="78"/>
+      <c r="AX17" s="78"/>
+      <c r="AY17" s="79"/>
       <c r="AZ17" s="12"/>
     </row>
     <row r="18" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="100"/>
-      <c r="O18" s="100"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="98"/>
-      <c r="R18" s="96"/>
-      <c r="S18" s="96"/>
-      <c r="T18" s="96"/>
-      <c r="U18" s="96"/>
-      <c r="V18" s="96"/>
-      <c r="W18" s="96"/>
-      <c r="X18" s="96"/>
-      <c r="Y18" s="96"/>
-      <c r="Z18" s="96"/>
-      <c r="AA18" s="96"/>
-      <c r="AB18" s="96"/>
-      <c r="AC18" s="96"/>
-      <c r="AD18" s="96"/>
-      <c r="AE18" s="96"/>
-      <c r="AF18" s="96"/>
-      <c r="AG18" s="96"/>
-      <c r="AH18" s="96"/>
-      <c r="AI18" s="96"/>
-      <c r="AJ18" s="96"/>
-      <c r="AK18" s="96"/>
-      <c r="AL18" s="96"/>
-      <c r="AM18" s="96"/>
-      <c r="AN18" s="96"/>
-      <c r="AO18" s="96"/>
-      <c r="AP18" s="96"/>
-      <c r="AQ18" s="96"/>
-      <c r="AR18" s="96"/>
-      <c r="AS18" s="96"/>
-      <c r="AT18" s="96"/>
-      <c r="AU18" s="96"/>
-      <c r="AV18" s="96"/>
-      <c r="AW18" s="96"/>
-      <c r="AX18" s="96"/>
-      <c r="AY18" s="97"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="78"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
+      <c r="W18" s="78"/>
+      <c r="X18" s="78"/>
+      <c r="Y18" s="78"/>
+      <c r="Z18" s="78"/>
+      <c r="AA18" s="78"/>
+      <c r="AB18" s="78"/>
+      <c r="AC18" s="78"/>
+      <c r="AD18" s="78"/>
+      <c r="AE18" s="78"/>
+      <c r="AF18" s="78"/>
+      <c r="AG18" s="78"/>
+      <c r="AH18" s="78"/>
+      <c r="AI18" s="78"/>
+      <c r="AJ18" s="78"/>
+      <c r="AK18" s="78"/>
+      <c r="AL18" s="78"/>
+      <c r="AM18" s="78"/>
+      <c r="AN18" s="78"/>
+      <c r="AO18" s="78"/>
+      <c r="AP18" s="78"/>
+      <c r="AQ18" s="78"/>
+      <c r="AR18" s="78"/>
+      <c r="AS18" s="78"/>
+      <c r="AT18" s="78"/>
+      <c r="AU18" s="78"/>
+      <c r="AV18" s="78"/>
+      <c r="AW18" s="78"/>
+      <c r="AX18" s="78"/>
+      <c r="AY18" s="79"/>
       <c r="AZ18" s="12"/>
     </row>
     <row r="19" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="100"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="98"/>
-      <c r="R19" s="96"/>
-      <c r="S19" s="96"/>
-      <c r="T19" s="96"/>
-      <c r="U19" s="96"/>
-      <c r="V19" s="96"/>
-      <c r="W19" s="96"/>
-      <c r="X19" s="96"/>
-      <c r="Y19" s="96"/>
-      <c r="Z19" s="96"/>
-      <c r="AA19" s="96"/>
-      <c r="AB19" s="96"/>
-      <c r="AC19" s="96"/>
-      <c r="AD19" s="96"/>
-      <c r="AE19" s="96"/>
-      <c r="AF19" s="96"/>
-      <c r="AG19" s="96"/>
-      <c r="AH19" s="96"/>
-      <c r="AI19" s="96"/>
-      <c r="AJ19" s="96"/>
-      <c r="AK19" s="96"/>
-      <c r="AL19" s="96"/>
-      <c r="AM19" s="96"/>
-      <c r="AN19" s="96"/>
-      <c r="AO19" s="96"/>
-      <c r="AP19" s="96"/>
-      <c r="AQ19" s="96"/>
-      <c r="AR19" s="96"/>
-      <c r="AS19" s="96"/>
-      <c r="AT19" s="96"/>
-      <c r="AU19" s="96"/>
-      <c r="AV19" s="96"/>
-      <c r="AW19" s="96"/>
-      <c r="AX19" s="96"/>
-      <c r="AY19" s="97"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="78"/>
+      <c r="T19" s="78"/>
+      <c r="U19" s="78"/>
+      <c r="V19" s="78"/>
+      <c r="W19" s="78"/>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="78"/>
+      <c r="AA19" s="78"/>
+      <c r="AB19" s="78"/>
+      <c r="AC19" s="78"/>
+      <c r="AD19" s="78"/>
+      <c r="AE19" s="78"/>
+      <c r="AF19" s="78"/>
+      <c r="AG19" s="78"/>
+      <c r="AH19" s="78"/>
+      <c r="AI19" s="78"/>
+      <c r="AJ19" s="78"/>
+      <c r="AK19" s="78"/>
+      <c r="AL19" s="78"/>
+      <c r="AM19" s="78"/>
+      <c r="AN19" s="78"/>
+      <c r="AO19" s="78"/>
+      <c r="AP19" s="78"/>
+      <c r="AQ19" s="78"/>
+      <c r="AR19" s="78"/>
+      <c r="AS19" s="78"/>
+      <c r="AT19" s="78"/>
+      <c r="AU19" s="78"/>
+      <c r="AV19" s="78"/>
+      <c r="AW19" s="78"/>
+      <c r="AX19" s="78"/>
+      <c r="AY19" s="79"/>
       <c r="AZ19" s="12"/>
     </row>
     <row r="20" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="100"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="98"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="96"/>
-      <c r="T20" s="96"/>
-      <c r="U20" s="96"/>
-      <c r="V20" s="96"/>
-      <c r="W20" s="96"/>
-      <c r="X20" s="96"/>
-      <c r="Y20" s="96"/>
-      <c r="Z20" s="96"/>
-      <c r="AA20" s="96"/>
-      <c r="AB20" s="96"/>
-      <c r="AC20" s="96"/>
-      <c r="AD20" s="96"/>
-      <c r="AE20" s="96"/>
-      <c r="AF20" s="96"/>
-      <c r="AG20" s="96"/>
-      <c r="AH20" s="96"/>
-      <c r="AI20" s="96"/>
-      <c r="AJ20" s="96"/>
-      <c r="AK20" s="96"/>
-      <c r="AL20" s="96"/>
-      <c r="AM20" s="96"/>
-      <c r="AN20" s="96"/>
-      <c r="AO20" s="96"/>
-      <c r="AP20" s="96"/>
-      <c r="AQ20" s="96"/>
-      <c r="AR20" s="96"/>
-      <c r="AS20" s="96"/>
-      <c r="AT20" s="96"/>
-      <c r="AU20" s="96"/>
-      <c r="AV20" s="96"/>
-      <c r="AW20" s="96"/>
-      <c r="AX20" s="96"/>
-      <c r="AY20" s="97"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="78"/>
+      <c r="AB20" s="78"/>
+      <c r="AC20" s="78"/>
+      <c r="AD20" s="78"/>
+      <c r="AE20" s="78"/>
+      <c r="AF20" s="78"/>
+      <c r="AG20" s="78"/>
+      <c r="AH20" s="78"/>
+      <c r="AI20" s="78"/>
+      <c r="AJ20" s="78"/>
+      <c r="AK20" s="78"/>
+      <c r="AL20" s="78"/>
+      <c r="AM20" s="78"/>
+      <c r="AN20" s="78"/>
+      <c r="AO20" s="78"/>
+      <c r="AP20" s="78"/>
+      <c r="AQ20" s="78"/>
+      <c r="AR20" s="78"/>
+      <c r="AS20" s="78"/>
+      <c r="AT20" s="78"/>
+      <c r="AU20" s="78"/>
+      <c r="AV20" s="78"/>
+      <c r="AW20" s="78"/>
+      <c r="AX20" s="78"/>
+      <c r="AY20" s="79"/>
       <c r="AZ20" s="12"/>
     </row>
     <row r="21" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="98"/>
-      <c r="R21" s="96"/>
-      <c r="S21" s="96"/>
-      <c r="T21" s="96"/>
-      <c r="U21" s="96"/>
-      <c r="V21" s="96"/>
-      <c r="W21" s="96"/>
-      <c r="X21" s="96"/>
-      <c r="Y21" s="96"/>
-      <c r="Z21" s="96"/>
-      <c r="AA21" s="96"/>
-      <c r="AB21" s="96"/>
-      <c r="AC21" s="96"/>
-      <c r="AD21" s="96"/>
-      <c r="AE21" s="96"/>
-      <c r="AF21" s="96"/>
-      <c r="AG21" s="96"/>
-      <c r="AH21" s="96"/>
-      <c r="AI21" s="96"/>
-      <c r="AJ21" s="96"/>
-      <c r="AK21" s="96"/>
-      <c r="AL21" s="96"/>
-      <c r="AM21" s="96"/>
-      <c r="AN21" s="96"/>
-      <c r="AO21" s="96"/>
-      <c r="AP21" s="96"/>
-      <c r="AQ21" s="96"/>
-      <c r="AR21" s="96"/>
-      <c r="AS21" s="96"/>
-      <c r="AT21" s="96"/>
-      <c r="AU21" s="96"/>
-      <c r="AV21" s="96"/>
-      <c r="AW21" s="96"/>
-      <c r="AX21" s="96"/>
-      <c r="AY21" s="97"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="78"/>
+      <c r="S21" s="78"/>
+      <c r="T21" s="78"/>
+      <c r="U21" s="78"/>
+      <c r="V21" s="78"/>
+      <c r="W21" s="78"/>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="78"/>
+      <c r="Z21" s="78"/>
+      <c r="AA21" s="78"/>
+      <c r="AB21" s="78"/>
+      <c r="AC21" s="78"/>
+      <c r="AD21" s="78"/>
+      <c r="AE21" s="78"/>
+      <c r="AF21" s="78"/>
+      <c r="AG21" s="78"/>
+      <c r="AH21" s="78"/>
+      <c r="AI21" s="78"/>
+      <c r="AJ21" s="78"/>
+      <c r="AK21" s="78"/>
+      <c r="AL21" s="78"/>
+      <c r="AM21" s="78"/>
+      <c r="AN21" s="78"/>
+      <c r="AO21" s="78"/>
+      <c r="AP21" s="78"/>
+      <c r="AQ21" s="78"/>
+      <c r="AR21" s="78"/>
+      <c r="AS21" s="78"/>
+      <c r="AT21" s="78"/>
+      <c r="AU21" s="78"/>
+      <c r="AV21" s="78"/>
+      <c r="AW21" s="78"/>
+      <c r="AX21" s="78"/>
+      <c r="AY21" s="79"/>
       <c r="AZ21" s="12"/>
     </row>
     <row r="22" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="100"/>
-      <c r="O22" s="100"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="96"/>
-      <c r="S22" s="96"/>
-      <c r="T22" s="96"/>
-      <c r="U22" s="96"/>
-      <c r="V22" s="96"/>
-      <c r="W22" s="96"/>
-      <c r="X22" s="96"/>
-      <c r="Y22" s="96"/>
-      <c r="Z22" s="96"/>
-      <c r="AA22" s="96"/>
-      <c r="AB22" s="96"/>
-      <c r="AC22" s="96"/>
-      <c r="AD22" s="96"/>
-      <c r="AE22" s="96"/>
-      <c r="AF22" s="96"/>
-      <c r="AG22" s="96"/>
-      <c r="AH22" s="96"/>
-      <c r="AI22" s="96"/>
-      <c r="AJ22" s="96"/>
-      <c r="AK22" s="96"/>
-      <c r="AL22" s="96"/>
-      <c r="AM22" s="96"/>
-      <c r="AN22" s="96"/>
-      <c r="AO22" s="96"/>
-      <c r="AP22" s="96"/>
-      <c r="AQ22" s="96"/>
-      <c r="AR22" s="96"/>
-      <c r="AS22" s="96"/>
-      <c r="AT22" s="96"/>
-      <c r="AU22" s="96"/>
-      <c r="AV22" s="96"/>
-      <c r="AW22" s="96"/>
-      <c r="AX22" s="96"/>
-      <c r="AY22" s="97"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="78"/>
+      <c r="S22" s="78"/>
+      <c r="T22" s="78"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="78"/>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="78"/>
+      <c r="Z22" s="78"/>
+      <c r="AA22" s="78"/>
+      <c r="AB22" s="78"/>
+      <c r="AC22" s="78"/>
+      <c r="AD22" s="78"/>
+      <c r="AE22" s="78"/>
+      <c r="AF22" s="78"/>
+      <c r="AG22" s="78"/>
+      <c r="AH22" s="78"/>
+      <c r="AI22" s="78"/>
+      <c r="AJ22" s="78"/>
+      <c r="AK22" s="78"/>
+      <c r="AL22" s="78"/>
+      <c r="AM22" s="78"/>
+      <c r="AN22" s="78"/>
+      <c r="AO22" s="78"/>
+      <c r="AP22" s="78"/>
+      <c r="AQ22" s="78"/>
+      <c r="AR22" s="78"/>
+      <c r="AS22" s="78"/>
+      <c r="AT22" s="78"/>
+      <c r="AU22" s="78"/>
+      <c r="AV22" s="78"/>
+      <c r="AW22" s="78"/>
+      <c r="AX22" s="78"/>
+      <c r="AY22" s="79"/>
       <c r="AZ22" s="12"/>
     </row>
     <row r="23" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="98"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="96"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="96"/>
-      <c r="V23" s="96"/>
-      <c r="W23" s="96"/>
-      <c r="X23" s="96"/>
-      <c r="Y23" s="96"/>
-      <c r="Z23" s="96"/>
-      <c r="AA23" s="96"/>
-      <c r="AB23" s="96"/>
-      <c r="AC23" s="96"/>
-      <c r="AD23" s="96"/>
-      <c r="AE23" s="96"/>
-      <c r="AF23" s="96"/>
-      <c r="AG23" s="96"/>
-      <c r="AH23" s="96"/>
-      <c r="AI23" s="96"/>
-      <c r="AJ23" s="96"/>
-      <c r="AK23" s="96"/>
-      <c r="AL23" s="96"/>
-      <c r="AM23" s="96"/>
-      <c r="AN23" s="96"/>
-      <c r="AO23" s="96"/>
-      <c r="AP23" s="96"/>
-      <c r="AQ23" s="96"/>
-      <c r="AR23" s="96"/>
-      <c r="AS23" s="96"/>
-      <c r="AT23" s="96"/>
-      <c r="AU23" s="96"/>
-      <c r="AV23" s="96"/>
-      <c r="AW23" s="96"/>
-      <c r="AX23" s="96"/>
-      <c r="AY23" s="97"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="78"/>
+      <c r="S23" s="78"/>
+      <c r="T23" s="78"/>
+      <c r="U23" s="78"/>
+      <c r="V23" s="78"/>
+      <c r="W23" s="78"/>
+      <c r="X23" s="78"/>
+      <c r="Y23" s="78"/>
+      <c r="Z23" s="78"/>
+      <c r="AA23" s="78"/>
+      <c r="AB23" s="78"/>
+      <c r="AC23" s="78"/>
+      <c r="AD23" s="78"/>
+      <c r="AE23" s="78"/>
+      <c r="AF23" s="78"/>
+      <c r="AG23" s="78"/>
+      <c r="AH23" s="78"/>
+      <c r="AI23" s="78"/>
+      <c r="AJ23" s="78"/>
+      <c r="AK23" s="78"/>
+      <c r="AL23" s="78"/>
+      <c r="AM23" s="78"/>
+      <c r="AN23" s="78"/>
+      <c r="AO23" s="78"/>
+      <c r="AP23" s="78"/>
+      <c r="AQ23" s="78"/>
+      <c r="AR23" s="78"/>
+      <c r="AS23" s="78"/>
+      <c r="AT23" s="78"/>
+      <c r="AU23" s="78"/>
+      <c r="AV23" s="78"/>
+      <c r="AW23" s="78"/>
+      <c r="AX23" s="78"/>
+      <c r="AY23" s="79"/>
       <c r="AZ23" s="12"/>
     </row>
     <row r="24" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="98"/>
-      <c r="R24" s="96"/>
-      <c r="S24" s="96"/>
-      <c r="T24" s="96"/>
-      <c r="U24" s="96"/>
-      <c r="V24" s="96"/>
-      <c r="W24" s="96"/>
-      <c r="X24" s="96"/>
-      <c r="Y24" s="96"/>
-      <c r="Z24" s="96"/>
-      <c r="AA24" s="96"/>
-      <c r="AB24" s="96"/>
-      <c r="AC24" s="96"/>
-      <c r="AD24" s="96"/>
-      <c r="AE24" s="96"/>
-      <c r="AF24" s="96"/>
-      <c r="AG24" s="96"/>
-      <c r="AH24" s="96"/>
-      <c r="AI24" s="96"/>
-      <c r="AJ24" s="96"/>
-      <c r="AK24" s="96"/>
-      <c r="AL24" s="96"/>
-      <c r="AM24" s="96"/>
-      <c r="AN24" s="96"/>
-      <c r="AO24" s="96"/>
-      <c r="AP24" s="96"/>
-      <c r="AQ24" s="96"/>
-      <c r="AR24" s="96"/>
-      <c r="AS24" s="96"/>
-      <c r="AT24" s="96"/>
-      <c r="AU24" s="96"/>
-      <c r="AV24" s="96"/>
-      <c r="AW24" s="96"/>
-      <c r="AX24" s="96"/>
-      <c r="AY24" s="97"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="78"/>
+      <c r="S24" s="78"/>
+      <c r="T24" s="78"/>
+      <c r="U24" s="78"/>
+      <c r="V24" s="78"/>
+      <c r="W24" s="78"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="78"/>
+      <c r="Z24" s="78"/>
+      <c r="AA24" s="78"/>
+      <c r="AB24" s="78"/>
+      <c r="AC24" s="78"/>
+      <c r="AD24" s="78"/>
+      <c r="AE24" s="78"/>
+      <c r="AF24" s="78"/>
+      <c r="AG24" s="78"/>
+      <c r="AH24" s="78"/>
+      <c r="AI24" s="78"/>
+      <c r="AJ24" s="78"/>
+      <c r="AK24" s="78"/>
+      <c r="AL24" s="78"/>
+      <c r="AM24" s="78"/>
+      <c r="AN24" s="78"/>
+      <c r="AO24" s="78"/>
+      <c r="AP24" s="78"/>
+      <c r="AQ24" s="78"/>
+      <c r="AR24" s="78"/>
+      <c r="AS24" s="78"/>
+      <c r="AT24" s="78"/>
+      <c r="AU24" s="78"/>
+      <c r="AV24" s="78"/>
+      <c r="AW24" s="78"/>
+      <c r="AX24" s="78"/>
+      <c r="AY24" s="79"/>
       <c r="AZ24" s="12"/>
     </row>
     <row r="25" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="100"/>
-      <c r="O25" s="100"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="98"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="96"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="96"/>
-      <c r="X25" s="96"/>
-      <c r="Y25" s="96"/>
-      <c r="Z25" s="96"/>
-      <c r="AA25" s="96"/>
-      <c r="AB25" s="96"/>
-      <c r="AC25" s="96"/>
-      <c r="AD25" s="96"/>
-      <c r="AE25" s="96"/>
-      <c r="AF25" s="96"/>
-      <c r="AG25" s="96"/>
-      <c r="AH25" s="96"/>
-      <c r="AI25" s="96"/>
-      <c r="AJ25" s="96"/>
-      <c r="AK25" s="96"/>
-      <c r="AL25" s="96"/>
-      <c r="AM25" s="96"/>
-      <c r="AN25" s="96"/>
-      <c r="AO25" s="96"/>
-      <c r="AP25" s="96"/>
-      <c r="AQ25" s="96"/>
-      <c r="AR25" s="96"/>
-      <c r="AS25" s="96"/>
-      <c r="AT25" s="96"/>
-      <c r="AU25" s="96"/>
-      <c r="AV25" s="96"/>
-      <c r="AW25" s="96"/>
-      <c r="AX25" s="96"/>
-      <c r="AY25" s="97"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="78"/>
+      <c r="S25" s="78"/>
+      <c r="T25" s="78"/>
+      <c r="U25" s="78"/>
+      <c r="V25" s="78"/>
+      <c r="W25" s="78"/>
+      <c r="X25" s="78"/>
+      <c r="Y25" s="78"/>
+      <c r="Z25" s="78"/>
+      <c r="AA25" s="78"/>
+      <c r="AB25" s="78"/>
+      <c r="AC25" s="78"/>
+      <c r="AD25" s="78"/>
+      <c r="AE25" s="78"/>
+      <c r="AF25" s="78"/>
+      <c r="AG25" s="78"/>
+      <c r="AH25" s="78"/>
+      <c r="AI25" s="78"/>
+      <c r="AJ25" s="78"/>
+      <c r="AK25" s="78"/>
+      <c r="AL25" s="78"/>
+      <c r="AM25" s="78"/>
+      <c r="AN25" s="78"/>
+      <c r="AO25" s="78"/>
+      <c r="AP25" s="78"/>
+      <c r="AQ25" s="78"/>
+      <c r="AR25" s="78"/>
+      <c r="AS25" s="78"/>
+      <c r="AT25" s="78"/>
+      <c r="AU25" s="78"/>
+      <c r="AV25" s="78"/>
+      <c r="AW25" s="78"/>
+      <c r="AX25" s="78"/>
+      <c r="AY25" s="79"/>
       <c r="AZ25" s="12"/>
     </row>
     <row r="26" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9"/>
-      <c r="B26" s="102"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="108"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
-      <c r="O26" s="109"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="111"/>
-      <c r="R26" s="112"/>
-      <c r="S26" s="112"/>
-      <c r="T26" s="112"/>
-      <c r="U26" s="112"/>
-      <c r="V26" s="112"/>
-      <c r="W26" s="112"/>
-      <c r="X26" s="112"/>
-      <c r="Y26" s="112"/>
-      <c r="Z26" s="112"/>
-      <c r="AA26" s="112"/>
-      <c r="AB26" s="112"/>
-      <c r="AC26" s="112"/>
-      <c r="AD26" s="112"/>
-      <c r="AE26" s="112"/>
-      <c r="AF26" s="112"/>
-      <c r="AG26" s="112"/>
-      <c r="AH26" s="112"/>
-      <c r="AI26" s="112"/>
-      <c r="AJ26" s="112"/>
-      <c r="AK26" s="112"/>
-      <c r="AL26" s="112"/>
-      <c r="AM26" s="112"/>
-      <c r="AN26" s="112"/>
-      <c r="AO26" s="112"/>
-      <c r="AP26" s="112"/>
-      <c r="AQ26" s="112"/>
-      <c r="AR26" s="112"/>
-      <c r="AS26" s="112"/>
-      <c r="AT26" s="112"/>
-      <c r="AU26" s="112"/>
-      <c r="AV26" s="112"/>
-      <c r="AW26" s="112"/>
-      <c r="AX26" s="112"/>
-      <c r="AY26" s="113"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="66"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="66"/>
+      <c r="AB26" s="66"/>
+      <c r="AC26" s="66"/>
+      <c r="AD26" s="66"/>
+      <c r="AE26" s="66"/>
+      <c r="AF26" s="66"/>
+      <c r="AG26" s="66"/>
+      <c r="AH26" s="66"/>
+      <c r="AI26" s="66"/>
+      <c r="AJ26" s="66"/>
+      <c r="AK26" s="66"/>
+      <c r="AL26" s="66"/>
+      <c r="AM26" s="66"/>
+      <c r="AN26" s="66"/>
+      <c r="AO26" s="66"/>
+      <c r="AP26" s="66"/>
+      <c r="AQ26" s="66"/>
+      <c r="AR26" s="66"/>
+      <c r="AS26" s="66"/>
+      <c r="AT26" s="66"/>
+      <c r="AU26" s="66"/>
+      <c r="AV26" s="66"/>
+      <c r="AW26" s="66"/>
+      <c r="AX26" s="66"/>
+      <c r="AY26" s="67"/>
       <c r="AZ26" s="13"/>
     </row>
     <row r="27" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3650,6 +3650,91 @@
     </row>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:AF1"/>
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="AM1:AR1"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:AF2"/>
+    <mergeCell ref="AG2:AL3"/>
+    <mergeCell ref="AM2:AR3"/>
+    <mergeCell ref="AS2:AW3"/>
+    <mergeCell ref="AX2:AZ3"/>
+    <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="Q7:AY7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="Q8:AY8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="Q9:AY9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="Q10:AY10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="Q11:AY11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="Q12:AY12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:AY13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="Q14:AY14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="Q15:AY15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="Q16:AY16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="Q17:AY17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="Q18:AY18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="Q19:AY19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="K20:P20"/>
+    <mergeCell ref="Q20:AY20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="Q21:AY21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="K22:P22"/>
+    <mergeCell ref="Q22:AY22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="Q23:AY23"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:J26"/>
     <mergeCell ref="K26:P26"/>
@@ -3662,91 +3747,6 @@
     <mergeCell ref="E25:J25"/>
     <mergeCell ref="K25:P25"/>
     <mergeCell ref="Q25:AY25"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="K22:P22"/>
-    <mergeCell ref="Q22:AY22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="Q23:AY23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="K20:P20"/>
-    <mergeCell ref="Q20:AY20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="Q21:AY21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="Q18:AY18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="Q19:AY19"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="Q16:AY16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="Q17:AY17"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="Q14:AY14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="Q15:AY15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="Q12:AY12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:AY13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="Q10:AY10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="Q11:AY11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="Q8:AY8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="K9:P9"/>
-    <mergeCell ref="Q9:AY9"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="Q7:AY7"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="AG2:AL3"/>
-    <mergeCell ref="AM2:AR3"/>
-    <mergeCell ref="AS2:AW3"/>
-    <mergeCell ref="AX2:AZ3"/>
-    <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:AF1"/>
-    <mergeCell ref="AG1:AL1"/>
-    <mergeCell ref="AM1:AR1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -3778,201 +3778,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="str">
+      <c r="A1" s="111" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>用語一覧</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="58" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="59" t="str">
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="115" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="58" t="s">
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="115"/>
+      <c r="AB1" s="115"/>
+      <c r="AC1" s="115"/>
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="115"/>
+      <c r="AF1" s="115"/>
+      <c r="AG1" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58" t="s">
+      <c r="AH1" s="100"/>
+      <c r="AI1" s="100"/>
+      <c r="AJ1" s="100"/>
+      <c r="AK1" s="100"/>
+      <c r="AL1" s="100"/>
+      <c r="AM1" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58" t="s">
+      <c r="AN1" s="100"/>
+      <c r="AO1" s="100"/>
+      <c r="AP1" s="100"/>
+      <c r="AQ1" s="100"/>
+      <c r="AR1" s="100"/>
+      <c r="AS1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58" t="s">
+      <c r="AT1" s="100"/>
+      <c r="AU1" s="100"/>
+      <c r="AV1" s="100"/>
+      <c r="AW1" s="100"/>
+      <c r="AX1" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="114"/>
+      <c r="AY1" s="100"/>
+      <c r="AZ1" s="116"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="61" t="s">
+      <c r="A2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="62" t="str">
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="103" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="63">
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="103"/>
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="103"/>
+      <c r="AC2" s="103"/>
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="103"/>
+      <c r="AF2" s="103"/>
+      <c r="AG2" s="104">
         <v>42619</v>
       </c>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="65" t="s">
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="AN2" s="62"/>
-      <c r="AO2" s="62"/>
-      <c r="AP2" s="62"/>
-      <c r="AQ2" s="62"/>
-      <c r="AR2" s="62"/>
-      <c r="AS2" s="67"/>
-      <c r="AT2" s="67"/>
-      <c r="AU2" s="67"/>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="62"/>
-      <c r="AY2" s="62"/>
-      <c r="AZ2" s="69"/>
+      <c r="AN2" s="103"/>
+      <c r="AO2" s="103"/>
+      <c r="AP2" s="103"/>
+      <c r="AQ2" s="103"/>
+      <c r="AR2" s="103"/>
+      <c r="AS2" s="107"/>
+      <c r="AT2" s="107"/>
+      <c r="AU2" s="107"/>
+      <c r="AV2" s="107"/>
+      <c r="AW2" s="107"/>
+      <c r="AX2" s="103"/>
+      <c r="AY2" s="103"/>
+      <c r="AZ2" s="109"/>
     </row>
     <row r="3" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="66" t="str">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="93" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="72" t="s">
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="66" t="str">
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="93" t="str">
         <f>設定情報!$C$5</f>
         <v>用語一覧</v>
       </c>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="66"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="68"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="66"/>
-      <c r="AZ3" s="70"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="93"/>
+      <c r="AF3" s="93"/>
+      <c r="AG3" s="105"/>
+      <c r="AH3" s="105"/>
+      <c r="AI3" s="105"/>
+      <c r="AJ3" s="105"/>
+      <c r="AK3" s="105"/>
+      <c r="AL3" s="105"/>
+      <c r="AM3" s="93"/>
+      <c r="AN3" s="93"/>
+      <c r="AO3" s="93"/>
+      <c r="AP3" s="93"/>
+      <c r="AQ3" s="93"/>
+      <c r="AR3" s="93"/>
+      <c r="AS3" s="108"/>
+      <c r="AT3" s="108"/>
+      <c r="AU3" s="108"/>
+      <c r="AV3" s="108"/>
+      <c r="AW3" s="108"/>
+      <c r="AX3" s="93"/>
+      <c r="AY3" s="93"/>
+      <c r="AZ3" s="110"/>
     </row>
     <row r="4" spans="1:52" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="53" t="s">
@@ -5223,15 +5223,15 @@
         <f ca="1">IF(B25="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>11</v>
       </c>
-      <c r="B25" s="116" t="s">
-        <v>140</v>
+      <c r="B25" s="55" t="s">
+        <v>136</v>
       </c>
       <c r="C25" s="41"/>
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
-      <c r="G25" s="115" t="s">
-        <v>141</v>
+      <c r="G25" s="54" t="s">
+        <v>137</v>
       </c>
       <c r="H25" s="41"/>
       <c r="I25" s="41"/>
@@ -5291,8 +5291,8 @@
       <c r="D26" s="42"/>
       <c r="E26" s="42"/>
       <c r="F26" s="42"/>
-      <c r="G26" s="115" t="s">
-        <v>133</v>
+      <c r="G26" s="54" t="s">
+        <v>132</v>
       </c>
       <c r="H26" s="41"/>
       <c r="I26" s="41"/>
@@ -5955,15 +5955,15 @@
         <f ca="1">IF(B37="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>23</v>
       </c>
-      <c r="B37" s="115" t="s">
+      <c r="B37" s="54" t="s">
         <v>131</v>
       </c>
       <c r="C37" s="41"/>
       <c r="D37" s="41"/>
       <c r="E37" s="41"/>
       <c r="F37" s="41"/>
-      <c r="G37" s="115" t="s">
-        <v>132</v>
+      <c r="G37" s="54" t="s">
+        <v>138</v>
       </c>
       <c r="H37" s="45"/>
       <c r="I37" s="45"/>
@@ -6016,15 +6016,15 @@
         <f ca="1">IF(B38="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>24</v>
       </c>
-      <c r="B38" s="115" t="s">
-        <v>134</v>
+      <c r="B38" s="54" t="s">
+        <v>133</v>
       </c>
       <c r="C38" s="41"/>
       <c r="D38" s="41"/>
       <c r="E38" s="41"/>
       <c r="F38" s="41"/>
-      <c r="G38" s="115" t="s">
-        <v>136</v>
+      <c r="G38" s="54" t="s">
+        <v>139</v>
       </c>
       <c r="H38" s="45"/>
       <c r="I38" s="45"/>
@@ -6077,15 +6077,15 @@
         <f ca="1">IF(B39="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>25</v>
       </c>
-      <c r="B39" s="115" t="s">
-        <v>135</v>
+      <c r="B39" s="54" t="s">
+        <v>134</v>
       </c>
       <c r="C39" s="41"/>
       <c r="D39" s="41"/>
       <c r="E39" s="41"/>
       <c r="F39" s="41"/>
-      <c r="G39" s="115" t="s">
-        <v>137</v>
+      <c r="G39" s="54" t="s">
+        <v>140</v>
       </c>
       <c r="H39" s="45"/>
       <c r="I39" s="45"/>
@@ -6138,15 +6138,15 @@
         <f ca="1">IF(B40="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>26</v>
       </c>
-      <c r="B40" s="115" t="s">
-        <v>139</v>
+      <c r="B40" s="54" t="s">
+        <v>135</v>
       </c>
       <c r="C40" s="41"/>
       <c r="D40" s="41"/>
       <c r="E40" s="41"/>
       <c r="F40" s="41"/>
-      <c r="G40" s="115" t="s">
-        <v>138</v>
+      <c r="G40" s="54" t="s">
+        <v>141</v>
       </c>
       <c r="H40" s="45"/>
       <c r="I40" s="45"/>
@@ -9363,6 +9363,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="A1:M2"/>
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="S2:AF2"/>
@@ -9375,11 +9380,6 @@
     <mergeCell ref="AG1:AL1"/>
     <mergeCell ref="AM1:AR1"/>
     <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>

--- a/設計書/01_基本設計（外部設計）/用語一覧.xlsx
+++ b/設計書/01_基本設計（外部設計）/用語一覧.xlsx
@@ -14,22 +14,22 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">改訂履歴!$A$1:$AZ$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">設定情報!$A$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">用語一覧!$A$1:$AZ$93</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">用語一覧!$A$1:$AZ$94</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">改訂履歴!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">用語一覧!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="fst_yamashita - 個人用ビュー" guid="{342C0241-18BB-4D06-A724-8A5C681CA42A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="634" activeSheetId="1"/>
+    <customWorkbookView name="fst_nakagawa - 個人用ビュー" guid="{709F5761-167F-4C29-8B56-C1102579D2A5}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="709" activeSheetId="2"/>
+    <customWorkbookView name="fst_oono - 個人用ビュー" guid="{5C90FFEC-6F86-4010-B93C-252309794A08}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1527" windowHeight="650" activeSheetId="2"/>
     <customWorkbookView name="FST.Noguchi - 個人用ビュー" guid="{5D7CE7C0-1A07-4E70-816B-B9F27EFCFB34}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="670" activeSheetId="1"/>
-    <customWorkbookView name="fst_oono - 個人用ビュー" guid="{5C90FFEC-6F86-4010-B93C-252309794A08}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1527" windowHeight="650" activeSheetId="2"/>
-    <customWorkbookView name="fst_nakagawa - 個人用ビュー" guid="{709F5761-167F-4C29-8B56-C1102579D2A5}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="709" activeSheetId="2"/>
-    <customWorkbookView name="fst_yamashita - 個人用ビュー" guid="{342C0241-18BB-4D06-A724-8A5C681CA42A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1596" windowHeight="634" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="144">
   <si>
     <t>承認</t>
     <rPh sb="0" eb="2">
@@ -596,6 +596,17 @@
   </si>
   <si>
     <t>department_rnm</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一括</t>
+    <rPh sb="0" eb="2">
+      <t>イッカツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bulk</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1442,6 +1453,150 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="3" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1477,150 +1632,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2084,201 +2095,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="111" t="str">
+      <c r="A1" s="56" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改訂履歴</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="100" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="115" t="str">
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="61" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="115"/>
-      <c r="AB1" s="115"/>
-      <c r="AC1" s="115"/>
-      <c r="AD1" s="115"/>
-      <c r="AE1" s="115"/>
-      <c r="AF1" s="115"/>
-      <c r="AG1" s="100" t="s">
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="100"/>
-      <c r="AJ1" s="100"/>
-      <c r="AK1" s="100"/>
-      <c r="AL1" s="100"/>
-      <c r="AM1" s="100" t="s">
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="AN1" s="100"/>
-      <c r="AO1" s="100"/>
-      <c r="AP1" s="100"/>
-      <c r="AQ1" s="100"/>
-      <c r="AR1" s="100"/>
-      <c r="AS1" s="100" t="s">
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="AT1" s="100"/>
-      <c r="AU1" s="100"/>
-      <c r="AV1" s="100"/>
-      <c r="AW1" s="100"/>
-      <c r="AX1" s="100" t="s">
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AY1" s="100"/>
-      <c r="AZ1" s="101"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="62"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="113"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="102" t="s">
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="103" t="str">
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="64" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="103"/>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="103"/>
-      <c r="AF2" s="103"/>
-      <c r="AG2" s="104">
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="65">
         <v>42619</v>
       </c>
-      <c r="AH2" s="104"/>
-      <c r="AI2" s="104"/>
-      <c r="AJ2" s="104"/>
-      <c r="AK2" s="104"/>
-      <c r="AL2" s="104"/>
-      <c r="AM2" s="106" t="s">
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="AN2" s="103"/>
-      <c r="AO2" s="103"/>
-      <c r="AP2" s="103"/>
-      <c r="AQ2" s="103"/>
-      <c r="AR2" s="103"/>
-      <c r="AS2" s="107"/>
-      <c r="AT2" s="107"/>
-      <c r="AU2" s="107"/>
-      <c r="AV2" s="107"/>
-      <c r="AW2" s="107"/>
-      <c r="AX2" s="103"/>
-      <c r="AY2" s="103"/>
-      <c r="AZ2" s="109"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="64"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="64"/>
+      <c r="AZ2" s="71"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93" t="str">
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="68" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="92" t="s">
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="93" t="str">
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="68" t="str">
         <f>設定情報!$C$5</f>
         <v>用語一覧</v>
       </c>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="93"/>
-      <c r="AE3" s="93"/>
-      <c r="AF3" s="93"/>
-      <c r="AG3" s="105"/>
-      <c r="AH3" s="105"/>
-      <c r="AI3" s="105"/>
-      <c r="AJ3" s="105"/>
-      <c r="AK3" s="105"/>
-      <c r="AL3" s="105"/>
-      <c r="AM3" s="93"/>
-      <c r="AN3" s="93"/>
-      <c r="AO3" s="93"/>
-      <c r="AP3" s="93"/>
-      <c r="AQ3" s="93"/>
-      <c r="AR3" s="93"/>
-      <c r="AS3" s="108"/>
-      <c r="AT3" s="108"/>
-      <c r="AU3" s="108"/>
-      <c r="AV3" s="108"/>
-      <c r="AW3" s="108"/>
-      <c r="AX3" s="93"/>
-      <c r="AY3" s="93"/>
-      <c r="AZ3" s="110"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="68"/>
+      <c r="AQ3" s="68"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="70"/>
+      <c r="AT3" s="70"/>
+      <c r="AU3" s="70"/>
+      <c r="AV3" s="70"/>
+      <c r="AW3" s="70"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="72"/>
     </row>
     <row r="4" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
@@ -2446,1098 +2457,1098 @@
     </row>
     <row r="7" spans="1:52" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="97" t="s">
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="94" t="s">
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="94" t="s">
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="95"/>
-      <c r="S7" s="95"/>
-      <c r="T7" s="95"/>
-      <c r="U7" s="95"/>
-      <c r="V7" s="95"/>
-      <c r="W7" s="95"/>
-      <c r="X7" s="95"/>
-      <c r="Y7" s="95"/>
-      <c r="Z7" s="95"/>
-      <c r="AA7" s="95"/>
-      <c r="AB7" s="95"/>
-      <c r="AC7" s="95"/>
-      <c r="AD7" s="95"/>
-      <c r="AE7" s="95"/>
-      <c r="AF7" s="95"/>
-      <c r="AG7" s="95"/>
-      <c r="AH7" s="95"/>
-      <c r="AI7" s="95"/>
-      <c r="AJ7" s="95"/>
-      <c r="AK7" s="95"/>
-      <c r="AL7" s="95"/>
-      <c r="AM7" s="95"/>
-      <c r="AN7" s="95"/>
-      <c r="AO7" s="95"/>
-      <c r="AP7" s="95"/>
-      <c r="AQ7" s="95"/>
-      <c r="AR7" s="95"/>
-      <c r="AS7" s="95"/>
-      <c r="AT7" s="95"/>
-      <c r="AU7" s="95"/>
-      <c r="AV7" s="95"/>
-      <c r="AW7" s="95"/>
-      <c r="AX7" s="95"/>
-      <c r="AY7" s="96"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="76"/>
+      <c r="U7" s="76"/>
+      <c r="V7" s="76"/>
+      <c r="W7" s="76"/>
+      <c r="X7" s="76"/>
+      <c r="Y7" s="76"/>
+      <c r="Z7" s="76"/>
+      <c r="AA7" s="76"/>
+      <c r="AB7" s="76"/>
+      <c r="AC7" s="76"/>
+      <c r="AD7" s="76"/>
+      <c r="AE7" s="76"/>
+      <c r="AF7" s="76"/>
+      <c r="AG7" s="76"/>
+      <c r="AH7" s="76"/>
+      <c r="AI7" s="76"/>
+      <c r="AJ7" s="76"/>
+      <c r="AK7" s="76"/>
+      <c r="AL7" s="76"/>
+      <c r="AM7" s="76"/>
+      <c r="AN7" s="76"/>
+      <c r="AO7" s="76"/>
+      <c r="AP7" s="76"/>
+      <c r="AQ7" s="76"/>
+      <c r="AR7" s="76"/>
+      <c r="AS7" s="76"/>
+      <c r="AT7" s="76"/>
+      <c r="AU7" s="76"/>
+      <c r="AV7" s="76"/>
+      <c r="AW7" s="76"/>
+      <c r="AX7" s="76"/>
+      <c r="AY7" s="77"/>
       <c r="AZ7" s="11"/>
     </row>
     <row r="8" spans="1:52" s="8" customFormat="1" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="87"/>
-      <c r="Z8" s="87"/>
-      <c r="AA8" s="87"/>
-      <c r="AB8" s="87"/>
-      <c r="AC8" s="87"/>
-      <c r="AD8" s="87"/>
-      <c r="AE8" s="87"/>
-      <c r="AF8" s="87"/>
-      <c r="AG8" s="87"/>
-      <c r="AH8" s="87"/>
-      <c r="AI8" s="87"/>
-      <c r="AJ8" s="87"/>
-      <c r="AK8" s="87"/>
-      <c r="AL8" s="87"/>
-      <c r="AM8" s="87"/>
-      <c r="AN8" s="87"/>
-      <c r="AO8" s="87"/>
-      <c r="AP8" s="87"/>
-      <c r="AQ8" s="87"/>
-      <c r="AR8" s="87"/>
-      <c r="AS8" s="87"/>
-      <c r="AT8" s="87"/>
-      <c r="AU8" s="87"/>
-      <c r="AV8" s="87"/>
-      <c r="AW8" s="87"/>
-      <c r="AX8" s="87"/>
-      <c r="AY8" s="88"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="88"/>
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="88"/>
+      <c r="AA8" s="88"/>
+      <c r="AB8" s="88"/>
+      <c r="AC8" s="88"/>
+      <c r="AD8" s="88"/>
+      <c r="AE8" s="88"/>
+      <c r="AF8" s="88"/>
+      <c r="AG8" s="88"/>
+      <c r="AH8" s="88"/>
+      <c r="AI8" s="88"/>
+      <c r="AJ8" s="88"/>
+      <c r="AK8" s="88"/>
+      <c r="AL8" s="88"/>
+      <c r="AM8" s="88"/>
+      <c r="AN8" s="88"/>
+      <c r="AO8" s="88"/>
+      <c r="AP8" s="88"/>
+      <c r="AQ8" s="88"/>
+      <c r="AR8" s="88"/>
+      <c r="AS8" s="88"/>
+      <c r="AT8" s="88"/>
+      <c r="AU8" s="88"/>
+      <c r="AV8" s="88"/>
+      <c r="AW8" s="88"/>
+      <c r="AX8" s="88"/>
+      <c r="AY8" s="89"/>
       <c r="AZ8" s="12"/>
     </row>
     <row r="9" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
-      <c r="B9" s="68">
+      <c r="B9" s="91">
         <v>1</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="71">
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="94">
         <v>42619</v>
       </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="90" t="s">
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="77" t="s">
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="R9" s="78"/>
-      <c r="S9" s="78"/>
-      <c r="T9" s="78"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="78"/>
-      <c r="W9" s="78"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="78"/>
-      <c r="Z9" s="78"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="78"/>
-      <c r="AC9" s="78"/>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="78"/>
-      <c r="AF9" s="78"/>
-      <c r="AG9" s="78"/>
-      <c r="AH9" s="78"/>
-      <c r="AI9" s="78"/>
-      <c r="AJ9" s="78"/>
-      <c r="AK9" s="78"/>
-      <c r="AL9" s="78"/>
-      <c r="AM9" s="78"/>
-      <c r="AN9" s="78"/>
-      <c r="AO9" s="78"/>
-      <c r="AP9" s="78"/>
-      <c r="AQ9" s="78"/>
-      <c r="AR9" s="78"/>
-      <c r="AS9" s="78"/>
-      <c r="AT9" s="78"/>
-      <c r="AU9" s="78"/>
-      <c r="AV9" s="78"/>
-      <c r="AW9" s="78"/>
-      <c r="AX9" s="78"/>
-      <c r="AY9" s="79"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="98"/>
+      <c r="AC9" s="98"/>
+      <c r="AD9" s="98"/>
+      <c r="AE9" s="98"/>
+      <c r="AF9" s="98"/>
+      <c r="AG9" s="98"/>
+      <c r="AH9" s="98"/>
+      <c r="AI9" s="98"/>
+      <c r="AJ9" s="98"/>
+      <c r="AK9" s="98"/>
+      <c r="AL9" s="98"/>
+      <c r="AM9" s="98"/>
+      <c r="AN9" s="98"/>
+      <c r="AO9" s="98"/>
+      <c r="AP9" s="98"/>
+      <c r="AQ9" s="98"/>
+      <c r="AR9" s="98"/>
+      <c r="AS9" s="98"/>
+      <c r="AT9" s="98"/>
+      <c r="AU9" s="98"/>
+      <c r="AV9" s="98"/>
+      <c r="AW9" s="98"/>
+      <c r="AX9" s="98"/>
+      <c r="AY9" s="99"/>
       <c r="AZ9" s="12"/>
     </row>
     <row r="10" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="78"/>
-      <c r="AA10" s="78"/>
-      <c r="AB10" s="78"/>
-      <c r="AC10" s="78"/>
-      <c r="AD10" s="78"/>
-      <c r="AE10" s="78"/>
-      <c r="AF10" s="78"/>
-      <c r="AG10" s="78"/>
-      <c r="AH10" s="78"/>
-      <c r="AI10" s="78"/>
-      <c r="AJ10" s="78"/>
-      <c r="AK10" s="78"/>
-      <c r="AL10" s="78"/>
-      <c r="AM10" s="78"/>
-      <c r="AN10" s="78"/>
-      <c r="AO10" s="78"/>
-      <c r="AP10" s="78"/>
-      <c r="AQ10" s="78"/>
-      <c r="AR10" s="78"/>
-      <c r="AS10" s="78"/>
-      <c r="AT10" s="78"/>
-      <c r="AU10" s="78"/>
-      <c r="AV10" s="78"/>
-      <c r="AW10" s="78"/>
-      <c r="AX10" s="78"/>
-      <c r="AY10" s="79"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="98"/>
+      <c r="AB10" s="98"/>
+      <c r="AC10" s="98"/>
+      <c r="AD10" s="98"/>
+      <c r="AE10" s="98"/>
+      <c r="AF10" s="98"/>
+      <c r="AG10" s="98"/>
+      <c r="AH10" s="98"/>
+      <c r="AI10" s="98"/>
+      <c r="AJ10" s="98"/>
+      <c r="AK10" s="98"/>
+      <c r="AL10" s="98"/>
+      <c r="AM10" s="98"/>
+      <c r="AN10" s="98"/>
+      <c r="AO10" s="98"/>
+      <c r="AP10" s="98"/>
+      <c r="AQ10" s="98"/>
+      <c r="AR10" s="98"/>
+      <c r="AS10" s="98"/>
+      <c r="AT10" s="98"/>
+      <c r="AU10" s="98"/>
+      <c r="AV10" s="98"/>
+      <c r="AW10" s="98"/>
+      <c r="AX10" s="98"/>
+      <c r="AY10" s="99"/>
       <c r="AZ10" s="12"/>
     </row>
     <row r="11" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="78"/>
-      <c r="W11" s="78"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="78"/>
-      <c r="AE11" s="78"/>
-      <c r="AF11" s="78"/>
-      <c r="AG11" s="78"/>
-      <c r="AH11" s="78"/>
-      <c r="AI11" s="78"/>
-      <c r="AJ11" s="78"/>
-      <c r="AK11" s="78"/>
-      <c r="AL11" s="78"/>
-      <c r="AM11" s="78"/>
-      <c r="AN11" s="78"/>
-      <c r="AO11" s="78"/>
-      <c r="AP11" s="78"/>
-      <c r="AQ11" s="78"/>
-      <c r="AR11" s="78"/>
-      <c r="AS11" s="78"/>
-      <c r="AT11" s="78"/>
-      <c r="AU11" s="78"/>
-      <c r="AV11" s="78"/>
-      <c r="AW11" s="78"/>
-      <c r="AX11" s="78"/>
-      <c r="AY11" s="79"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="100"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="98"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="98"/>
+      <c r="AB11" s="98"/>
+      <c r="AC11" s="98"/>
+      <c r="AD11" s="98"/>
+      <c r="AE11" s="98"/>
+      <c r="AF11" s="98"/>
+      <c r="AG11" s="98"/>
+      <c r="AH11" s="98"/>
+      <c r="AI11" s="98"/>
+      <c r="AJ11" s="98"/>
+      <c r="AK11" s="98"/>
+      <c r="AL11" s="98"/>
+      <c r="AM11" s="98"/>
+      <c r="AN11" s="98"/>
+      <c r="AO11" s="98"/>
+      <c r="AP11" s="98"/>
+      <c r="AQ11" s="98"/>
+      <c r="AR11" s="98"/>
+      <c r="AS11" s="98"/>
+      <c r="AT11" s="98"/>
+      <c r="AU11" s="98"/>
+      <c r="AV11" s="98"/>
+      <c r="AW11" s="98"/>
+      <c r="AX11" s="98"/>
+      <c r="AY11" s="99"/>
       <c r="AZ11" s="12"/>
     </row>
     <row r="12" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78"/>
-      <c r="T12" s="78"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="78"/>
-      <c r="W12" s="78"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="78"/>
-      <c r="AA12" s="78"/>
-      <c r="AB12" s="78"/>
-      <c r="AC12" s="78"/>
-      <c r="AD12" s="78"/>
-      <c r="AE12" s="78"/>
-      <c r="AF12" s="78"/>
-      <c r="AG12" s="78"/>
-      <c r="AH12" s="78"/>
-      <c r="AI12" s="78"/>
-      <c r="AJ12" s="78"/>
-      <c r="AK12" s="78"/>
-      <c r="AL12" s="78"/>
-      <c r="AM12" s="78"/>
-      <c r="AN12" s="78"/>
-      <c r="AO12" s="78"/>
-      <c r="AP12" s="78"/>
-      <c r="AQ12" s="78"/>
-      <c r="AR12" s="78"/>
-      <c r="AS12" s="78"/>
-      <c r="AT12" s="78"/>
-      <c r="AU12" s="78"/>
-      <c r="AV12" s="78"/>
-      <c r="AW12" s="78"/>
-      <c r="AX12" s="78"/>
-      <c r="AY12" s="79"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="98"/>
+      <c r="AE12" s="98"/>
+      <c r="AF12" s="98"/>
+      <c r="AG12" s="98"/>
+      <c r="AH12" s="98"/>
+      <c r="AI12" s="98"/>
+      <c r="AJ12" s="98"/>
+      <c r="AK12" s="98"/>
+      <c r="AL12" s="98"/>
+      <c r="AM12" s="98"/>
+      <c r="AN12" s="98"/>
+      <c r="AO12" s="98"/>
+      <c r="AP12" s="98"/>
+      <c r="AQ12" s="98"/>
+      <c r="AR12" s="98"/>
+      <c r="AS12" s="98"/>
+      <c r="AT12" s="98"/>
+      <c r="AU12" s="98"/>
+      <c r="AV12" s="98"/>
+      <c r="AW12" s="98"/>
+      <c r="AX12" s="98"/>
+      <c r="AY12" s="99"/>
       <c r="AZ12" s="12"/>
     </row>
     <row r="13" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="78"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="78"/>
-      <c r="W13" s="78"/>
-      <c r="X13" s="78"/>
-      <c r="Y13" s="78"/>
-      <c r="Z13" s="78"/>
-      <c r="AA13" s="78"/>
-      <c r="AB13" s="78"/>
-      <c r="AC13" s="78"/>
-      <c r="AD13" s="78"/>
-      <c r="AE13" s="78"/>
-      <c r="AF13" s="78"/>
-      <c r="AG13" s="78"/>
-      <c r="AH13" s="78"/>
-      <c r="AI13" s="78"/>
-      <c r="AJ13" s="78"/>
-      <c r="AK13" s="78"/>
-      <c r="AL13" s="78"/>
-      <c r="AM13" s="78"/>
-      <c r="AN13" s="78"/>
-      <c r="AO13" s="78"/>
-      <c r="AP13" s="78"/>
-      <c r="AQ13" s="78"/>
-      <c r="AR13" s="78"/>
-      <c r="AS13" s="78"/>
-      <c r="AT13" s="78"/>
-      <c r="AU13" s="78"/>
-      <c r="AV13" s="78"/>
-      <c r="AW13" s="78"/>
-      <c r="AX13" s="78"/>
-      <c r="AY13" s="79"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="100"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="98"/>
+      <c r="W13" s="98"/>
+      <c r="X13" s="98"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="98"/>
+      <c r="AB13" s="98"/>
+      <c r="AC13" s="98"/>
+      <c r="AD13" s="98"/>
+      <c r="AE13" s="98"/>
+      <c r="AF13" s="98"/>
+      <c r="AG13" s="98"/>
+      <c r="AH13" s="98"/>
+      <c r="AI13" s="98"/>
+      <c r="AJ13" s="98"/>
+      <c r="AK13" s="98"/>
+      <c r="AL13" s="98"/>
+      <c r="AM13" s="98"/>
+      <c r="AN13" s="98"/>
+      <c r="AO13" s="98"/>
+      <c r="AP13" s="98"/>
+      <c r="AQ13" s="98"/>
+      <c r="AR13" s="98"/>
+      <c r="AS13" s="98"/>
+      <c r="AT13" s="98"/>
+      <c r="AU13" s="98"/>
+      <c r="AV13" s="98"/>
+      <c r="AW13" s="98"/>
+      <c r="AX13" s="98"/>
+      <c r="AY13" s="99"/>
       <c r="AZ13" s="12"/>
     </row>
     <row r="14" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="78"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="78"/>
-      <c r="W14" s="78"/>
-      <c r="X14" s="78"/>
-      <c r="Y14" s="78"/>
-      <c r="Z14" s="78"/>
-      <c r="AA14" s="78"/>
-      <c r="AB14" s="78"/>
-      <c r="AC14" s="78"/>
-      <c r="AD14" s="78"/>
-      <c r="AE14" s="78"/>
-      <c r="AF14" s="78"/>
-      <c r="AG14" s="78"/>
-      <c r="AH14" s="78"/>
-      <c r="AI14" s="78"/>
-      <c r="AJ14" s="78"/>
-      <c r="AK14" s="78"/>
-      <c r="AL14" s="78"/>
-      <c r="AM14" s="78"/>
-      <c r="AN14" s="78"/>
-      <c r="AO14" s="78"/>
-      <c r="AP14" s="78"/>
-      <c r="AQ14" s="78"/>
-      <c r="AR14" s="78"/>
-      <c r="AS14" s="78"/>
-      <c r="AT14" s="78"/>
-      <c r="AU14" s="78"/>
-      <c r="AV14" s="78"/>
-      <c r="AW14" s="78"/>
-      <c r="AX14" s="78"/>
-      <c r="AY14" s="79"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="100"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="98"/>
+      <c r="AB14" s="98"/>
+      <c r="AC14" s="98"/>
+      <c r="AD14" s="98"/>
+      <c r="AE14" s="98"/>
+      <c r="AF14" s="98"/>
+      <c r="AG14" s="98"/>
+      <c r="AH14" s="98"/>
+      <c r="AI14" s="98"/>
+      <c r="AJ14" s="98"/>
+      <c r="AK14" s="98"/>
+      <c r="AL14" s="98"/>
+      <c r="AM14" s="98"/>
+      <c r="AN14" s="98"/>
+      <c r="AO14" s="98"/>
+      <c r="AP14" s="98"/>
+      <c r="AQ14" s="98"/>
+      <c r="AR14" s="98"/>
+      <c r="AS14" s="98"/>
+      <c r="AT14" s="98"/>
+      <c r="AU14" s="98"/>
+      <c r="AV14" s="98"/>
+      <c r="AW14" s="98"/>
+      <c r="AX14" s="98"/>
+      <c r="AY14" s="99"/>
       <c r="AZ14" s="12"/>
     </row>
     <row r="15" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="78"/>
-      <c r="T15" s="78"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="78"/>
-      <c r="W15" s="78"/>
-      <c r="X15" s="78"/>
-      <c r="Y15" s="78"/>
-      <c r="Z15" s="78"/>
-      <c r="AA15" s="78"/>
-      <c r="AB15" s="78"/>
-      <c r="AC15" s="78"/>
-      <c r="AD15" s="78"/>
-      <c r="AE15" s="78"/>
-      <c r="AF15" s="78"/>
-      <c r="AG15" s="78"/>
-      <c r="AH15" s="78"/>
-      <c r="AI15" s="78"/>
-      <c r="AJ15" s="78"/>
-      <c r="AK15" s="78"/>
-      <c r="AL15" s="78"/>
-      <c r="AM15" s="78"/>
-      <c r="AN15" s="78"/>
-      <c r="AO15" s="78"/>
-      <c r="AP15" s="78"/>
-      <c r="AQ15" s="78"/>
-      <c r="AR15" s="78"/>
-      <c r="AS15" s="78"/>
-      <c r="AT15" s="78"/>
-      <c r="AU15" s="78"/>
-      <c r="AV15" s="78"/>
-      <c r="AW15" s="78"/>
-      <c r="AX15" s="78"/>
-      <c r="AY15" s="79"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="102"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="100"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="98"/>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="98"/>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="98"/>
+      <c r="AC15" s="98"/>
+      <c r="AD15" s="98"/>
+      <c r="AE15" s="98"/>
+      <c r="AF15" s="98"/>
+      <c r="AG15" s="98"/>
+      <c r="AH15" s="98"/>
+      <c r="AI15" s="98"/>
+      <c r="AJ15" s="98"/>
+      <c r="AK15" s="98"/>
+      <c r="AL15" s="98"/>
+      <c r="AM15" s="98"/>
+      <c r="AN15" s="98"/>
+      <c r="AO15" s="98"/>
+      <c r="AP15" s="98"/>
+      <c r="AQ15" s="98"/>
+      <c r="AR15" s="98"/>
+      <c r="AS15" s="98"/>
+      <c r="AT15" s="98"/>
+      <c r="AU15" s="98"/>
+      <c r="AV15" s="98"/>
+      <c r="AW15" s="98"/>
+      <c r="AX15" s="98"/>
+      <c r="AY15" s="99"/>
       <c r="AZ15" s="12"/>
     </row>
     <row r="16" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="78"/>
-      <c r="T16" s="78"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="78"/>
-      <c r="W16" s="78"/>
-      <c r="X16" s="78"/>
-      <c r="Y16" s="78"/>
-      <c r="Z16" s="78"/>
-      <c r="AA16" s="78"/>
-      <c r="AB16" s="78"/>
-      <c r="AC16" s="78"/>
-      <c r="AD16" s="78"/>
-      <c r="AE16" s="78"/>
-      <c r="AF16" s="78"/>
-      <c r="AG16" s="78"/>
-      <c r="AH16" s="78"/>
-      <c r="AI16" s="78"/>
-      <c r="AJ16" s="78"/>
-      <c r="AK16" s="78"/>
-      <c r="AL16" s="78"/>
-      <c r="AM16" s="78"/>
-      <c r="AN16" s="78"/>
-      <c r="AO16" s="78"/>
-      <c r="AP16" s="78"/>
-      <c r="AQ16" s="78"/>
-      <c r="AR16" s="78"/>
-      <c r="AS16" s="78"/>
-      <c r="AT16" s="78"/>
-      <c r="AU16" s="78"/>
-      <c r="AV16" s="78"/>
-      <c r="AW16" s="78"/>
-      <c r="AX16" s="78"/>
-      <c r="AY16" s="79"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="102"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="100"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="98"/>
+      <c r="W16" s="98"/>
+      <c r="X16" s="98"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="98"/>
+      <c r="AB16" s="98"/>
+      <c r="AC16" s="98"/>
+      <c r="AD16" s="98"/>
+      <c r="AE16" s="98"/>
+      <c r="AF16" s="98"/>
+      <c r="AG16" s="98"/>
+      <c r="AH16" s="98"/>
+      <c r="AI16" s="98"/>
+      <c r="AJ16" s="98"/>
+      <c r="AK16" s="98"/>
+      <c r="AL16" s="98"/>
+      <c r="AM16" s="98"/>
+      <c r="AN16" s="98"/>
+      <c r="AO16" s="98"/>
+      <c r="AP16" s="98"/>
+      <c r="AQ16" s="98"/>
+      <c r="AR16" s="98"/>
+      <c r="AS16" s="98"/>
+      <c r="AT16" s="98"/>
+      <c r="AU16" s="98"/>
+      <c r="AV16" s="98"/>
+      <c r="AW16" s="98"/>
+      <c r="AX16" s="98"/>
+      <c r="AY16" s="99"/>
       <c r="AZ16" s="12"/>
     </row>
     <row r="17" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="78"/>
-      <c r="T17" s="78"/>
-      <c r="U17" s="78"/>
-      <c r="V17" s="78"/>
-      <c r="W17" s="78"/>
-      <c r="X17" s="78"/>
-      <c r="Y17" s="78"/>
-      <c r="Z17" s="78"/>
-      <c r="AA17" s="78"/>
-      <c r="AB17" s="78"/>
-      <c r="AC17" s="78"/>
-      <c r="AD17" s="78"/>
-      <c r="AE17" s="78"/>
-      <c r="AF17" s="78"/>
-      <c r="AG17" s="78"/>
-      <c r="AH17" s="78"/>
-      <c r="AI17" s="78"/>
-      <c r="AJ17" s="78"/>
-      <c r="AK17" s="78"/>
-      <c r="AL17" s="78"/>
-      <c r="AM17" s="78"/>
-      <c r="AN17" s="78"/>
-      <c r="AO17" s="78"/>
-      <c r="AP17" s="78"/>
-      <c r="AQ17" s="78"/>
-      <c r="AR17" s="78"/>
-      <c r="AS17" s="78"/>
-      <c r="AT17" s="78"/>
-      <c r="AU17" s="78"/>
-      <c r="AV17" s="78"/>
-      <c r="AW17" s="78"/>
-      <c r="AX17" s="78"/>
-      <c r="AY17" s="79"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="100"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="98"/>
+      <c r="W17" s="98"/>
+      <c r="X17" s="98"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="98"/>
+      <c r="AB17" s="98"/>
+      <c r="AC17" s="98"/>
+      <c r="AD17" s="98"/>
+      <c r="AE17" s="98"/>
+      <c r="AF17" s="98"/>
+      <c r="AG17" s="98"/>
+      <c r="AH17" s="98"/>
+      <c r="AI17" s="98"/>
+      <c r="AJ17" s="98"/>
+      <c r="AK17" s="98"/>
+      <c r="AL17" s="98"/>
+      <c r="AM17" s="98"/>
+      <c r="AN17" s="98"/>
+      <c r="AO17" s="98"/>
+      <c r="AP17" s="98"/>
+      <c r="AQ17" s="98"/>
+      <c r="AR17" s="98"/>
+      <c r="AS17" s="98"/>
+      <c r="AT17" s="98"/>
+      <c r="AU17" s="98"/>
+      <c r="AV17" s="98"/>
+      <c r="AW17" s="98"/>
+      <c r="AX17" s="98"/>
+      <c r="AY17" s="99"/>
       <c r="AZ17" s="12"/>
     </row>
     <row r="18" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="78"/>
-      <c r="T18" s="78"/>
-      <c r="U18" s="78"/>
-      <c r="V18" s="78"/>
-      <c r="W18" s="78"/>
-      <c r="X18" s="78"/>
-      <c r="Y18" s="78"/>
-      <c r="Z18" s="78"/>
-      <c r="AA18" s="78"/>
-      <c r="AB18" s="78"/>
-      <c r="AC18" s="78"/>
-      <c r="AD18" s="78"/>
-      <c r="AE18" s="78"/>
-      <c r="AF18" s="78"/>
-      <c r="AG18" s="78"/>
-      <c r="AH18" s="78"/>
-      <c r="AI18" s="78"/>
-      <c r="AJ18" s="78"/>
-      <c r="AK18" s="78"/>
-      <c r="AL18" s="78"/>
-      <c r="AM18" s="78"/>
-      <c r="AN18" s="78"/>
-      <c r="AO18" s="78"/>
-      <c r="AP18" s="78"/>
-      <c r="AQ18" s="78"/>
-      <c r="AR18" s="78"/>
-      <c r="AS18" s="78"/>
-      <c r="AT18" s="78"/>
-      <c r="AU18" s="78"/>
-      <c r="AV18" s="78"/>
-      <c r="AW18" s="78"/>
-      <c r="AX18" s="78"/>
-      <c r="AY18" s="79"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="102"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="100"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="98"/>
+      <c r="AB18" s="98"/>
+      <c r="AC18" s="98"/>
+      <c r="AD18" s="98"/>
+      <c r="AE18" s="98"/>
+      <c r="AF18" s="98"/>
+      <c r="AG18" s="98"/>
+      <c r="AH18" s="98"/>
+      <c r="AI18" s="98"/>
+      <c r="AJ18" s="98"/>
+      <c r="AK18" s="98"/>
+      <c r="AL18" s="98"/>
+      <c r="AM18" s="98"/>
+      <c r="AN18" s="98"/>
+      <c r="AO18" s="98"/>
+      <c r="AP18" s="98"/>
+      <c r="AQ18" s="98"/>
+      <c r="AR18" s="98"/>
+      <c r="AS18" s="98"/>
+      <c r="AT18" s="98"/>
+      <c r="AU18" s="98"/>
+      <c r="AV18" s="98"/>
+      <c r="AW18" s="98"/>
+      <c r="AX18" s="98"/>
+      <c r="AY18" s="99"/>
       <c r="AZ18" s="12"/>
     </row>
     <row r="19" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="78"/>
-      <c r="T19" s="78"/>
-      <c r="U19" s="78"/>
-      <c r="V19" s="78"/>
-      <c r="W19" s="78"/>
-      <c r="X19" s="78"/>
-      <c r="Y19" s="78"/>
-      <c r="Z19" s="78"/>
-      <c r="AA19" s="78"/>
-      <c r="AB19" s="78"/>
-      <c r="AC19" s="78"/>
-      <c r="AD19" s="78"/>
-      <c r="AE19" s="78"/>
-      <c r="AF19" s="78"/>
-      <c r="AG19" s="78"/>
-      <c r="AH19" s="78"/>
-      <c r="AI19" s="78"/>
-      <c r="AJ19" s="78"/>
-      <c r="AK19" s="78"/>
-      <c r="AL19" s="78"/>
-      <c r="AM19" s="78"/>
-      <c r="AN19" s="78"/>
-      <c r="AO19" s="78"/>
-      <c r="AP19" s="78"/>
-      <c r="AQ19" s="78"/>
-      <c r="AR19" s="78"/>
-      <c r="AS19" s="78"/>
-      <c r="AT19" s="78"/>
-      <c r="AU19" s="78"/>
-      <c r="AV19" s="78"/>
-      <c r="AW19" s="78"/>
-      <c r="AX19" s="78"/>
-      <c r="AY19" s="79"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="102"/>
+      <c r="O19" s="102"/>
+      <c r="P19" s="103"/>
+      <c r="Q19" s="100"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="98"/>
+      <c r="W19" s="98"/>
+      <c r="X19" s="98"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="98"/>
+      <c r="AB19" s="98"/>
+      <c r="AC19" s="98"/>
+      <c r="AD19" s="98"/>
+      <c r="AE19" s="98"/>
+      <c r="AF19" s="98"/>
+      <c r="AG19" s="98"/>
+      <c r="AH19" s="98"/>
+      <c r="AI19" s="98"/>
+      <c r="AJ19" s="98"/>
+      <c r="AK19" s="98"/>
+      <c r="AL19" s="98"/>
+      <c r="AM19" s="98"/>
+      <c r="AN19" s="98"/>
+      <c r="AO19" s="98"/>
+      <c r="AP19" s="98"/>
+      <c r="AQ19" s="98"/>
+      <c r="AR19" s="98"/>
+      <c r="AS19" s="98"/>
+      <c r="AT19" s="98"/>
+      <c r="AU19" s="98"/>
+      <c r="AV19" s="98"/>
+      <c r="AW19" s="98"/>
+      <c r="AX19" s="98"/>
+      <c r="AY19" s="99"/>
       <c r="AZ19" s="12"/>
     </row>
     <row r="20" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="78"/>
-      <c r="X20" s="78"/>
-      <c r="Y20" s="78"/>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="78"/>
-      <c r="AB20" s="78"/>
-      <c r="AC20" s="78"/>
-      <c r="AD20" s="78"/>
-      <c r="AE20" s="78"/>
-      <c r="AF20" s="78"/>
-      <c r="AG20" s="78"/>
-      <c r="AH20" s="78"/>
-      <c r="AI20" s="78"/>
-      <c r="AJ20" s="78"/>
-      <c r="AK20" s="78"/>
-      <c r="AL20" s="78"/>
-      <c r="AM20" s="78"/>
-      <c r="AN20" s="78"/>
-      <c r="AO20" s="78"/>
-      <c r="AP20" s="78"/>
-      <c r="AQ20" s="78"/>
-      <c r="AR20" s="78"/>
-      <c r="AS20" s="78"/>
-      <c r="AT20" s="78"/>
-      <c r="AU20" s="78"/>
-      <c r="AV20" s="78"/>
-      <c r="AW20" s="78"/>
-      <c r="AX20" s="78"/>
-      <c r="AY20" s="79"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="102"/>
+      <c r="P20" s="103"/>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="98"/>
+      <c r="U20" s="98"/>
+      <c r="V20" s="98"/>
+      <c r="W20" s="98"/>
+      <c r="X20" s="98"/>
+      <c r="Y20" s="98"/>
+      <c r="Z20" s="98"/>
+      <c r="AA20" s="98"/>
+      <c r="AB20" s="98"/>
+      <c r="AC20" s="98"/>
+      <c r="AD20" s="98"/>
+      <c r="AE20" s="98"/>
+      <c r="AF20" s="98"/>
+      <c r="AG20" s="98"/>
+      <c r="AH20" s="98"/>
+      <c r="AI20" s="98"/>
+      <c r="AJ20" s="98"/>
+      <c r="AK20" s="98"/>
+      <c r="AL20" s="98"/>
+      <c r="AM20" s="98"/>
+      <c r="AN20" s="98"/>
+      <c r="AO20" s="98"/>
+      <c r="AP20" s="98"/>
+      <c r="AQ20" s="98"/>
+      <c r="AR20" s="98"/>
+      <c r="AS20" s="98"/>
+      <c r="AT20" s="98"/>
+      <c r="AU20" s="98"/>
+      <c r="AV20" s="98"/>
+      <c r="AW20" s="98"/>
+      <c r="AX20" s="98"/>
+      <c r="AY20" s="99"/>
       <c r="AZ20" s="12"/>
     </row>
     <row r="21" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="78"/>
-      <c r="S21" s="78"/>
-      <c r="T21" s="78"/>
-      <c r="U21" s="78"/>
-      <c r="V21" s="78"/>
-      <c r="W21" s="78"/>
-      <c r="X21" s="78"/>
-      <c r="Y21" s="78"/>
-      <c r="Z21" s="78"/>
-      <c r="AA21" s="78"/>
-      <c r="AB21" s="78"/>
-      <c r="AC21" s="78"/>
-      <c r="AD21" s="78"/>
-      <c r="AE21" s="78"/>
-      <c r="AF21" s="78"/>
-      <c r="AG21" s="78"/>
-      <c r="AH21" s="78"/>
-      <c r="AI21" s="78"/>
-      <c r="AJ21" s="78"/>
-      <c r="AK21" s="78"/>
-      <c r="AL21" s="78"/>
-      <c r="AM21" s="78"/>
-      <c r="AN21" s="78"/>
-      <c r="AO21" s="78"/>
-      <c r="AP21" s="78"/>
-      <c r="AQ21" s="78"/>
-      <c r="AR21" s="78"/>
-      <c r="AS21" s="78"/>
-      <c r="AT21" s="78"/>
-      <c r="AU21" s="78"/>
-      <c r="AV21" s="78"/>
-      <c r="AW21" s="78"/>
-      <c r="AX21" s="78"/>
-      <c r="AY21" s="79"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="102"/>
+      <c r="P21" s="103"/>
+      <c r="Q21" s="100"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="98"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="98"/>
+      <c r="AB21" s="98"/>
+      <c r="AC21" s="98"/>
+      <c r="AD21" s="98"/>
+      <c r="AE21" s="98"/>
+      <c r="AF21" s="98"/>
+      <c r="AG21" s="98"/>
+      <c r="AH21" s="98"/>
+      <c r="AI21" s="98"/>
+      <c r="AJ21" s="98"/>
+      <c r="AK21" s="98"/>
+      <c r="AL21" s="98"/>
+      <c r="AM21" s="98"/>
+      <c r="AN21" s="98"/>
+      <c r="AO21" s="98"/>
+      <c r="AP21" s="98"/>
+      <c r="AQ21" s="98"/>
+      <c r="AR21" s="98"/>
+      <c r="AS21" s="98"/>
+      <c r="AT21" s="98"/>
+      <c r="AU21" s="98"/>
+      <c r="AV21" s="98"/>
+      <c r="AW21" s="98"/>
+      <c r="AX21" s="98"/>
+      <c r="AY21" s="99"/>
       <c r="AZ21" s="12"/>
     </row>
     <row r="22" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="78"/>
-      <c r="T22" s="78"/>
-      <c r="U22" s="78"/>
-      <c r="V22" s="78"/>
-      <c r="W22" s="78"/>
-      <c r="X22" s="78"/>
-      <c r="Y22" s="78"/>
-      <c r="Z22" s="78"/>
-      <c r="AA22" s="78"/>
-      <c r="AB22" s="78"/>
-      <c r="AC22" s="78"/>
-      <c r="AD22" s="78"/>
-      <c r="AE22" s="78"/>
-      <c r="AF22" s="78"/>
-      <c r="AG22" s="78"/>
-      <c r="AH22" s="78"/>
-      <c r="AI22" s="78"/>
-      <c r="AJ22" s="78"/>
-      <c r="AK22" s="78"/>
-      <c r="AL22" s="78"/>
-      <c r="AM22" s="78"/>
-      <c r="AN22" s="78"/>
-      <c r="AO22" s="78"/>
-      <c r="AP22" s="78"/>
-      <c r="AQ22" s="78"/>
-      <c r="AR22" s="78"/>
-      <c r="AS22" s="78"/>
-      <c r="AT22" s="78"/>
-      <c r="AU22" s="78"/>
-      <c r="AV22" s="78"/>
-      <c r="AW22" s="78"/>
-      <c r="AX22" s="78"/>
-      <c r="AY22" s="79"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="102"/>
+      <c r="P22" s="103"/>
+      <c r="Q22" s="100"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="98"/>
+      <c r="AB22" s="98"/>
+      <c r="AC22" s="98"/>
+      <c r="AD22" s="98"/>
+      <c r="AE22" s="98"/>
+      <c r="AF22" s="98"/>
+      <c r="AG22" s="98"/>
+      <c r="AH22" s="98"/>
+      <c r="AI22" s="98"/>
+      <c r="AJ22" s="98"/>
+      <c r="AK22" s="98"/>
+      <c r="AL22" s="98"/>
+      <c r="AM22" s="98"/>
+      <c r="AN22" s="98"/>
+      <c r="AO22" s="98"/>
+      <c r="AP22" s="98"/>
+      <c r="AQ22" s="98"/>
+      <c r="AR22" s="98"/>
+      <c r="AS22" s="98"/>
+      <c r="AT22" s="98"/>
+      <c r="AU22" s="98"/>
+      <c r="AV22" s="98"/>
+      <c r="AW22" s="98"/>
+      <c r="AX22" s="98"/>
+      <c r="AY22" s="99"/>
       <c r="AZ22" s="12"/>
     </row>
     <row r="23" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="78"/>
-      <c r="T23" s="78"/>
-      <c r="U23" s="78"/>
-      <c r="V23" s="78"/>
-      <c r="W23" s="78"/>
-      <c r="X23" s="78"/>
-      <c r="Y23" s="78"/>
-      <c r="Z23" s="78"/>
-      <c r="AA23" s="78"/>
-      <c r="AB23" s="78"/>
-      <c r="AC23" s="78"/>
-      <c r="AD23" s="78"/>
-      <c r="AE23" s="78"/>
-      <c r="AF23" s="78"/>
-      <c r="AG23" s="78"/>
-      <c r="AH23" s="78"/>
-      <c r="AI23" s="78"/>
-      <c r="AJ23" s="78"/>
-      <c r="AK23" s="78"/>
-      <c r="AL23" s="78"/>
-      <c r="AM23" s="78"/>
-      <c r="AN23" s="78"/>
-      <c r="AO23" s="78"/>
-      <c r="AP23" s="78"/>
-      <c r="AQ23" s="78"/>
-      <c r="AR23" s="78"/>
-      <c r="AS23" s="78"/>
-      <c r="AT23" s="78"/>
-      <c r="AU23" s="78"/>
-      <c r="AV23" s="78"/>
-      <c r="AW23" s="78"/>
-      <c r="AX23" s="78"/>
-      <c r="AY23" s="79"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="103"/>
+      <c r="Q23" s="100"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="98"/>
+      <c r="AB23" s="98"/>
+      <c r="AC23" s="98"/>
+      <c r="AD23" s="98"/>
+      <c r="AE23" s="98"/>
+      <c r="AF23" s="98"/>
+      <c r="AG23" s="98"/>
+      <c r="AH23" s="98"/>
+      <c r="AI23" s="98"/>
+      <c r="AJ23" s="98"/>
+      <c r="AK23" s="98"/>
+      <c r="AL23" s="98"/>
+      <c r="AM23" s="98"/>
+      <c r="AN23" s="98"/>
+      <c r="AO23" s="98"/>
+      <c r="AP23" s="98"/>
+      <c r="AQ23" s="98"/>
+      <c r="AR23" s="98"/>
+      <c r="AS23" s="98"/>
+      <c r="AT23" s="98"/>
+      <c r="AU23" s="98"/>
+      <c r="AV23" s="98"/>
+      <c r="AW23" s="98"/>
+      <c r="AX23" s="98"/>
+      <c r="AY23" s="99"/>
       <c r="AZ23" s="12"/>
     </row>
     <row r="24" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="78"/>
-      <c r="S24" s="78"/>
-      <c r="T24" s="78"/>
-      <c r="U24" s="78"/>
-      <c r="V24" s="78"/>
-      <c r="W24" s="78"/>
-      <c r="X24" s="78"/>
-      <c r="Y24" s="78"/>
-      <c r="Z24" s="78"/>
-      <c r="AA24" s="78"/>
-      <c r="AB24" s="78"/>
-      <c r="AC24" s="78"/>
-      <c r="AD24" s="78"/>
-      <c r="AE24" s="78"/>
-      <c r="AF24" s="78"/>
-      <c r="AG24" s="78"/>
-      <c r="AH24" s="78"/>
-      <c r="AI24" s="78"/>
-      <c r="AJ24" s="78"/>
-      <c r="AK24" s="78"/>
-      <c r="AL24" s="78"/>
-      <c r="AM24" s="78"/>
-      <c r="AN24" s="78"/>
-      <c r="AO24" s="78"/>
-      <c r="AP24" s="78"/>
-      <c r="AQ24" s="78"/>
-      <c r="AR24" s="78"/>
-      <c r="AS24" s="78"/>
-      <c r="AT24" s="78"/>
-      <c r="AU24" s="78"/>
-      <c r="AV24" s="78"/>
-      <c r="AW24" s="78"/>
-      <c r="AX24" s="78"/>
-      <c r="AY24" s="79"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="101"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="103"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="98"/>
+      <c r="AB24" s="98"/>
+      <c r="AC24" s="98"/>
+      <c r="AD24" s="98"/>
+      <c r="AE24" s="98"/>
+      <c r="AF24" s="98"/>
+      <c r="AG24" s="98"/>
+      <c r="AH24" s="98"/>
+      <c r="AI24" s="98"/>
+      <c r="AJ24" s="98"/>
+      <c r="AK24" s="98"/>
+      <c r="AL24" s="98"/>
+      <c r="AM24" s="98"/>
+      <c r="AN24" s="98"/>
+      <c r="AO24" s="98"/>
+      <c r="AP24" s="98"/>
+      <c r="AQ24" s="98"/>
+      <c r="AR24" s="98"/>
+      <c r="AS24" s="98"/>
+      <c r="AT24" s="98"/>
+      <c r="AU24" s="98"/>
+      <c r="AV24" s="98"/>
+      <c r="AW24" s="98"/>
+      <c r="AX24" s="98"/>
+      <c r="AY24" s="99"/>
       <c r="AZ24" s="12"/>
     </row>
     <row r="25" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="78"/>
-      <c r="S25" s="78"/>
-      <c r="T25" s="78"/>
-      <c r="U25" s="78"/>
-      <c r="V25" s="78"/>
-      <c r="W25" s="78"/>
-      <c r="X25" s="78"/>
-      <c r="Y25" s="78"/>
-      <c r="Z25" s="78"/>
-      <c r="AA25" s="78"/>
-      <c r="AB25" s="78"/>
-      <c r="AC25" s="78"/>
-      <c r="AD25" s="78"/>
-      <c r="AE25" s="78"/>
-      <c r="AF25" s="78"/>
-      <c r="AG25" s="78"/>
-      <c r="AH25" s="78"/>
-      <c r="AI25" s="78"/>
-      <c r="AJ25" s="78"/>
-      <c r="AK25" s="78"/>
-      <c r="AL25" s="78"/>
-      <c r="AM25" s="78"/>
-      <c r="AN25" s="78"/>
-      <c r="AO25" s="78"/>
-      <c r="AP25" s="78"/>
-      <c r="AQ25" s="78"/>
-      <c r="AR25" s="78"/>
-      <c r="AS25" s="78"/>
-      <c r="AT25" s="78"/>
-      <c r="AU25" s="78"/>
-      <c r="AV25" s="78"/>
-      <c r="AW25" s="78"/>
-      <c r="AX25" s="78"/>
-      <c r="AY25" s="79"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="103"/>
+      <c r="Q25" s="100"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="98"/>
+      <c r="AC25" s="98"/>
+      <c r="AD25" s="98"/>
+      <c r="AE25" s="98"/>
+      <c r="AF25" s="98"/>
+      <c r="AG25" s="98"/>
+      <c r="AH25" s="98"/>
+      <c r="AI25" s="98"/>
+      <c r="AJ25" s="98"/>
+      <c r="AK25" s="98"/>
+      <c r="AL25" s="98"/>
+      <c r="AM25" s="98"/>
+      <c r="AN25" s="98"/>
+      <c r="AO25" s="98"/>
+      <c r="AP25" s="98"/>
+      <c r="AQ25" s="98"/>
+      <c r="AR25" s="98"/>
+      <c r="AS25" s="98"/>
+      <c r="AT25" s="98"/>
+      <c r="AU25" s="98"/>
+      <c r="AV25" s="98"/>
+      <c r="AW25" s="98"/>
+      <c r="AX25" s="98"/>
+      <c r="AY25" s="99"/>
       <c r="AZ25" s="12"/>
     </row>
     <row r="26" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="66"/>
-      <c r="S26" s="66"/>
-      <c r="T26" s="66"/>
-      <c r="U26" s="66"/>
-      <c r="V26" s="66"/>
-      <c r="W26" s="66"/>
-      <c r="X26" s="66"/>
-      <c r="Y26" s="66"/>
-      <c r="Z26" s="66"/>
-      <c r="AA26" s="66"/>
-      <c r="AB26" s="66"/>
-      <c r="AC26" s="66"/>
-      <c r="AD26" s="66"/>
-      <c r="AE26" s="66"/>
-      <c r="AF26" s="66"/>
-      <c r="AG26" s="66"/>
-      <c r="AH26" s="66"/>
-      <c r="AI26" s="66"/>
-      <c r="AJ26" s="66"/>
-      <c r="AK26" s="66"/>
-      <c r="AL26" s="66"/>
-      <c r="AM26" s="66"/>
-      <c r="AN26" s="66"/>
-      <c r="AO26" s="66"/>
-      <c r="AP26" s="66"/>
-      <c r="AQ26" s="66"/>
-      <c r="AR26" s="66"/>
-      <c r="AS26" s="66"/>
-      <c r="AT26" s="66"/>
-      <c r="AU26" s="66"/>
-      <c r="AV26" s="66"/>
-      <c r="AW26" s="66"/>
-      <c r="AX26" s="66"/>
-      <c r="AY26" s="67"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="111"/>
+      <c r="P26" s="112"/>
+      <c r="Q26" s="113"/>
+      <c r="R26" s="114"/>
+      <c r="S26" s="114"/>
+      <c r="T26" s="114"/>
+      <c r="U26" s="114"/>
+      <c r="V26" s="114"/>
+      <c r="W26" s="114"/>
+      <c r="X26" s="114"/>
+      <c r="Y26" s="114"/>
+      <c r="Z26" s="114"/>
+      <c r="AA26" s="114"/>
+      <c r="AB26" s="114"/>
+      <c r="AC26" s="114"/>
+      <c r="AD26" s="114"/>
+      <c r="AE26" s="114"/>
+      <c r="AF26" s="114"/>
+      <c r="AG26" s="114"/>
+      <c r="AH26" s="114"/>
+      <c r="AI26" s="114"/>
+      <c r="AJ26" s="114"/>
+      <c r="AK26" s="114"/>
+      <c r="AL26" s="114"/>
+      <c r="AM26" s="114"/>
+      <c r="AN26" s="114"/>
+      <c r="AO26" s="114"/>
+      <c r="AP26" s="114"/>
+      <c r="AQ26" s="114"/>
+      <c r="AR26" s="114"/>
+      <c r="AS26" s="114"/>
+      <c r="AT26" s="114"/>
+      <c r="AU26" s="114"/>
+      <c r="AV26" s="114"/>
+      <c r="AW26" s="114"/>
+      <c r="AX26" s="114"/>
+      <c r="AY26" s="115"/>
       <c r="AZ26" s="13"/>
     </row>
     <row r="27" spans="1:52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3650,91 +3661,6 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:AF1"/>
-    <mergeCell ref="AG1:AL1"/>
-    <mergeCell ref="AM1:AR1"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="AG2:AL3"/>
-    <mergeCell ref="AM2:AR3"/>
-    <mergeCell ref="AS2:AW3"/>
-    <mergeCell ref="AX2:AZ3"/>
-    <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="Q7:AY7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="Q8:AY8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="K9:P9"/>
-    <mergeCell ref="Q9:AY9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="Q10:AY10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="Q11:AY11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="Q12:AY12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:AY13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="Q14:AY14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="Q15:AY15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="Q16:AY16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="Q17:AY17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="Q18:AY18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="Q19:AY19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="K20:P20"/>
-    <mergeCell ref="Q20:AY20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="Q21:AY21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="K22:P22"/>
-    <mergeCell ref="Q22:AY22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="Q23:AY23"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:J26"/>
     <mergeCell ref="K26:P26"/>
@@ -3747,6 +3673,91 @@
     <mergeCell ref="E25:J25"/>
     <mergeCell ref="K25:P25"/>
     <mergeCell ref="Q25:AY25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="K22:P22"/>
+    <mergeCell ref="Q22:AY22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="Q23:AY23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="K20:P20"/>
+    <mergeCell ref="Q20:AY20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="Q21:AY21"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="Q18:AY18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="Q19:AY19"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="Q16:AY16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="Q17:AY17"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="Q14:AY14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="Q15:AY15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="Q12:AY12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:AY13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="Q10:AY10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="Q11:AY11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="Q8:AY8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="Q9:AY9"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="Q7:AY7"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:AF2"/>
+    <mergeCell ref="AG2:AL3"/>
+    <mergeCell ref="AM2:AR3"/>
+    <mergeCell ref="AS2:AW3"/>
+    <mergeCell ref="AX2:AZ3"/>
+    <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:AF1"/>
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="AM1:AR1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -3764,7 +3775,7 @@
     <tabColor theme="7" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AZ93"/>
+  <dimension ref="A1:AZ94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -3778,201 +3789,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="111" t="str">
+      <c r="A1" s="56" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>用語一覧</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="100" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="115" t="str">
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="61" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="115"/>
-      <c r="AB1" s="115"/>
-      <c r="AC1" s="115"/>
-      <c r="AD1" s="115"/>
-      <c r="AE1" s="115"/>
-      <c r="AF1" s="115"/>
-      <c r="AG1" s="100" t="s">
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="100"/>
-      <c r="AJ1" s="100"/>
-      <c r="AK1" s="100"/>
-      <c r="AL1" s="100"/>
-      <c r="AM1" s="100" t="s">
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="AN1" s="100"/>
-      <c r="AO1" s="100"/>
-      <c r="AP1" s="100"/>
-      <c r="AQ1" s="100"/>
-      <c r="AR1" s="100"/>
-      <c r="AS1" s="100" t="s">
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="AT1" s="100"/>
-      <c r="AU1" s="100"/>
-      <c r="AV1" s="100"/>
-      <c r="AW1" s="100"/>
-      <c r="AX1" s="100" t="s">
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="AY1" s="100"/>
+      <c r="AY1" s="60"/>
       <c r="AZ1" s="116"/>
     </row>
     <row r="2" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="113"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="102" t="s">
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="103" t="str">
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="64" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="103"/>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="103"/>
-      <c r="AF2" s="103"/>
-      <c r="AG2" s="104">
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="65">
         <v>42619</v>
       </c>
-      <c r="AH2" s="104"/>
-      <c r="AI2" s="104"/>
-      <c r="AJ2" s="104"/>
-      <c r="AK2" s="104"/>
-      <c r="AL2" s="104"/>
-      <c r="AM2" s="106" t="s">
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="AN2" s="103"/>
-      <c r="AO2" s="103"/>
-      <c r="AP2" s="103"/>
-      <c r="AQ2" s="103"/>
-      <c r="AR2" s="103"/>
-      <c r="AS2" s="107"/>
-      <c r="AT2" s="107"/>
-      <c r="AU2" s="107"/>
-      <c r="AV2" s="107"/>
-      <c r="AW2" s="107"/>
-      <c r="AX2" s="103"/>
-      <c r="AY2" s="103"/>
-      <c r="AZ2" s="109"/>
+      <c r="AN2" s="64"/>
+      <c r="AO2" s="64"/>
+      <c r="AP2" s="64"/>
+      <c r="AQ2" s="64"/>
+      <c r="AR2" s="64"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="64"/>
+      <c r="AY2" s="64"/>
+      <c r="AZ2" s="71"/>
     </row>
     <row r="3" spans="1:52" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93" t="str">
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="68" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="92" t="s">
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="93" t="str">
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="68" t="str">
         <f>設定情報!$C$5</f>
         <v>用語一覧</v>
       </c>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="93"/>
-      <c r="AE3" s="93"/>
-      <c r="AF3" s="93"/>
-      <c r="AG3" s="105"/>
-      <c r="AH3" s="105"/>
-      <c r="AI3" s="105"/>
-      <c r="AJ3" s="105"/>
-      <c r="AK3" s="105"/>
-      <c r="AL3" s="105"/>
-      <c r="AM3" s="93"/>
-      <c r="AN3" s="93"/>
-      <c r="AO3" s="93"/>
-      <c r="AP3" s="93"/>
-      <c r="AQ3" s="93"/>
-      <c r="AR3" s="93"/>
-      <c r="AS3" s="108"/>
-      <c r="AT3" s="108"/>
-      <c r="AU3" s="108"/>
-      <c r="AV3" s="108"/>
-      <c r="AW3" s="108"/>
-      <c r="AX3" s="93"/>
-      <c r="AY3" s="93"/>
-      <c r="AZ3" s="110"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="68"/>
+      <c r="AQ3" s="68"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="70"/>
+      <c r="AT3" s="70"/>
+      <c r="AU3" s="70"/>
+      <c r="AV3" s="70"/>
+      <c r="AW3" s="70"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="72"/>
     </row>
     <row r="4" spans="1:52" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="53" t="s">
@@ -5284,15 +5295,15 @@
         <f ca="1">IF(B26="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>12</v>
       </c>
-      <c r="B26" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
+      <c r="B26" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
       <c r="G26" s="54" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="H26" s="41"/>
       <c r="I26" s="41"/>
@@ -5310,9 +5321,9 @@
       <c r="U26" s="41"/>
       <c r="V26" s="40"/>
       <c r="W26" s="41"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="42"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="41"/>
       <c r="AA26" s="43"/>
       <c r="AB26" s="41"/>
       <c r="AC26" s="41"/>
@@ -5346,14 +5357,14 @@
         <v>13</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="40" t="s">
-        <v>8</v>
+        <v>55</v>
+      </c>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="54" t="s">
+        <v>132</v>
       </c>
       <c r="H27" s="41"/>
       <c r="I27" s="41"/>
@@ -5371,9 +5382,9 @@
       <c r="U27" s="41"/>
       <c r="V27" s="40"/>
       <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
       <c r="AA27" s="43"/>
       <c r="AB27" s="41"/>
       <c r="AC27" s="41"/>
@@ -5407,7 +5418,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C28" s="41"/>
       <c r="D28" s="41"/>
@@ -5468,14 +5479,14 @@
         <v>15</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" s="41"/>
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
       <c r="G29" s="40" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H29" s="41"/>
       <c r="I29" s="41"/>
@@ -5529,14 +5540,14 @@
         <v>16</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
+        <v>10</v>
+      </c>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
       <c r="G30" s="40" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="H30" s="41"/>
       <c r="I30" s="41"/>
@@ -5554,9 +5565,9 @@
       <c r="U30" s="41"/>
       <c r="V30" s="40"/>
       <c r="W30" s="41"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="45"/>
-      <c r="Z30" s="45"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="41"/>
       <c r="AA30" s="43"/>
       <c r="AB30" s="41"/>
       <c r="AC30" s="41"/>
@@ -5589,57 +5600,57 @@
         <f ca="1">IF(B31="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>17</v>
       </c>
-      <c r="B31" s="40" t="s">
-        <v>57</v>
+      <c r="B31" s="43" t="s">
+        <v>56</v>
       </c>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45"/>
       <c r="F31" s="45"/>
       <c r="G31" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
+        <v>99</v>
+      </c>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
       <c r="V31" s="40"/>
-      <c r="W31" s="45"/>
+      <c r="W31" s="41"/>
       <c r="X31" s="45"/>
       <c r="Y31" s="45"/>
       <c r="Z31" s="45"/>
-      <c r="AA31" s="40"/>
-      <c r="AB31" s="45"/>
-      <c r="AC31" s="45"/>
-      <c r="AD31" s="45"/>
-      <c r="AE31" s="45"/>
-      <c r="AF31" s="45"/>
-      <c r="AG31" s="45"/>
-      <c r="AH31" s="45"/>
-      <c r="AI31" s="45"/>
-      <c r="AJ31" s="45"/>
-      <c r="AK31" s="45"/>
-      <c r="AL31" s="45"/>
-      <c r="AM31" s="45"/>
-      <c r="AN31" s="45"/>
-      <c r="AO31" s="45"/>
-      <c r="AP31" s="45"/>
-      <c r="AQ31" s="45"/>
-      <c r="AR31" s="45"/>
-      <c r="AS31" s="45"/>
-      <c r="AT31" s="45"/>
-      <c r="AU31" s="45"/>
-      <c r="AV31" s="45"/>
+      <c r="AA31" s="43"/>
+      <c r="AB31" s="41"/>
+      <c r="AC31" s="41"/>
+      <c r="AD31" s="41"/>
+      <c r="AE31" s="41"/>
+      <c r="AF31" s="41"/>
+      <c r="AG31" s="41"/>
+      <c r="AH31" s="41"/>
+      <c r="AI31" s="41"/>
+      <c r="AJ31" s="41"/>
+      <c r="AK31" s="41"/>
+      <c r="AL31" s="41"/>
+      <c r="AM31" s="41"/>
+      <c r="AN31" s="41"/>
+      <c r="AO31" s="41"/>
+      <c r="AP31" s="41"/>
+      <c r="AQ31" s="41"/>
+      <c r="AR31" s="41"/>
+      <c r="AS31" s="41"/>
+      <c r="AT31" s="41"/>
+      <c r="AU31" s="41"/>
+      <c r="AV31" s="41"/>
       <c r="AW31" s="41"/>
       <c r="AX31" s="41"/>
       <c r="AY31" s="41"/>
@@ -5650,57 +5661,57 @@
         <f ca="1">IF(B32="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>18</v>
       </c>
-      <c r="B32" s="43" t="s">
-        <v>58</v>
+      <c r="B32" s="40" t="s">
+        <v>57</v>
       </c>
       <c r="C32" s="45"/>
       <c r="D32" s="45"/>
       <c r="E32" s="45"/>
       <c r="F32" s="45"/>
       <c r="G32" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="41"/>
+        <v>100</v>
+      </c>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
       <c r="V32" s="40"/>
       <c r="W32" s="45"/>
       <c r="X32" s="45"/>
       <c r="Y32" s="45"/>
       <c r="Z32" s="45"/>
-      <c r="AA32" s="43"/>
-      <c r="AB32" s="41"/>
-      <c r="AC32" s="41"/>
-      <c r="AD32" s="41"/>
-      <c r="AE32" s="41"/>
-      <c r="AF32" s="41"/>
-      <c r="AG32" s="41"/>
-      <c r="AH32" s="41"/>
-      <c r="AI32" s="41"/>
-      <c r="AJ32" s="41"/>
-      <c r="AK32" s="41"/>
-      <c r="AL32" s="41"/>
-      <c r="AM32" s="41"/>
-      <c r="AN32" s="41"/>
-      <c r="AO32" s="41"/>
-      <c r="AP32" s="41"/>
-      <c r="AQ32" s="41"/>
-      <c r="AR32" s="41"/>
-      <c r="AS32" s="41"/>
-      <c r="AT32" s="41"/>
-      <c r="AU32" s="41"/>
-      <c r="AV32" s="41"/>
+      <c r="AA32" s="40"/>
+      <c r="AB32" s="45"/>
+      <c r="AC32" s="45"/>
+      <c r="AD32" s="45"/>
+      <c r="AE32" s="45"/>
+      <c r="AF32" s="45"/>
+      <c r="AG32" s="45"/>
+      <c r="AH32" s="45"/>
+      <c r="AI32" s="45"/>
+      <c r="AJ32" s="45"/>
+      <c r="AK32" s="45"/>
+      <c r="AL32" s="45"/>
+      <c r="AM32" s="45"/>
+      <c r="AN32" s="45"/>
+      <c r="AO32" s="45"/>
+      <c r="AP32" s="45"/>
+      <c r="AQ32" s="45"/>
+      <c r="AR32" s="45"/>
+      <c r="AS32" s="45"/>
+      <c r="AT32" s="45"/>
+      <c r="AU32" s="45"/>
+      <c r="AV32" s="45"/>
       <c r="AW32" s="41"/>
       <c r="AX32" s="41"/>
       <c r="AY32" s="41"/>
@@ -5712,14 +5723,14 @@
         <v>19</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
+        <v>58</v>
+      </c>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
       <c r="G33" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H33" s="41"/>
       <c r="I33" s="41"/>
@@ -5736,10 +5747,10 @@
       <c r="T33" s="41"/>
       <c r="U33" s="41"/>
       <c r="V33" s="40"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="42"/>
-      <c r="Y33" s="42"/>
-      <c r="Z33" s="42"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="45"/>
       <c r="AA33" s="43"/>
       <c r="AB33" s="41"/>
       <c r="AC33" s="41"/>
@@ -5772,57 +5783,57 @@
         <f ca="1">IF(B34="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>20</v>
       </c>
-      <c r="B34" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
+      <c r="B34" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
       <c r="G34" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="45"/>
+        <v>102</v>
+      </c>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="41"/>
       <c r="V34" s="40"/>
-      <c r="W34" s="45"/>
-      <c r="X34" s="45"/>
-      <c r="Y34" s="45"/>
-      <c r="Z34" s="45"/>
-      <c r="AA34" s="40"/>
-      <c r="AB34" s="45"/>
-      <c r="AC34" s="45"/>
-      <c r="AD34" s="45"/>
-      <c r="AE34" s="45"/>
-      <c r="AF34" s="45"/>
-      <c r="AG34" s="45"/>
-      <c r="AH34" s="45"/>
-      <c r="AI34" s="45"/>
-      <c r="AJ34" s="45"/>
-      <c r="AK34" s="45"/>
-      <c r="AL34" s="45"/>
-      <c r="AM34" s="45"/>
-      <c r="AN34" s="45"/>
-      <c r="AO34" s="45"/>
-      <c r="AP34" s="45"/>
-      <c r="AQ34" s="45"/>
-      <c r="AR34" s="45"/>
-      <c r="AS34" s="45"/>
-      <c r="AT34" s="45"/>
-      <c r="AU34" s="45"/>
-      <c r="AV34" s="45"/>
+      <c r="W34" s="41"/>
+      <c r="X34" s="42"/>
+      <c r="Y34" s="42"/>
+      <c r="Z34" s="42"/>
+      <c r="AA34" s="43"/>
+      <c r="AB34" s="41"/>
+      <c r="AC34" s="41"/>
+      <c r="AD34" s="41"/>
+      <c r="AE34" s="41"/>
+      <c r="AF34" s="41"/>
+      <c r="AG34" s="41"/>
+      <c r="AH34" s="41"/>
+      <c r="AI34" s="41"/>
+      <c r="AJ34" s="41"/>
+      <c r="AK34" s="41"/>
+      <c r="AL34" s="41"/>
+      <c r="AM34" s="41"/>
+      <c r="AN34" s="41"/>
+      <c r="AO34" s="41"/>
+      <c r="AP34" s="41"/>
+      <c r="AQ34" s="41"/>
+      <c r="AR34" s="41"/>
+      <c r="AS34" s="41"/>
+      <c r="AT34" s="41"/>
+      <c r="AU34" s="41"/>
+      <c r="AV34" s="41"/>
       <c r="AW34" s="41"/>
       <c r="AX34" s="41"/>
       <c r="AY34" s="41"/>
@@ -5834,14 +5845,14 @@
         <v>21</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" s="45"/>
       <c r="D35" s="45"/>
       <c r="E35" s="45"/>
       <c r="F35" s="45"/>
       <c r="G35" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H35" s="45"/>
       <c r="I35" s="45"/>
@@ -5895,14 +5906,14 @@
         <v>22</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
+        <v>61</v>
+      </c>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
       <c r="G36" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H36" s="45"/>
       <c r="I36" s="45"/>
@@ -5919,10 +5930,10 @@
       <c r="T36" s="45"/>
       <c r="U36" s="45"/>
       <c r="V36" s="40"/>
-      <c r="W36" s="41"/>
-      <c r="X36" s="41"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="41"/>
+      <c r="W36" s="45"/>
+      <c r="X36" s="45"/>
+      <c r="Y36" s="45"/>
+      <c r="Z36" s="45"/>
       <c r="AA36" s="40"/>
       <c r="AB36" s="45"/>
       <c r="AC36" s="45"/>
@@ -5955,15 +5966,15 @@
         <f ca="1">IF(B37="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>23</v>
       </c>
-      <c r="B37" s="54" t="s">
-        <v>131</v>
+      <c r="B37" s="40" t="s">
+        <v>62</v>
       </c>
       <c r="C37" s="41"/>
       <c r="D37" s="41"/>
       <c r="E37" s="41"/>
       <c r="F37" s="41"/>
-      <c r="G37" s="54" t="s">
-        <v>138</v>
+      <c r="G37" s="40" t="s">
+        <v>105</v>
       </c>
       <c r="H37" s="45"/>
       <c r="I37" s="45"/>
@@ -6017,14 +6028,14 @@
         <v>24</v>
       </c>
       <c r="B38" s="54" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C38" s="41"/>
       <c r="D38" s="41"/>
       <c r="E38" s="41"/>
       <c r="F38" s="41"/>
       <c r="G38" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H38" s="45"/>
       <c r="I38" s="45"/>
@@ -6078,14 +6089,14 @@
         <v>25</v>
       </c>
       <c r="B39" s="54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C39" s="41"/>
       <c r="D39" s="41"/>
       <c r="E39" s="41"/>
       <c r="F39" s="41"/>
       <c r="G39" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H39" s="45"/>
       <c r="I39" s="45"/>
@@ -6139,14 +6150,14 @@
         <v>26</v>
       </c>
       <c r="B40" s="54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C40" s="41"/>
       <c r="D40" s="41"/>
       <c r="E40" s="41"/>
       <c r="F40" s="41"/>
       <c r="G40" s="54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H40" s="45"/>
       <c r="I40" s="45"/>
@@ -6199,59 +6210,57 @@
         <f ca="1">IF(B41="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>27</v>
       </c>
-      <c r="B41" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="41"/>
-      <c r="S41" s="41"/>
-      <c r="T41" s="41"/>
-      <c r="U41" s="41"/>
-      <c r="V41" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="W41" s="45"/>
-      <c r="X41" s="45"/>
-      <c r="Y41" s="45"/>
-      <c r="Z41" s="45"/>
-      <c r="AA41" s="43"/>
-      <c r="AB41" s="41"/>
-      <c r="AC41" s="41"/>
-      <c r="AD41" s="41"/>
-      <c r="AE41" s="41"/>
-      <c r="AF41" s="41"/>
-      <c r="AG41" s="41"/>
-      <c r="AH41" s="41"/>
-      <c r="AI41" s="41"/>
-      <c r="AJ41" s="41"/>
-      <c r="AK41" s="41"/>
-      <c r="AL41" s="41"/>
-      <c r="AM41" s="41"/>
-      <c r="AN41" s="41"/>
-      <c r="AO41" s="41"/>
-      <c r="AP41" s="41"/>
-      <c r="AQ41" s="41"/>
-      <c r="AR41" s="41"/>
-      <c r="AS41" s="41"/>
-      <c r="AT41" s="41"/>
-      <c r="AU41" s="41"/>
-      <c r="AV41" s="41"/>
+      <c r="B41" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="40"/>
+      <c r="W41" s="41"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="41"/>
+      <c r="Z41" s="41"/>
+      <c r="AA41" s="40"/>
+      <c r="AB41" s="45"/>
+      <c r="AC41" s="45"/>
+      <c r="AD41" s="45"/>
+      <c r="AE41" s="45"/>
+      <c r="AF41" s="45"/>
+      <c r="AG41" s="45"/>
+      <c r="AH41" s="45"/>
+      <c r="AI41" s="45"/>
+      <c r="AJ41" s="45"/>
+      <c r="AK41" s="45"/>
+      <c r="AL41" s="45"/>
+      <c r="AM41" s="45"/>
+      <c r="AN41" s="45"/>
+      <c r="AO41" s="45"/>
+      <c r="AP41" s="45"/>
+      <c r="AQ41" s="45"/>
+      <c r="AR41" s="45"/>
+      <c r="AS41" s="45"/>
+      <c r="AT41" s="45"/>
+      <c r="AU41" s="45"/>
+      <c r="AV41" s="45"/>
       <c r="AW41" s="41"/>
       <c r="AX41" s="41"/>
       <c r="AY41" s="41"/>
@@ -6263,14 +6272,14 @@
         <v>28</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="45"/>
       <c r="D42" s="45"/>
       <c r="E42" s="45"/>
       <c r="F42" s="45"/>
       <c r="G42" s="40" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H42" s="41"/>
       <c r="I42" s="41"/>
@@ -6326,14 +6335,14 @@
         <v>29</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" s="45"/>
       <c r="D43" s="45"/>
       <c r="E43" s="45"/>
       <c r="F43" s="45"/>
       <c r="G43" s="40" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="H43" s="41"/>
       <c r="I43" s="41"/>
@@ -6389,14 +6398,14 @@
         <v>30</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C44" s="45"/>
       <c r="D44" s="45"/>
       <c r="E44" s="45"/>
       <c r="F44" s="45"/>
       <c r="G44" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H44" s="41"/>
       <c r="I44" s="41"/>
@@ -6452,14 +6461,14 @@
         <v>31</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C45" s="45"/>
       <c r="D45" s="45"/>
       <c r="E45" s="45"/>
       <c r="F45" s="45"/>
       <c r="G45" s="40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H45" s="41"/>
       <c r="I45" s="41"/>
@@ -6475,7 +6484,9 @@
       <c r="S45" s="41"/>
       <c r="T45" s="41"/>
       <c r="U45" s="41"/>
-      <c r="V45" s="40"/>
+      <c r="V45" s="40" t="s">
+        <v>43</v>
+      </c>
       <c r="W45" s="45"/>
       <c r="X45" s="45"/>
       <c r="Y45" s="45"/>
@@ -6513,14 +6524,14 @@
         <v>32</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" s="45"/>
       <c r="D46" s="45"/>
       <c r="E46" s="45"/>
       <c r="F46" s="45"/>
       <c r="G46" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H46" s="41"/>
       <c r="I46" s="41"/>
@@ -6574,14 +6585,14 @@
         <v>33</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" s="45"/>
       <c r="D47" s="45"/>
       <c r="E47" s="45"/>
       <c r="F47" s="45"/>
       <c r="G47" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H47" s="41"/>
       <c r="I47" s="41"/>
@@ -6635,14 +6646,14 @@
         <v>34</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" s="45"/>
       <c r="D48" s="45"/>
       <c r="E48" s="45"/>
       <c r="F48" s="45"/>
       <c r="G48" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H48" s="41"/>
       <c r="I48" s="41"/>
@@ -6696,14 +6707,14 @@
         <v>35</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" s="45"/>
       <c r="D49" s="45"/>
       <c r="E49" s="45"/>
       <c r="F49" s="45"/>
       <c r="G49" s="40" t="s">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="H49" s="41"/>
       <c r="I49" s="41"/>
@@ -6757,14 +6768,14 @@
         <v>36</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" s="45"/>
       <c r="D50" s="45"/>
       <c r="E50" s="45"/>
       <c r="F50" s="45"/>
       <c r="G50" s="40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H50" s="41"/>
       <c r="I50" s="41"/>
@@ -6818,14 +6829,14 @@
         <v>37</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" s="45"/>
       <c r="D51" s="45"/>
       <c r="E51" s="45"/>
       <c r="F51" s="45"/>
       <c r="G51" s="40" t="s">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="H51" s="41"/>
       <c r="I51" s="41"/>
@@ -6879,14 +6890,14 @@
         <v>38</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C52" s="45"/>
       <c r="D52" s="45"/>
       <c r="E52" s="45"/>
       <c r="F52" s="45"/>
       <c r="G52" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H52" s="41"/>
       <c r="I52" s="41"/>
@@ -6940,14 +6951,14 @@
         <v>39</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C53" s="45"/>
       <c r="D53" s="45"/>
       <c r="E53" s="45"/>
       <c r="F53" s="45"/>
       <c r="G53" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H53" s="41"/>
       <c r="I53" s="41"/>
@@ -7001,14 +7012,14 @@
         <v>40</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C54" s="45"/>
       <c r="D54" s="45"/>
       <c r="E54" s="45"/>
       <c r="F54" s="45"/>
       <c r="G54" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H54" s="41"/>
       <c r="I54" s="41"/>
@@ -7062,14 +7073,14 @@
         <v>41</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="45"/>
       <c r="D55" s="45"/>
       <c r="E55" s="45"/>
       <c r="F55" s="45"/>
       <c r="G55" s="40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H55" s="41"/>
       <c r="I55" s="41"/>
@@ -7123,14 +7134,14 @@
         <v>42</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C56" s="45"/>
       <c r="D56" s="45"/>
       <c r="E56" s="45"/>
       <c r="F56" s="45"/>
       <c r="G56" s="40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H56" s="41"/>
       <c r="I56" s="41"/>
@@ -7146,9 +7157,7 @@
       <c r="S56" s="41"/>
       <c r="T56" s="41"/>
       <c r="U56" s="41"/>
-      <c r="V56" s="40" t="s">
-        <v>44</v>
-      </c>
+      <c r="V56" s="40"/>
       <c r="W56" s="45"/>
       <c r="X56" s="45"/>
       <c r="Y56" s="45"/>
@@ -7186,14 +7195,14 @@
         <v>43</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C57" s="45"/>
       <c r="D57" s="45"/>
       <c r="E57" s="45"/>
       <c r="F57" s="45"/>
       <c r="G57" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H57" s="41"/>
       <c r="I57" s="41"/>
@@ -7249,14 +7258,14 @@
         <v>44</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C58" s="45"/>
       <c r="D58" s="45"/>
       <c r="E58" s="45"/>
       <c r="F58" s="45"/>
       <c r="G58" s="40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H58" s="41"/>
       <c r="I58" s="41"/>
@@ -7311,30 +7320,30 @@
         <f ca="1">IF(B59="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>45</v>
       </c>
-      <c r="B59" s="40" t="s">
-        <v>81</v>
+      <c r="B59" s="43" t="s">
+        <v>80</v>
       </c>
       <c r="C59" s="45"/>
       <c r="D59" s="45"/>
       <c r="E59" s="45"/>
       <c r="F59" s="45"/>
       <c r="G59" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="H59" s="45"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="45"/>
-      <c r="L59" s="45"/>
-      <c r="M59" s="45"/>
-      <c r="N59" s="45"/>
-      <c r="O59" s="45"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="45"/>
-      <c r="R59" s="45"/>
-      <c r="S59" s="45"/>
-      <c r="T59" s="45"/>
-      <c r="U59" s="45"/>
+        <v>120</v>
+      </c>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="41"/>
+      <c r="M59" s="41"/>
+      <c r="N59" s="41"/>
+      <c r="O59" s="41"/>
+      <c r="P59" s="43"/>
+      <c r="Q59" s="41"/>
+      <c r="R59" s="41"/>
+      <c r="S59" s="41"/>
+      <c r="T59" s="41"/>
+      <c r="U59" s="41"/>
       <c r="V59" s="40" t="s">
         <v>44</v>
       </c>
@@ -7342,28 +7351,28 @@
       <c r="X59" s="45"/>
       <c r="Y59" s="45"/>
       <c r="Z59" s="45"/>
-      <c r="AA59" s="40"/>
-      <c r="AB59" s="45"/>
-      <c r="AC59" s="45"/>
-      <c r="AD59" s="45"/>
-      <c r="AE59" s="45"/>
-      <c r="AF59" s="45"/>
-      <c r="AG59" s="45"/>
-      <c r="AH59" s="45"/>
-      <c r="AI59" s="45"/>
-      <c r="AJ59" s="45"/>
-      <c r="AK59" s="45"/>
-      <c r="AL59" s="45"/>
-      <c r="AM59" s="45"/>
-      <c r="AN59" s="45"/>
-      <c r="AO59" s="45"/>
-      <c r="AP59" s="45"/>
-      <c r="AQ59" s="45"/>
-      <c r="AR59" s="45"/>
-      <c r="AS59" s="45"/>
-      <c r="AT59" s="45"/>
-      <c r="AU59" s="45"/>
-      <c r="AV59" s="45"/>
+      <c r="AA59" s="43"/>
+      <c r="AB59" s="41"/>
+      <c r="AC59" s="41"/>
+      <c r="AD59" s="41"/>
+      <c r="AE59" s="41"/>
+      <c r="AF59" s="41"/>
+      <c r="AG59" s="41"/>
+      <c r="AH59" s="41"/>
+      <c r="AI59" s="41"/>
+      <c r="AJ59" s="41"/>
+      <c r="AK59" s="41"/>
+      <c r="AL59" s="41"/>
+      <c r="AM59" s="41"/>
+      <c r="AN59" s="41"/>
+      <c r="AO59" s="41"/>
+      <c r="AP59" s="41"/>
+      <c r="AQ59" s="41"/>
+      <c r="AR59" s="41"/>
+      <c r="AS59" s="41"/>
+      <c r="AT59" s="41"/>
+      <c r="AU59" s="41"/>
+      <c r="AV59" s="41"/>
       <c r="AW59" s="41"/>
       <c r="AX59" s="41"/>
       <c r="AY59" s="41"/>
@@ -7374,30 +7383,30 @@
         <f ca="1">IF(B60="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>46</v>
       </c>
-      <c r="B60" s="43" t="s">
-        <v>82</v>
+      <c r="B60" s="40" t="s">
+        <v>81</v>
       </c>
       <c r="C60" s="45"/>
       <c r="D60" s="45"/>
       <c r="E60" s="45"/>
       <c r="F60" s="45"/>
       <c r="G60" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="H60" s="41"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="41"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="41"/>
-      <c r="P60" s="43"/>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="41"/>
-      <c r="S60" s="41"/>
-      <c r="T60" s="41"/>
-      <c r="U60" s="41"/>
+        <v>121</v>
+      </c>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="45"/>
+      <c r="L60" s="45"/>
+      <c r="M60" s="45"/>
+      <c r="N60" s="45"/>
+      <c r="O60" s="45"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="45"/>
+      <c r="R60" s="45"/>
+      <c r="S60" s="45"/>
+      <c r="T60" s="45"/>
+      <c r="U60" s="45"/>
       <c r="V60" s="40" t="s">
         <v>44</v>
       </c>
@@ -7405,28 +7414,28 @@
       <c r="X60" s="45"/>
       <c r="Y60" s="45"/>
       <c r="Z60" s="45"/>
-      <c r="AA60" s="43"/>
-      <c r="AB60" s="41"/>
-      <c r="AC60" s="41"/>
-      <c r="AD60" s="41"/>
-      <c r="AE60" s="41"/>
-      <c r="AF60" s="41"/>
-      <c r="AG60" s="41"/>
-      <c r="AH60" s="41"/>
-      <c r="AI60" s="41"/>
-      <c r="AJ60" s="41"/>
-      <c r="AK60" s="41"/>
-      <c r="AL60" s="41"/>
-      <c r="AM60" s="41"/>
-      <c r="AN60" s="41"/>
-      <c r="AO60" s="41"/>
-      <c r="AP60" s="41"/>
-      <c r="AQ60" s="41"/>
-      <c r="AR60" s="41"/>
-      <c r="AS60" s="41"/>
-      <c r="AT60" s="41"/>
-      <c r="AU60" s="41"/>
-      <c r="AV60" s="41"/>
+      <c r="AA60" s="40"/>
+      <c r="AB60" s="45"/>
+      <c r="AC60" s="45"/>
+      <c r="AD60" s="45"/>
+      <c r="AE60" s="45"/>
+      <c r="AF60" s="45"/>
+      <c r="AG60" s="45"/>
+      <c r="AH60" s="45"/>
+      <c r="AI60" s="45"/>
+      <c r="AJ60" s="45"/>
+      <c r="AK60" s="45"/>
+      <c r="AL60" s="45"/>
+      <c r="AM60" s="45"/>
+      <c r="AN60" s="45"/>
+      <c r="AO60" s="45"/>
+      <c r="AP60" s="45"/>
+      <c r="AQ60" s="45"/>
+      <c r="AR60" s="45"/>
+      <c r="AS60" s="45"/>
+      <c r="AT60" s="45"/>
+      <c r="AU60" s="45"/>
+      <c r="AV60" s="45"/>
       <c r="AW60" s="41"/>
       <c r="AX60" s="41"/>
       <c r="AY60" s="41"/>
@@ -7437,30 +7446,30 @@
         <f ca="1">IF(B61="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
         <v>47</v>
       </c>
-      <c r="B61" s="40" t="s">
-        <v>83</v>
+      <c r="B61" s="43" t="s">
+        <v>82</v>
       </c>
       <c r="C61" s="45"/>
       <c r="D61" s="45"/>
       <c r="E61" s="45"/>
       <c r="F61" s="45"/>
       <c r="G61" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="45"/>
-      <c r="L61" s="45"/>
-      <c r="M61" s="45"/>
-      <c r="N61" s="45"/>
-      <c r="O61" s="45"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="45"/>
-      <c r="R61" s="45"/>
-      <c r="S61" s="45"/>
-      <c r="T61" s="45"/>
-      <c r="U61" s="45"/>
+        <v>122</v>
+      </c>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41"/>
+      <c r="N61" s="41"/>
+      <c r="O61" s="41"/>
+      <c r="P61" s="43"/>
+      <c r="Q61" s="41"/>
+      <c r="R61" s="41"/>
+      <c r="S61" s="41"/>
+      <c r="T61" s="41"/>
+      <c r="U61" s="41"/>
       <c r="V61" s="40" t="s">
         <v>44</v>
       </c>
@@ -7468,28 +7477,28 @@
       <c r="X61" s="45"/>
       <c r="Y61" s="45"/>
       <c r="Z61" s="45"/>
-      <c r="AA61" s="40"/>
-      <c r="AB61" s="45"/>
-      <c r="AC61" s="45"/>
-      <c r="AD61" s="45"/>
-      <c r="AE61" s="45"/>
-      <c r="AF61" s="45"/>
-      <c r="AG61" s="45"/>
-      <c r="AH61" s="45"/>
-      <c r="AI61" s="45"/>
-      <c r="AJ61" s="45"/>
-      <c r="AK61" s="45"/>
-      <c r="AL61" s="45"/>
-      <c r="AM61" s="45"/>
-      <c r="AN61" s="45"/>
-      <c r="AO61" s="45"/>
-      <c r="AP61" s="45"/>
-      <c r="AQ61" s="45"/>
-      <c r="AR61" s="45"/>
-      <c r="AS61" s="45"/>
-      <c r="AT61" s="45"/>
-      <c r="AU61" s="45"/>
-      <c r="AV61" s="45"/>
+      <c r="AA61" s="43"/>
+      <c r="AB61" s="41"/>
+      <c r="AC61" s="41"/>
+      <c r="AD61" s="41"/>
+      <c r="AE61" s="41"/>
+      <c r="AF61" s="41"/>
+      <c r="AG61" s="41"/>
+      <c r="AH61" s="41"/>
+      <c r="AI61" s="41"/>
+      <c r="AJ61" s="41"/>
+      <c r="AK61" s="41"/>
+      <c r="AL61" s="41"/>
+      <c r="AM61" s="41"/>
+      <c r="AN61" s="41"/>
+      <c r="AO61" s="41"/>
+      <c r="AP61" s="41"/>
+      <c r="AQ61" s="41"/>
+      <c r="AR61" s="41"/>
+      <c r="AS61" s="41"/>
+      <c r="AT61" s="41"/>
+      <c r="AU61" s="41"/>
+      <c r="AV61" s="41"/>
       <c r="AW61" s="41"/>
       <c r="AX61" s="41"/>
       <c r="AY61" s="41"/>
@@ -7501,14 +7510,14 @@
         <v>48</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C62" s="45"/>
       <c r="D62" s="45"/>
       <c r="E62" s="45"/>
       <c r="F62" s="45"/>
       <c r="G62" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H62" s="45"/>
       <c r="I62" s="45"/>
@@ -7564,14 +7573,14 @@
         <v>49</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C63" s="45"/>
       <c r="D63" s="45"/>
       <c r="E63" s="45"/>
       <c r="F63" s="45"/>
       <c r="G63" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H63" s="45"/>
       <c r="I63" s="45"/>
@@ -7627,14 +7636,14 @@
         <v>50</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C64" s="45"/>
       <c r="D64" s="45"/>
       <c r="E64" s="45"/>
       <c r="F64" s="45"/>
       <c r="G64" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H64" s="45"/>
       <c r="I64" s="45"/>
@@ -7690,14 +7699,14 @@
         <v>51</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C65" s="45"/>
       <c r="D65" s="45"/>
       <c r="E65" s="45"/>
       <c r="F65" s="45"/>
       <c r="G65" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H65" s="45"/>
       <c r="I65" s="45"/>
@@ -7753,14 +7762,14 @@
         <v>52</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C66" s="45"/>
       <c r="D66" s="45"/>
       <c r="E66" s="45"/>
       <c r="F66" s="45"/>
       <c r="G66" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H66" s="45"/>
       <c r="I66" s="45"/>
@@ -7816,14 +7825,14 @@
         <v>53</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C67" s="45"/>
       <c r="D67" s="45"/>
       <c r="E67" s="45"/>
       <c r="F67" s="45"/>
       <c r="G67" s="40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H67" s="45"/>
       <c r="I67" s="45"/>
@@ -7874,16 +7883,20 @@
       <c r="AZ67" s="44"/>
     </row>
     <row r="68" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="34" t="str">
-        <f>IF(B68="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
-        <v/>
-      </c>
-      <c r="B68" s="40"/>
+      <c r="A68" s="34">
+        <f ca="1">IF(B68="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <v>54</v>
+      </c>
+      <c r="B68" s="40" t="s">
+        <v>89</v>
+      </c>
       <c r="C68" s="45"/>
       <c r="D68" s="45"/>
       <c r="E68" s="45"/>
       <c r="F68" s="45"/>
-      <c r="G68" s="40"/>
+      <c r="G68" s="40" t="s">
+        <v>129</v>
+      </c>
       <c r="H68" s="45"/>
       <c r="I68" s="45"/>
       <c r="J68" s="45"/>
@@ -7898,7 +7911,9 @@
       <c r="S68" s="45"/>
       <c r="T68" s="45"/>
       <c r="U68" s="45"/>
-      <c r="V68" s="40"/>
+      <c r="V68" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="W68" s="45"/>
       <c r="X68" s="45"/>
       <c r="Y68" s="45"/>
@@ -9241,8 +9256,11 @@
       <c r="AY91" s="41"/>
       <c r="AZ91" s="44"/>
     </row>
-    <row r="92" spans="1:52" s="21" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="34"/>
+    <row r="92" spans="1:52" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="34" t="str">
+        <f>IF(B92="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <v/>
+      </c>
       <c r="B92" s="40"/>
       <c r="C92" s="45"/>
       <c r="D92" s="45"/>
@@ -9295,79 +9313,128 @@
       <c r="AY92" s="41"/>
       <c r="AZ92" s="44"/>
     </row>
-    <row r="93" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="46" t="s">
+    <row r="93" spans="1:52" s="21" customFormat="1" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="34"/>
+      <c r="B93" s="40"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="45"/>
+      <c r="E93" s="45"/>
+      <c r="F93" s="45"/>
+      <c r="G93" s="40"/>
+      <c r="H93" s="45"/>
+      <c r="I93" s="45"/>
+      <c r="J93" s="45"/>
+      <c r="K93" s="45"/>
+      <c r="L93" s="45"/>
+      <c r="M93" s="45"/>
+      <c r="N93" s="45"/>
+      <c r="O93" s="45"/>
+      <c r="P93" s="40"/>
+      <c r="Q93" s="45"/>
+      <c r="R93" s="45"/>
+      <c r="S93" s="45"/>
+      <c r="T93" s="45"/>
+      <c r="U93" s="45"/>
+      <c r="V93" s="40"/>
+      <c r="W93" s="45"/>
+      <c r="X93" s="45"/>
+      <c r="Y93" s="45"/>
+      <c r="Z93" s="45"/>
+      <c r="AA93" s="40"/>
+      <c r="AB93" s="45"/>
+      <c r="AC93" s="45"/>
+      <c r="AD93" s="45"/>
+      <c r="AE93" s="45"/>
+      <c r="AF93" s="45"/>
+      <c r="AG93" s="45"/>
+      <c r="AH93" s="45"/>
+      <c r="AI93" s="45"/>
+      <c r="AJ93" s="45"/>
+      <c r="AK93" s="45"/>
+      <c r="AL93" s="45"/>
+      <c r="AM93" s="45"/>
+      <c r="AN93" s="45"/>
+      <c r="AO93" s="45"/>
+      <c r="AP93" s="45"/>
+      <c r="AQ93" s="45"/>
+      <c r="AR93" s="45"/>
+      <c r="AS93" s="45"/>
+      <c r="AT93" s="45"/>
+      <c r="AU93" s="45"/>
+      <c r="AV93" s="45"/>
+      <c r="AW93" s="41"/>
+      <c r="AX93" s="41"/>
+      <c r="AY93" s="41"/>
+      <c r="AZ93" s="44"/>
+    </row>
+    <row r="94" spans="1:52" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B93" s="52" t="s">
+      <c r="B94" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="C93" s="48"/>
-      <c r="D93" s="48"/>
-      <c r="E93" s="48"/>
-      <c r="F93" s="48"/>
-      <c r="G93" s="52" t="s">
+      <c r="C94" s="48"/>
+      <c r="D94" s="48"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="H93" s="48"/>
-      <c r="I93" s="49"/>
-      <c r="J93" s="49"/>
-      <c r="K93" s="49"/>
-      <c r="L93" s="49"/>
-      <c r="M93" s="49"/>
-      <c r="N93" s="49"/>
-      <c r="O93" s="48"/>
-      <c r="P93" s="47" t="s">
+      <c r="H94" s="48"/>
+      <c r="I94" s="49"/>
+      <c r="J94" s="49"/>
+      <c r="K94" s="49"/>
+      <c r="L94" s="49"/>
+      <c r="M94" s="49"/>
+      <c r="N94" s="49"/>
+      <c r="O94" s="48"/>
+      <c r="P94" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="Q93" s="48"/>
-      <c r="R93" s="48"/>
-      <c r="S93" s="48"/>
-      <c r="T93" s="48"/>
-      <c r="U93" s="48"/>
-      <c r="V93" s="47" t="s">
+      <c r="Q94" s="48"/>
+      <c r="R94" s="48"/>
+      <c r="S94" s="48"/>
+      <c r="T94" s="48"/>
+      <c r="U94" s="48"/>
+      <c r="V94" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="W93" s="48"/>
-      <c r="X93" s="48"/>
-      <c r="Y93" s="48"/>
-      <c r="Z93" s="48"/>
-      <c r="AA93" s="47" t="s">
+      <c r="W94" s="48"/>
+      <c r="X94" s="48"/>
+      <c r="Y94" s="48"/>
+      <c r="Z94" s="48"/>
+      <c r="AA94" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="AB93" s="48"/>
-      <c r="AC93" s="48"/>
-      <c r="AD93" s="48"/>
-      <c r="AE93" s="48"/>
-      <c r="AF93" s="48"/>
-      <c r="AG93" s="48"/>
-      <c r="AH93" s="48"/>
-      <c r="AI93" s="49"/>
-      <c r="AJ93" s="48"/>
-      <c r="AK93" s="48"/>
-      <c r="AL93" s="48"/>
-      <c r="AM93" s="48"/>
-      <c r="AN93" s="48"/>
-      <c r="AO93" s="48"/>
-      <c r="AP93" s="48"/>
-      <c r="AQ93" s="48"/>
-      <c r="AR93" s="48"/>
-      <c r="AS93" s="48"/>
-      <c r="AT93" s="48"/>
-      <c r="AU93" s="48"/>
-      <c r="AV93" s="49"/>
-      <c r="AW93" s="49"/>
-      <c r="AX93" s="49"/>
-      <c r="AY93" s="49"/>
-      <c r="AZ93" s="50"/>
+      <c r="AB94" s="48"/>
+      <c r="AC94" s="48"/>
+      <c r="AD94" s="48"/>
+      <c r="AE94" s="48"/>
+      <c r="AF94" s="48"/>
+      <c r="AG94" s="48"/>
+      <c r="AH94" s="48"/>
+      <c r="AI94" s="49"/>
+      <c r="AJ94" s="48"/>
+      <c r="AK94" s="48"/>
+      <c r="AL94" s="48"/>
+      <c r="AM94" s="48"/>
+      <c r="AN94" s="48"/>
+      <c r="AO94" s="48"/>
+      <c r="AP94" s="48"/>
+      <c r="AQ94" s="48"/>
+      <c r="AR94" s="48"/>
+      <c r="AS94" s="48"/>
+      <c r="AT94" s="48"/>
+      <c r="AU94" s="48"/>
+      <c r="AV94" s="49"/>
+      <c r="AW94" s="49"/>
+      <c r="AX94" s="49"/>
+      <c r="AY94" s="49"/>
+      <c r="AZ94" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="A1:M2"/>
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="S2:AF2"/>
@@ -9380,6 +9447,11 @@
     <mergeCell ref="AG1:AL1"/>
     <mergeCell ref="AM1:AR1"/>
     <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
